--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582C2CAF-E8DA-411E-BBB3-24311CB65E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024DBA9C-8815-4691-81F4-CBF85928FE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV-perovskite" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="453">
   <si>
     <t>Database</t>
   </si>
@@ -1386,6 +1386,15 @@
   </si>
   <si>
     <t>stockpiling of anode slime from electrorefining of copper, anode</t>
+  </si>
+  <si>
+    <t>electricity production, photovoltaic, at 0.5 kWp, perovskite-on-silicon tandem</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>Data from Table 1. Cells per module: 72 | Gross module are: 2 square meter | Performance. Yield over lifetime: 11500 kWh/per module (each module 2 square meter)</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H736"/>
+  <dimension ref="A1:H747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B576" sqref="B576"/>
+    <sheetView tabSelected="1" topLeftCell="A549" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B558" sqref="B558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11351,2561 +11360,2700 @@
         <v>361</v>
       </c>
     </row>
+    <row r="556" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
     <row r="557" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A557" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B557" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A558" s="5" t="s">
+      <c r="A557" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B558" s="5" t="s">
-        <v>386</v>
+      <c r="B557" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>3</v>
+      </c>
+      <c r="B558" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>3</v>
-      </c>
-      <c r="B559" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>5</v>
-      </c>
-      <c r="B560">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B560" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B561" t="s">
-        <v>387</v>
+        <v>81</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B562" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>8</v>
-      </c>
-      <c r="B563" t="s">
-        <v>16</v>
-      </c>
+      <c r="A563" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B563" s="1"/>
+      <c r="C563" s="1"/>
+      <c r="D563" s="1"/>
+      <c r="E563" s="1"/>
+      <c r="F563" s="1"/>
+      <c r="G563" s="1"/>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A565" t="str">
+        <f>B556</f>
+        <v>electricity production, photovoltaic, at 0.5 kWp, perovskite-on-silicon tandem</v>
+      </c>
+      <c r="B565" s="3">
+        <f>483538.053104108/483538.053104108</f>
+        <v>1</v>
+      </c>
+      <c r="C565" t="str">
+        <f>B561</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="E565" t="str">
+        <f>B558</f>
+        <v>RER</v>
+      </c>
+      <c r="F565" t="s">
+        <v>14</v>
+      </c>
+      <c r="G565" t="str">
+        <f>B560</f>
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>357</v>
+      </c>
+      <c r="B566" s="4">
+        <f>1/(11500)</f>
+        <v>8.6956521739130441E-5</v>
+      </c>
+      <c r="C566" t="s">
+        <v>7</v>
+      </c>
+      <c r="E566" t="s">
+        <v>92</v>
+      </c>
+      <c r="F566" t="s">
+        <v>77</v>
+      </c>
+      <c r="G566" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A568" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A569" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>3</v>
+      </c>
+      <c r="B570" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>5</v>
+      </c>
+      <c r="B571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>6</v>
+      </c>
+      <c r="B572" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>7</v>
+      </c>
+      <c r="B573" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>8</v>
+      </c>
+      <c r="B574" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B564" s="1"/>
-      <c r="C564" s="1"/>
-      <c r="D564" s="1"/>
-      <c r="E564" s="1"/>
-      <c r="F564" s="1"/>
-      <c r="G564" s="1"/>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
+      <c r="B575" s="1"/>
+      <c r="C575" s="1"/>
+      <c r="D575" s="1"/>
+      <c r="E575" s="1"/>
+      <c r="F575" s="1"/>
+      <c r="G575" s="1"/>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B565" s="1" t="s">
+      <c r="B576" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C565" s="1" t="s">
+      <c r="C576" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D565" s="1" t="s">
+      <c r="D576" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E565" s="1" t="s">
+      <c r="E576" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F565" s="1" t="s">
+      <c r="F576" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G565" s="1" t="s">
+      <c r="G576" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H565" s="1" t="s">
+      <c r="H576" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A566" t="str">
-        <f>B557</f>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A577" t="str">
+        <f>B568</f>
         <v>exhaust abatement, for perovskite</v>
       </c>
-      <c r="B566" s="3">
+      <c r="B577" s="3">
         <f>-1</f>
         <v>-1</v>
       </c>
-      <c r="C566" t="str">
-        <f>B562</f>
+      <c r="C577" t="str">
+        <f>B573</f>
         <v>cubic meter</v>
       </c>
-      <c r="E566" t="str">
-        <f>B559</f>
+      <c r="E577" t="str">
+        <f>B570</f>
         <v>DE</v>
       </c>
-      <c r="F566" t="s">
+      <c r="F577" t="s">
         <v>14</v>
       </c>
-      <c r="G566" t="str">
-        <f>B561</f>
+      <c r="G577" t="str">
+        <f>B572</f>
         <v>abated exhaust</v>
       </c>
-      <c r="H566" t="s">
+      <c r="H577" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
         <v>106</v>
       </c>
-      <c r="B567">
+      <c r="B578">
         <v>1.6111111111111111E-5</v>
       </c>
-      <c r="C567" t="s">
-        <v>79</v>
-      </c>
-      <c r="E567" t="s">
+      <c r="C578" t="s">
+        <v>79</v>
+      </c>
+      <c r="E578" t="s">
         <v>4</v>
       </c>
-      <c r="F567" t="s">
-        <v>77</v>
-      </c>
-      <c r="G567" t="s">
+      <c r="F578" t="s">
+        <v>77</v>
+      </c>
+      <c r="G578" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
         <v>100</v>
       </c>
-      <c r="B568">
+      <c r="B579">
         <v>1.6111111111111111E-2</v>
       </c>
-      <c r="C568" t="s">
-        <v>79</v>
-      </c>
-      <c r="E568" t="s">
+      <c r="C579" t="s">
+        <v>79</v>
+      </c>
+      <c r="E579" t="s">
         <v>53</v>
       </c>
-      <c r="F568" t="s">
-        <v>77</v>
-      </c>
-      <c r="G568" t="s">
+      <c r="F579" t="s">
+        <v>77</v>
+      </c>
+      <c r="G579" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
         <v>51</v>
       </c>
-      <c r="B569">
+      <c r="B580">
         <f>1/3.6</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="C569" t="s">
+      <c r="C580" t="s">
         <v>81</v>
       </c>
-      <c r="E569" t="s">
+      <c r="E580" t="s">
         <v>119</v>
       </c>
-      <c r="F569" t="s">
-        <v>77</v>
-      </c>
-      <c r="G569" t="s">
+      <c r="F580" t="s">
+        <v>77</v>
+      </c>
+      <c r="G580" t="s">
         <v>52</v>
       </c>
-      <c r="H569" t="s">
+      <c r="H580" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>113</v>
-      </c>
-      <c r="B570">
-        <v>1</v>
-      </c>
-      <c r="C570" t="s">
-        <v>79</v>
-      </c>
-      <c r="E570" t="s">
-        <v>92</v>
-      </c>
-      <c r="F570" t="s">
-        <v>77</v>
-      </c>
-      <c r="G570" t="s">
-        <v>120</v>
-      </c>
-      <c r="H570" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>389</v>
-      </c>
-      <c r="B571">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="C571" t="s">
-        <v>135</v>
-      </c>
-      <c r="E571" t="s">
-        <v>92</v>
-      </c>
-      <c r="F571" t="s">
-        <v>77</v>
-      </c>
-      <c r="G571" t="s">
-        <v>390</v>
-      </c>
-      <c r="H571" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>114</v>
-      </c>
-      <c r="B572">
-        <v>4</v>
-      </c>
-      <c r="C572" t="s">
-        <v>135</v>
-      </c>
-      <c r="E572" t="s">
-        <v>92</v>
-      </c>
-      <c r="F572" t="s">
-        <v>77</v>
-      </c>
-      <c r="G572" t="s">
-        <v>121</v>
-      </c>
-      <c r="H572" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>395</v>
-      </c>
-      <c r="B573">
-        <v>0</v>
-      </c>
-      <c r="C573" t="s">
-        <v>79</v>
-      </c>
-      <c r="D573" t="s">
-        <v>62</v>
-      </c>
-      <c r="F573" t="s">
-        <v>78</v>
-      </c>
-      <c r="H573" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
-        <v>396</v>
-      </c>
-      <c r="B574">
-        <v>0</v>
-      </c>
-      <c r="C574" t="s">
-        <v>79</v>
-      </c>
-      <c r="D574" t="s">
-        <v>62</v>
-      </c>
-      <c r="F574" t="s">
-        <v>78</v>
-      </c>
-      <c r="H574" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
-        <v>397</v>
-      </c>
-      <c r="B575">
-        <v>0</v>
-      </c>
-      <c r="C575" t="s">
-        <v>79</v>
-      </c>
-      <c r="D575" t="s">
-        <v>62</v>
-      </c>
-      <c r="F575" t="s">
-        <v>78</v>
-      </c>
-      <c r="H575" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>398</v>
-      </c>
-      <c r="B576">
-        <v>0</v>
-      </c>
-      <c r="C576" t="s">
-        <v>79</v>
-      </c>
-      <c r="D576" t="s">
-        <v>62</v>
-      </c>
-      <c r="F576" t="s">
-        <v>78</v>
-      </c>
-      <c r="H576" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="579" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A579" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="580" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A580" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B580" s="5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>3</v>
-      </c>
-      <c r="B581" t="s">
+        <v>113</v>
+      </c>
+      <c r="B581">
+        <v>1</v>
+      </c>
+      <c r="C581" t="s">
+        <v>79</v>
+      </c>
+      <c r="E581" t="s">
         <v>92</v>
+      </c>
+      <c r="F581" t="s">
+        <v>77</v>
+      </c>
+      <c r="G581" t="s">
+        <v>120</v>
+      </c>
+      <c r="H581" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>5</v>
+        <v>389</v>
       </c>
       <c r="B582">
-        <v>1</v>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C582" t="s">
+        <v>135</v>
+      </c>
+      <c r="E582" t="s">
+        <v>92</v>
+      </c>
+      <c r="F582" t="s">
+        <v>77</v>
+      </c>
+      <c r="G582" t="s">
+        <v>390</v>
+      </c>
+      <c r="H582" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>6</v>
-      </c>
-      <c r="B583" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="B583">
+        <v>4</v>
+      </c>
+      <c r="C583" t="s">
+        <v>135</v>
+      </c>
+      <c r="E583" t="s">
+        <v>92</v>
+      </c>
+      <c r="F583" t="s">
+        <v>77</v>
+      </c>
+      <c r="G583" t="s">
+        <v>121</v>
+      </c>
+      <c r="H583" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>7</v>
-      </c>
-      <c r="B584" t="s">
-        <v>7</v>
+        <v>395</v>
+      </c>
+      <c r="B584">
+        <v>0</v>
+      </c>
+      <c r="C584" t="s">
+        <v>79</v>
+      </c>
+      <c r="D584" t="s">
+        <v>62</v>
+      </c>
+      <c r="F584" t="s">
+        <v>78</v>
+      </c>
+      <c r="H584" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
+        <v>396</v>
+      </c>
+      <c r="B585">
+        <v>0</v>
+      </c>
+      <c r="C585" t="s">
+        <v>79</v>
+      </c>
+      <c r="D585" t="s">
+        <v>62</v>
+      </c>
+      <c r="F585" t="s">
+        <v>78</v>
+      </c>
+      <c r="H585" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>397</v>
+      </c>
+      <c r="B586">
+        <v>0</v>
+      </c>
+      <c r="C586" t="s">
+        <v>79</v>
+      </c>
+      <c r="D586" t="s">
+        <v>62</v>
+      </c>
+      <c r="F586" t="s">
+        <v>78</v>
+      </c>
+      <c r="H586" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>398</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+      <c r="C587" t="s">
+        <v>79</v>
+      </c>
+      <c r="D587" t="s">
+        <v>62</v>
+      </c>
+      <c r="F587" t="s">
+        <v>78</v>
+      </c>
+      <c r="H587" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A590" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A591" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B591" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>3</v>
+      </c>
+      <c r="B592" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>5</v>
+      </c>
+      <c r="B593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>6</v>
+      </c>
+      <c r="B594" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>7</v>
+      </c>
+      <c r="B595" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
         <v>8</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B596" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B586" s="1"/>
-      <c r="C586" s="1"/>
-      <c r="D586" s="1"/>
-      <c r="E586" s="1"/>
-      <c r="F586" s="1"/>
-      <c r="G586" s="1"/>
-    </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
+      <c r="B597" s="1"/>
+      <c r="C597" s="1"/>
+      <c r="D597" s="1"/>
+      <c r="E597" s="1"/>
+      <c r="F597" s="1"/>
+      <c r="G597" s="1"/>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B587" s="1" t="s">
+      <c r="B598" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C587" s="1" t="s">
+      <c r="C598" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D587" s="1" t="s">
+      <c r="D598" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E587" s="1" t="s">
+      <c r="E598" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F587" s="1" t="s">
+      <c r="F598" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G587" s="1" t="s">
+      <c r="G598" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H587" s="1" t="s">
+      <c r="H598" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A588" t="str">
-        <f>B579</f>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A599" t="str">
+        <f>B590</f>
         <v>tray cleaning, for perovskite</v>
       </c>
-      <c r="B588">
+      <c r="B599">
         <f>34866218.5922179/34866218.5922179</f>
         <v>1</v>
       </c>
-      <c r="C588" t="s">
+      <c r="C599" t="s">
         <v>7</v>
       </c>
-      <c r="E588" t="s">
+      <c r="E599" t="s">
         <v>92</v>
       </c>
-      <c r="F588" t="s">
+      <c r="F599" t="s">
         <v>14</v>
       </c>
-      <c r="G588" t="str">
-        <f>B583</f>
+      <c r="G599" t="str">
+        <f>B594</f>
         <v>tray cleaning</v>
       </c>
-      <c r="H588" t="s">
+      <c r="H599" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
         <v>364</v>
       </c>
-      <c r="B589">
+      <c r="B600">
         <f>2.10977682373547E-07/0.7</f>
         <v>3.0139668910506718E-7</v>
       </c>
-      <c r="C589" t="s">
-        <v>79</v>
-      </c>
-      <c r="E589" t="s">
+      <c r="C600" t="s">
+        <v>79</v>
+      </c>
+      <c r="E600" t="s">
         <v>53</v>
       </c>
-      <c r="F589" t="s">
-        <v>77</v>
-      </c>
-      <c r="G589" t="s">
+      <c r="F600" t="s">
+        <v>77</v>
+      </c>
+      <c r="G600" t="s">
         <v>365</v>
       </c>
-      <c r="H589" t="s">
+      <c r="H600" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
         <v>100</v>
       </c>
-      <c r="B590">
+      <c r="B601">
         <f>0.0000372313557129788</f>
         <v>3.7231355712978797E-5</v>
       </c>
-      <c r="C590" t="s">
-        <v>79</v>
-      </c>
-      <c r="E590" t="s">
+      <c r="C601" t="s">
+        <v>79</v>
+      </c>
+      <c r="E601" t="s">
         <v>53</v>
       </c>
-      <c r="F590" t="s">
-        <v>77</v>
-      </c>
-      <c r="G590" t="s">
+      <c r="F601" t="s">
+        <v>77</v>
+      </c>
+      <c r="G601" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
         <v>51</v>
       </c>
-      <c r="B591">
+      <c r="B602">
         <f>0.0268065761133448/3.6</f>
         <v>7.446271142595778E-3</v>
       </c>
-      <c r="C591" t="s">
+      <c r="C602" t="s">
         <v>81</v>
       </c>
-      <c r="E591" t="s">
+      <c r="E602" t="s">
         <v>119</v>
       </c>
-      <c r="F591" t="s">
-        <v>77</v>
-      </c>
-      <c r="G591" t="s">
+      <c r="F602" t="s">
+        <v>77</v>
+      </c>
+      <c r="G602" t="s">
         <v>52</v>
       </c>
-      <c r="H591" t="s">
+      <c r="H602" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
         <v>366</v>
       </c>
-      <c r="B592">
+      <c r="B603">
         <f>3.97134460938441E-06*1000</f>
         <v>3.97134460938441E-3</v>
       </c>
-      <c r="C592" t="s">
-        <v>79</v>
-      </c>
-      <c r="E592" t="s">
+      <c r="C603" t="s">
+        <v>79</v>
+      </c>
+      <c r="E603" t="s">
         <v>119</v>
       </c>
-      <c r="F592" t="s">
-        <v>77</v>
-      </c>
-      <c r="G592" t="s">
+      <c r="F603" t="s">
+        <v>77</v>
+      </c>
+      <c r="G603" t="s">
         <v>59</v>
       </c>
-      <c r="H592" t="s">
+      <c r="H603" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
         <v>93</v>
       </c>
-      <c r="B593">
+      <c r="B604">
         <f>0.000191120959326625</f>
         <v>1.91120959326625E-4</v>
       </c>
-      <c r="C593" t="s">
+      <c r="C604" t="s">
         <v>96</v>
       </c>
-      <c r="E593" t="s">
+      <c r="E604" t="s">
         <v>4</v>
       </c>
-      <c r="F593" t="s">
-        <v>77</v>
-      </c>
-      <c r="G593" t="s">
+      <c r="F604" t="s">
+        <v>77</v>
+      </c>
+      <c r="G604" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
         <v>368</v>
       </c>
-      <c r="B594">
+      <c r="B605">
         <f>-2.48209038086526E-06</f>
         <v>-2.48209038086526E-6</v>
       </c>
-      <c r="C594" t="s">
+      <c r="C605" t="s">
         <v>135</v>
       </c>
-      <c r="E594" t="s">
+      <c r="E605" t="s">
         <v>54</v>
       </c>
-      <c r="F594" t="s">
-        <v>77</v>
-      </c>
-      <c r="G594" t="s">
+      <c r="F605" t="s">
+        <v>77</v>
+      </c>
+      <c r="G605" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A595" s="8" t="s">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A606" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="B595">
+      <c r="B606">
         <f>-0.148925422851915</f>
         <v>-0.14892542285191501</v>
       </c>
-      <c r="C595" t="s">
+      <c r="C606" t="s">
         <v>135</v>
       </c>
-      <c r="E595" t="s">
+      <c r="E606" t="s">
         <v>92</v>
       </c>
-      <c r="F595" t="s">
-        <v>77</v>
-      </c>
-      <c r="G595" t="s">
+      <c r="F606" t="s">
+        <v>77</v>
+      </c>
+      <c r="G606" t="s">
         <v>410</v>
       </c>
-      <c r="H595" t="s">
+      <c r="H606" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A598" s="2" t="s">
+    <row r="609" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A609" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B598" s="1" t="s">
+      <c r="B609" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A599" s="5" t="s">
+    <row r="610" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A610" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B599" s="5" t="s">
+      <c r="B610" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
         <v>3</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B611" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
         <v>5</v>
       </c>
-      <c r="B601">
+      <c r="B612">
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
         <v>6</v>
       </c>
-      <c r="B602" t="s">
+      <c r="B613" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
         <v>7</v>
       </c>
-      <c r="B603" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
+      <c r="B614" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
         <v>8</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B615" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B605" s="1"/>
-      <c r="C605" s="1"/>
-      <c r="D605" s="1"/>
-      <c r="E605" s="1"/>
-      <c r="F605" s="1"/>
-      <c r="G605" s="1"/>
-    </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
+      <c r="B616" s="1"/>
+      <c r="C616" s="1"/>
+      <c r="D616" s="1"/>
+      <c r="E616" s="1"/>
+      <c r="F616" s="1"/>
+      <c r="G616" s="1"/>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B606" s="1" t="s">
+      <c r="B617" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C606" s="1" t="s">
+      <c r="C617" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D606" s="1" t="s">
+      <c r="D617" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E606" s="1" t="s">
+      <c r="E617" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F606" s="1" t="s">
+      <c r="F617" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G606" s="1" t="s">
+      <c r="G617" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H606" s="1" t="s">
+      <c r="H617" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A607" t="str">
-        <f>B598</f>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A618" t="str">
+        <f>B609</f>
         <v>ultrapure water system activity, for perovskite</v>
       </c>
-      <c r="B607">
+      <c r="B618">
         <f>2307.27272727273/2307.27272727273</f>
         <v>1</v>
       </c>
-      <c r="C607" t="s">
-        <v>79</v>
-      </c>
-      <c r="E607" t="s">
+      <c r="C618" t="s">
+        <v>79</v>
+      </c>
+      <c r="E618" t="s">
         <v>92</v>
       </c>
-      <c r="F607" t="s">
+      <c r="F618" t="s">
         <v>14</v>
       </c>
-      <c r="G607" t="str">
-        <f>B602</f>
+      <c r="G618" t="str">
+        <f>B613</f>
         <v>ultra pure water</v>
       </c>
-      <c r="H607" t="s">
+      <c r="H618" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
         <v>51</v>
       </c>
-      <c r="B608">
+      <c r="B619">
         <f>26.1818181818182/3.6/2307.27272727273</f>
         <v>3.1520882584712352E-3</v>
       </c>
-      <c r="C608" t="s">
+      <c r="C619" t="s">
         <v>81</v>
       </c>
-      <c r="E608" t="s">
+      <c r="E619" t="s">
         <v>119</v>
       </c>
-      <c r="F608" t="s">
-        <v>77</v>
-      </c>
-      <c r="G608" t="s">
+      <c r="F619" t="s">
+        <v>77</v>
+      </c>
+      <c r="G619" t="s">
         <v>52</v>
       </c>
-      <c r="H608" t="s">
+      <c r="H619" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
         <v>366</v>
       </c>
-      <c r="B609">
+      <c r="B620">
         <f>3.63854545454545*1000/2307.27272727273</f>
         <v>1.576989755713156</v>
       </c>
-      <c r="C609" t="s">
-        <v>79</v>
-      </c>
-      <c r="E609" t="s">
+      <c r="C620" t="s">
+        <v>79</v>
+      </c>
+      <c r="E620" t="s">
         <v>119</v>
       </c>
-      <c r="F609" t="s">
-        <v>77</v>
-      </c>
-      <c r="G609" t="s">
+      <c r="F620" t="s">
+        <v>77</v>
+      </c>
+      <c r="G620" t="s">
         <v>59</v>
       </c>
-      <c r="H609" t="s">
+      <c r="H620" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
         <v>114</v>
       </c>
-      <c r="B610">
+      <c r="B621">
         <f>0.00109090909090909/2307.27272727273</f>
         <v>4.7281323877068463E-7</v>
       </c>
-      <c r="C610" t="s">
+      <c r="C621" t="s">
         <v>135</v>
       </c>
-      <c r="E610" t="s">
+      <c r="E621" t="s">
         <v>92</v>
       </c>
-      <c r="F610" t="s">
-        <v>77</v>
-      </c>
-      <c r="G610" t="s">
+      <c r="F621" t="s">
+        <v>77</v>
+      </c>
+      <c r="G621" t="s">
         <v>121</v>
       </c>
-      <c r="H610" t="s">
+      <c r="H621" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
         <v>369</v>
       </c>
-      <c r="B611">
+      <c r="B622">
         <f>3.27272727272727E-07/2307.27272727273</f>
         <v>1.4184397163120539E-10</v>
       </c>
-      <c r="C611" t="s">
+      <c r="C622" t="s">
         <v>7</v>
       </c>
-      <c r="E611" t="s">
+      <c r="E622" t="s">
         <v>54</v>
       </c>
-      <c r="F611" t="s">
-        <v>77</v>
-      </c>
-      <c r="G611" t="s">
+      <c r="F622" t="s">
+        <v>77</v>
+      </c>
+      <c r="G622" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
         <v>258</v>
       </c>
-      <c r="B612">
+      <c r="B623">
         <f>-1/2307.27272727273</f>
         <v>-4.3341213553979455E-4</v>
       </c>
-      <c r="C612" t="s">
+      <c r="C623" t="s">
         <v>135</v>
       </c>
-      <c r="E612" t="s">
+      <c r="E623" t="s">
         <v>119</v>
       </c>
-      <c r="F612" t="s">
-        <v>77</v>
-      </c>
-      <c r="G612" t="s">
+      <c r="F623" t="s">
+        <v>77</v>
+      </c>
+      <c r="G623" t="s">
         <v>259</v>
       </c>
-      <c r="H612" t="s">
+      <c r="H623" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A615" s="2" t="s">
+    <row r="626" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A626" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B615" s="1" t="s">
+      <c r="B626" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A616" s="5" t="s">
+    <row r="627" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A627" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B616" s="5" t="s">
+      <c r="B627" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
         <v>3</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B628" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
         <v>5</v>
       </c>
-      <c r="B618">
+      <c r="B629">
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
         <v>6</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B630" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
         <v>7</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B631" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
         <v>8</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B632" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B622" s="1"/>
-      <c r="C622" s="1"/>
-      <c r="D622" s="1"/>
-      <c r="E622" s="1"/>
-      <c r="F622" s="1"/>
-      <c r="G622" s="1"/>
-    </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
+      <c r="B633" s="1"/>
+      <c r="C633" s="1"/>
+      <c r="D633" s="1"/>
+      <c r="E633" s="1"/>
+      <c r="F633" s="1"/>
+      <c r="G633" s="1"/>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B623" s="1" t="s">
+      <c r="B634" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C623" s="1" t="s">
+      <c r="C634" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D623" s="1" t="s">
+      <c r="D634" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E623" s="1" t="s">
+      <c r="E634" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F623" s="1" t="s">
+      <c r="F634" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G623" s="1" t="s">
+      <c r="G634" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H623" s="1" t="s">
+      <c r="H634" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A624" t="str">
-        <f>B615</f>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A635" t="str">
+        <f>B626</f>
         <v>inhouse waste water treatment, for perovskite production</v>
       </c>
-      <c r="B624">
+      <c r="B635">
         <f>-1</f>
         <v>-1</v>
       </c>
-      <c r="C624" t="str">
-        <f>B620</f>
+      <c r="C635" t="str">
+        <f>B631</f>
         <v>cubic meter</v>
       </c>
-      <c r="E624" t="s">
+      <c r="E635" t="s">
         <v>92</v>
       </c>
-      <c r="F624" t="s">
+      <c r="F635" t="s">
         <v>14</v>
       </c>
-      <c r="G624" t="str">
-        <f>B619</f>
+      <c r="G635" t="str">
+        <f>B630</f>
         <v>waste water</v>
       </c>
-      <c r="H624" t="s">
+      <c r="H635" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
         <v>104</v>
       </c>
-      <c r="B625">
+      <c r="B636">
         <f>0.000170225710878426/0.7*1149.2</f>
         <v>0.27946198134498168</v>
       </c>
-      <c r="C625" t="s">
-        <v>79</v>
-      </c>
-      <c r="E625" t="s">
+      <c r="C636" t="s">
+        <v>79</v>
+      </c>
+      <c r="E636" t="s">
         <v>53</v>
       </c>
-      <c r="F625" t="s">
-        <v>77</v>
-      </c>
-      <c r="G625" t="s">
+      <c r="F636" t="s">
+        <v>77</v>
+      </c>
+      <c r="G636" t="s">
         <v>105</v>
       </c>
-      <c r="H625" t="s">
+      <c r="H636" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
         <v>100</v>
       </c>
-      <c r="B626">
+      <c r="B637">
         <v>0.30262348600609101</v>
       </c>
-      <c r="C626" t="s">
-        <v>79</v>
-      </c>
-      <c r="E626" t="s">
+      <c r="C637" t="s">
+        <v>79</v>
+      </c>
+      <c r="E637" t="s">
         <v>53</v>
       </c>
-      <c r="F626" t="s">
-        <v>77</v>
-      </c>
-      <c r="G626" t="s">
+      <c r="F637" t="s">
+        <v>77</v>
+      </c>
+      <c r="G637" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
         <v>25</v>
       </c>
-      <c r="B627">
+      <c r="B638">
         <f>0.739952718676123*1.52</f>
         <v>1.124728132387707</v>
       </c>
-      <c r="C627" t="s">
-        <v>79</v>
-      </c>
-      <c r="E627" t="s">
+      <c r="C638" t="s">
+        <v>79</v>
+      </c>
+      <c r="E638" t="s">
         <v>4</v>
       </c>
-      <c r="F627" t="s">
-        <v>77</v>
-      </c>
-      <c r="G627" t="s">
+      <c r="F638" t="s">
+        <v>77</v>
+      </c>
+      <c r="G638" t="s">
         <v>111</v>
       </c>
-      <c r="H627" t="s">
+      <c r="H638" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
         <v>374</v>
       </c>
-      <c r="B628">
+      <c r="B639">
         <v>0.45705279747832939</v>
       </c>
-      <c r="C628" t="s">
-        <v>79</v>
-      </c>
-      <c r="E628" t="s">
+      <c r="C639" t="s">
+        <v>79</v>
+      </c>
+      <c r="E639" t="s">
         <v>4</v>
       </c>
-      <c r="F628" t="s">
-        <v>77</v>
-      </c>
-      <c r="G628" t="s">
+      <c r="F639" t="s">
+        <v>77</v>
+      </c>
+      <c r="G639" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
         <v>375</v>
       </c>
-      <c r="B629">
+      <c r="B640">
         <v>0.33884948778565799</v>
       </c>
-      <c r="C629" t="s">
-        <v>79</v>
-      </c>
-      <c r="E629" t="s">
+      <c r="C640" t="s">
+        <v>79</v>
+      </c>
+      <c r="E640" t="s">
         <v>53</v>
       </c>
-      <c r="F629" t="s">
-        <v>77</v>
-      </c>
-      <c r="G629" t="s">
+      <c r="F640" t="s">
+        <v>77</v>
+      </c>
+      <c r="G640" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
         <v>376</v>
       </c>
-      <c r="B630">
+      <c r="B641">
         <v>0.42111899133175729</v>
       </c>
-      <c r="C630" t="s">
-        <v>79</v>
-      </c>
-      <c r="E630" t="s">
+      <c r="C641" t="s">
+        <v>79</v>
+      </c>
+      <c r="E641" t="s">
         <v>53</v>
       </c>
-      <c r="F630" t="s">
-        <v>77</v>
-      </c>
-      <c r="G630" t="s">
+      <c r="F641" t="s">
+        <v>77</v>
+      </c>
+      <c r="G641" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
         <v>51</v>
       </c>
-      <c r="B631">
+      <c r="B642">
         <f>78.8022064617809/3.6</f>
         <v>21.88950179493914</v>
       </c>
-      <c r="C631" t="s">
+      <c r="C642" t="s">
         <v>81</v>
       </c>
-      <c r="E631" t="s">
+      <c r="E642" t="s">
         <v>119</v>
       </c>
-      <c r="F631" t="s">
-        <v>77</v>
-      </c>
-      <c r="G631" t="s">
+      <c r="F642" t="s">
+        <v>77</v>
+      </c>
+      <c r="G642" t="s">
         <v>52</v>
       </c>
-      <c r="H631" t="s">
+      <c r="H642" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
         <v>114</v>
       </c>
-      <c r="B632">
+      <c r="B643">
         <f>78.8022064617809</f>
         <v>78.802206461780898</v>
       </c>
-      <c r="C632" t="s">
+      <c r="C643" t="s">
         <v>135</v>
       </c>
-      <c r="E632" t="s">
+      <c r="E643" t="s">
         <v>92</v>
       </c>
-      <c r="F632" t="s">
-        <v>77</v>
-      </c>
-      <c r="G632" t="s">
+      <c r="F643" t="s">
+        <v>77</v>
+      </c>
+      <c r="G643" t="s">
         <v>121</v>
       </c>
-      <c r="H632" t="s">
+      <c r="H643" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
         <v>366</v>
       </c>
-      <c r="B633">
+      <c r="B644">
         <v>315.20882584712399</v>
       </c>
-      <c r="C633" t="s">
-        <v>79</v>
-      </c>
-      <c r="E633" t="s">
+      <c r="C644" t="s">
+        <v>79</v>
+      </c>
+      <c r="E644" t="s">
         <v>119</v>
       </c>
-      <c r="F633" t="s">
-        <v>77</v>
-      </c>
-      <c r="G633" t="s">
+      <c r="F644" t="s">
+        <v>77</v>
+      </c>
+      <c r="G644" t="s">
         <v>59</v>
       </c>
-      <c r="H633" t="s">
+      <c r="H644" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
         <v>258</v>
       </c>
-      <c r="B634">
+      <c r="B645">
         <v>0.68557919621749397</v>
       </c>
-      <c r="C634" t="s">
+      <c r="C645" t="s">
         <v>135</v>
       </c>
-      <c r="E634" t="s">
+      <c r="E645" t="s">
         <v>119</v>
       </c>
-      <c r="F634" t="s">
-        <v>77</v>
-      </c>
-      <c r="G634" t="s">
+      <c r="F645" t="s">
+        <v>77</v>
+      </c>
+      <c r="G645" t="s">
         <v>259</v>
       </c>
-      <c r="H634" t="s">
+      <c r="H645" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
         <v>380</v>
       </c>
-      <c r="B635">
+      <c r="B646">
         <f>0.179790569157611*1000</f>
         <v>179.790569157611</v>
       </c>
-      <c r="C635" t="s">
-        <v>79</v>
-      </c>
-      <c r="E635" t="s">
+      <c r="C646" t="s">
+        <v>79</v>
+      </c>
+      <c r="E646" t="s">
         <v>119</v>
       </c>
-      <c r="F635" t="s">
-        <v>77</v>
-      </c>
-      <c r="G635" t="s">
+      <c r="F646" t="s">
+        <v>77</v>
+      </c>
+      <c r="G646" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
         <v>409</v>
       </c>
-      <c r="B636">
+      <c r="B647">
         <f>-78.8022064617809</f>
         <v>-78.802206461780898</v>
       </c>
-      <c r="C636" t="s">
+      <c r="C647" t="s">
         <v>135</v>
       </c>
-      <c r="E636" t="s">
+      <c r="E647" t="s">
         <v>92</v>
       </c>
-      <c r="F636" t="s">
-        <v>77</v>
-      </c>
-      <c r="G636" t="s">
+      <c r="F647" t="s">
+        <v>77</v>
+      </c>
+      <c r="G647" t="s">
         <v>410</v>
       </c>
-      <c r="H636" t="s">
+      <c r="H647" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
         <v>412</v>
       </c>
-      <c r="B637">
+      <c r="B648">
         <v>47.281323877068601</v>
       </c>
-      <c r="C637" t="s">
+      <c r="C648" t="s">
         <v>135</v>
       </c>
-      <c r="E637" t="s">
+      <c r="E648" t="s">
         <v>92</v>
       </c>
-      <c r="F637" t="s">
-        <v>77</v>
-      </c>
-      <c r="G637" t="s">
+      <c r="F648" t="s">
+        <v>77</v>
+      </c>
+      <c r="G648" t="s">
         <v>413</v>
       </c>
-      <c r="H637" t="s">
+      <c r="H648" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A640" s="2" t="s">
+    <row r="651" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A651" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B640" s="1" t="s">
+      <c r="B651" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A641" s="5" t="s">
+    <row r="652" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A652" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B641" s="5" t="s">
+      <c r="B652" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
         <v>3</v>
       </c>
-      <c r="B642" t="s">
+      <c r="B653" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
         <v>5</v>
       </c>
-      <c r="B643">
+      <c r="B654">
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
         <v>6</v>
       </c>
-      <c r="B644" t="s">
+      <c r="B655" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
         <v>7</v>
       </c>
-      <c r="B645" t="s">
+      <c r="B656" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
         <v>8</v>
       </c>
-      <c r="B646" t="s">
+      <c r="B657" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A647" s="1" t="s">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B647" s="1"/>
-      <c r="C647" s="1"/>
-      <c r="D647" s="1"/>
-      <c r="E647" s="1"/>
-      <c r="F647" s="1"/>
-      <c r="G647" s="1"/>
-    </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A648" s="1" t="s">
+      <c r="B658" s="1"/>
+      <c r="C658" s="1"/>
+      <c r="D658" s="1"/>
+      <c r="E658" s="1"/>
+      <c r="F658" s="1"/>
+      <c r="G658" s="1"/>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B648" s="1" t="s">
+      <c r="B659" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C648" s="1" t="s">
+      <c r="C659" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D648" s="1" t="s">
+      <c r="D659" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E648" s="1" t="s">
+      <c r="E659" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F648" s="1" t="s">
+      <c r="F659" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G648" s="1" t="s">
+      <c r="G659" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H648" s="1" t="s">
+      <c r="H659" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A649" t="str">
-        <f>B640</f>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A660" t="str">
+        <f>B651</f>
         <v>process cooling, water, for perovskite</v>
       </c>
-      <c r="B649">
+      <c r="B660">
         <v>1</v>
       </c>
-      <c r="C649" t="str">
-        <f>B645</f>
+      <c r="C660" t="str">
+        <f>B656</f>
         <v>cubic meter</v>
       </c>
-      <c r="E649" t="s">
+      <c r="E660" t="s">
         <v>92</v>
       </c>
-      <c r="F649" t="s">
+      <c r="F660" t="s">
         <v>14</v>
       </c>
-      <c r="G649" t="str">
-        <f>B644</f>
+      <c r="G660" t="str">
+        <f>B655</f>
         <v>cooling water, conditioned</v>
       </c>
-      <c r="H649" t="s">
+      <c r="H660" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
         <v>258</v>
       </c>
-      <c r="B650">
+      <c r="B661">
         <f>0.75</f>
         <v>0.75</v>
       </c>
-      <c r="C650" t="s">
+      <c r="C661" t="s">
         <v>135</v>
       </c>
-      <c r="E650" t="s">
+      <c r="E661" t="s">
         <v>119</v>
       </c>
-      <c r="F650" t="s">
-        <v>77</v>
-      </c>
-      <c r="G650" t="s">
+      <c r="F661" t="s">
+        <v>77</v>
+      </c>
+      <c r="G661" t="s">
         <v>259</v>
       </c>
-      <c r="H650" t="s">
+      <c r="H661" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
         <v>51</v>
       </c>
-      <c r="B651">
+      <c r="B662">
         <f>0.165704904993084/3.6</f>
         <v>4.602914027585666E-2</v>
       </c>
-      <c r="C651" t="s">
+      <c r="C662" t="s">
         <v>81</v>
       </c>
-      <c r="E651" t="s">
+      <c r="E662" t="s">
         <v>119</v>
       </c>
-      <c r="F651" t="s">
-        <v>77</v>
-      </c>
-      <c r="G651" t="s">
+      <c r="F662" t="s">
+        <v>77</v>
+      </c>
+      <c r="G662" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
         <v>366</v>
       </c>
-      <c r="B652">
+      <c r="B663">
         <f>0.252525252525253*1000</f>
         <v>252.52525252525299</v>
       </c>
-      <c r="C652" t="s">
-        <v>79</v>
-      </c>
-      <c r="E652" t="s">
+      <c r="C663" t="s">
+        <v>79</v>
+      </c>
+      <c r="E663" t="s">
         <v>119</v>
       </c>
-      <c r="F652" t="s">
-        <v>77</v>
-      </c>
-      <c r="G652" t="s">
+      <c r="F663" t="s">
+        <v>77</v>
+      </c>
+      <c r="G663" t="s">
         <v>59</v>
       </c>
-      <c r="H652" t="s">
+      <c r="H663" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A654" s="2" t="s">
+    <row r="665" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A665" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B654" s="1" t="s">
+      <c r="B665" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A655" s="5" t="s">
+    <row r="666" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A666" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B655" s="5" t="s">
+      <c r="B666" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
         <v>3</v>
       </c>
-      <c r="B656" t="s">
+      <c r="B667" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
         <v>5</v>
       </c>
-      <c r="B657">
+      <c r="B668">
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
         <v>6</v>
       </c>
-      <c r="B658" t="s">
+      <c r="B669" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
         <v>7</v>
       </c>
-      <c r="B659" t="s">
+      <c r="B670" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
         <v>8</v>
       </c>
-      <c r="B660" t="s">
+      <c r="B671" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A661" s="1" t="s">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B661" s="1"/>
-      <c r="C661" s="1"/>
-      <c r="D661" s="1"/>
-      <c r="E661" s="1"/>
-      <c r="F661" s="1"/>
-      <c r="G661" s="1"/>
-    </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A662" s="1" t="s">
+      <c r="B672" s="1"/>
+      <c r="C672" s="1"/>
+      <c r="D672" s="1"/>
+      <c r="E672" s="1"/>
+      <c r="F672" s="1"/>
+      <c r="G672" s="1"/>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B662" s="1" t="s">
+      <c r="B673" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C662" s="1" t="s">
+      <c r="C673" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D662" s="1" t="s">
+      <c r="D673" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E662" s="1" t="s">
+      <c r="E673" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F662" s="1" t="s">
+      <c r="F673" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G662" s="1" t="s">
+      <c r="G673" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H662" s="1" t="s">
+      <c r="H673" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A663" t="str">
-        <f>B654</f>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A674" t="str">
+        <f>B665</f>
         <v>process cooling, water, for perovskite</v>
       </c>
-      <c r="B663">
+      <c r="B674">
         <f>-1</f>
         <v>-1</v>
       </c>
-      <c r="C663" t="str">
-        <f>B659</f>
+      <c r="C674" t="str">
+        <f>B670</f>
         <v>cubic meter</v>
       </c>
-      <c r="E663" t="s">
+      <c r="E674" t="s">
         <v>92</v>
       </c>
-      <c r="F663" t="s">
+      <c r="F674" t="s">
         <v>14</v>
       </c>
-      <c r="G663" t="str">
-        <f>B658</f>
+      <c r="G674" t="str">
+        <f>B669</f>
         <v>cooling water, used</v>
       </c>
-      <c r="H663" t="s">
+      <c r="H674" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A666" s="2" t="s">
+    <row r="677" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A677" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B666" s="1" t="s">
+      <c r="B677" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A667" s="5" t="s">
+    <row r="678" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A678" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B667" s="5" t="s">
+      <c r="B678" s="5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
         <v>3</v>
       </c>
-      <c r="B668" t="s">
+      <c r="B679" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
         <v>5</v>
       </c>
-      <c r="B669">
+      <c r="B680">
         <v>1</v>
-      </c>
-    </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
-        <v>6</v>
-      </c>
-      <c r="B670" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
-        <v>7</v>
-      </c>
-      <c r="B671" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
-        <v>8</v>
-      </c>
-      <c r="B672" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A673" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B673" s="1"/>
-      <c r="C673" s="1"/>
-      <c r="D673" s="1"/>
-      <c r="E673" s="1"/>
-      <c r="F673" s="1"/>
-      <c r="G673" s="1"/>
-    </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A674" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B674" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C674" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D674" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E674" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F674" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G674" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H674" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A675" t="str">
-        <f>B666</f>
-        <v>air compressor activity, for perovskite</v>
-      </c>
-      <c r="B675">
-        <v>1</v>
-      </c>
-      <c r="C675" t="str">
-        <f>B671</f>
-        <v>cubic meter</v>
-      </c>
-      <c r="E675" t="s">
-        <v>92</v>
-      </c>
-      <c r="F675" t="s">
-        <v>14</v>
-      </c>
-      <c r="G675" t="str">
-        <f>B670</f>
-        <v>compressed air, 14 bar, low efficiency</v>
-      </c>
-      <c r="H675" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
-        <v>382</v>
-      </c>
-      <c r="B676">
-        <v>1</v>
-      </c>
-      <c r="C676" t="s">
-        <v>135</v>
-      </c>
-      <c r="E676" t="s">
-        <v>53</v>
-      </c>
-      <c r="F676" t="s">
-        <v>77</v>
-      </c>
-      <c r="G676" t="s">
-        <v>383</v>
-      </c>
-      <c r="H676" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="679" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A679" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B679" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="680" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A680" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B680" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B681" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>5</v>
-      </c>
-      <c r="B682">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B682" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
+        <v>8</v>
+      </c>
+      <c r="B683" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B684" s="1"/>
+      <c r="C684" s="1"/>
+      <c r="D684" s="1"/>
+      <c r="E684" s="1"/>
+      <c r="F684" s="1"/>
+      <c r="G684" s="1"/>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G685" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B683" t="s">
+      <c r="H685" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A686" t="str">
+        <f>B677</f>
+        <v>air compressor activity, for perovskite</v>
+      </c>
+      <c r="B686">
+        <v>1</v>
+      </c>
+      <c r="C686" t="str">
+        <f>B682</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E686" t="s">
+        <v>92</v>
+      </c>
+      <c r="F686" t="s">
+        <v>14</v>
+      </c>
+      <c r="G686" t="str">
+        <f>B681</f>
+        <v>compressed air, 14 bar, low efficiency</v>
+      </c>
+      <c r="H686" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>382</v>
+      </c>
+      <c r="B687">
+        <v>1</v>
+      </c>
+      <c r="C687" t="s">
+        <v>135</v>
+      </c>
+      <c r="E687" t="s">
+        <v>53</v>
+      </c>
+      <c r="F687" t="s">
+        <v>77</v>
+      </c>
+      <c r="G687" t="s">
+        <v>383</v>
+      </c>
+      <c r="H687" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A690" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A691" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B691" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>3</v>
+      </c>
+      <c r="B692" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>5</v>
+      </c>
+      <c r="B693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>6</v>
+      </c>
+      <c r="B694" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
         <v>7</v>
       </c>
-      <c r="B684" t="s">
+      <c r="B695" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
         <v>8</v>
       </c>
-      <c r="B685" t="s">
+      <c r="B696" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A686" s="1" t="s">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B686" s="1"/>
-      <c r="C686" s="1"/>
-      <c r="D686" s="1"/>
-      <c r="E686" s="1"/>
-      <c r="F686" s="1"/>
-      <c r="G686" s="1"/>
-    </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A687" s="1" t="s">
+      <c r="B697" s="1"/>
+      <c r="C697" s="1"/>
+      <c r="D697" s="1"/>
+      <c r="E697" s="1"/>
+      <c r="F697" s="1"/>
+      <c r="G697" s="1"/>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B687" s="1" t="s">
+      <c r="B698" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C687" s="1" t="s">
+      <c r="C698" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D687" s="1" t="s">
+      <c r="D698" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E687" s="1" t="s">
+      <c r="E698" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F687" s="1" t="s">
+      <c r="F698" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G687" s="1" t="s">
+      <c r="G698" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H687" s="1" t="s">
+      <c r="H698" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A688" t="str">
-        <f>B679</f>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A699" t="str">
+        <f>B690</f>
         <v>process exhaust ventilators, general, for perovskite production</v>
       </c>
-      <c r="B688">
+      <c r="B699">
         <v>-1</v>
       </c>
-      <c r="C688" t="str">
-        <f>B684</f>
+      <c r="C699" t="str">
+        <f>B695</f>
         <v>cubic meter</v>
       </c>
-      <c r="E688" t="s">
+      <c r="E699" t="s">
         <v>92</v>
       </c>
-      <c r="F688" t="s">
+      <c r="F699" t="s">
         <v>14</v>
       </c>
-      <c r="G688" t="str">
-        <f>B683</f>
+      <c r="G699" t="str">
+        <f>B694</f>
         <v>exhaust, general</v>
       </c>
-      <c r="H688" t="s">
+      <c r="H699" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
         <v>401</v>
       </c>
-      <c r="B689">
+      <c r="B700">
         <v>7.6051410753669521E-7</v>
       </c>
-      <c r="C689" t="s">
+      <c r="C700" t="s">
         <v>7</v>
       </c>
-      <c r="E689" t="s">
+      <c r="E700" t="s">
         <v>4</v>
       </c>
-      <c r="F689" t="s">
-        <v>77</v>
-      </c>
-      <c r="G689" t="s">
+      <c r="F700" t="s">
+        <v>77</v>
+      </c>
+      <c r="G700" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
         <v>402</v>
       </c>
-      <c r="B690">
+      <c r="B701">
         <v>7.6051410753669521E-7</v>
       </c>
-      <c r="C690" t="s">
+      <c r="C701" t="s">
         <v>7</v>
       </c>
-      <c r="E690" t="s">
+      <c r="E701" t="s">
         <v>57</v>
       </c>
-      <c r="F690" t="s">
-        <v>77</v>
-      </c>
-      <c r="G690" t="s">
+      <c r="F701" t="s">
+        <v>77</v>
+      </c>
+      <c r="G701" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
         <v>51</v>
       </c>
-      <c r="B691">
+      <c r="B702">
         <f>0.0061881332397246/3.6</f>
         <v>1.7189258999234999E-3</v>
       </c>
-      <c r="C691" t="s">
+      <c r="C702" t="s">
         <v>81</v>
       </c>
-      <c r="E691" t="s">
+      <c r="E702" t="s">
         <v>119</v>
       </c>
-      <c r="F691" t="s">
-        <v>77</v>
-      </c>
-      <c r="G691" t="s">
+      <c r="F702" t="s">
+        <v>77</v>
+      </c>
+      <c r="G702" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
-        <v>408</v>
-      </c>
-      <c r="B692">
-        <v>1.1407711613050422E-5</v>
-      </c>
-      <c r="C692" t="s">
-        <v>79</v>
-      </c>
-      <c r="D692" t="s">
-        <v>62</v>
-      </c>
-      <c r="F692" t="s">
-        <v>78</v>
-      </c>
-      <c r="H692" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
-        <v>194</v>
-      </c>
-      <c r="B693">
-        <v>9.8572073921971304E-3</v>
-      </c>
-      <c r="C693" t="s">
-        <v>80</v>
-      </c>
-      <c r="D693" t="s">
-        <v>62</v>
-      </c>
-      <c r="F693" t="s">
-        <v>78</v>
-      </c>
-      <c r="H693" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
-        <v>76</v>
-      </c>
-      <c r="B694">
-        <v>3.9926990645676497E-5</v>
-      </c>
-      <c r="C694" t="s">
-        <v>135</v>
-      </c>
-      <c r="D694" t="s">
-        <v>62</v>
-      </c>
-      <c r="F694" t="s">
-        <v>78</v>
-      </c>
-      <c r="H694" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="697" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A697" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B697" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="698" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A698" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B698" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
-        <v>3</v>
-      </c>
-      <c r="B699" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
-        <v>5</v>
-      </c>
-      <c r="B700">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
-        <v>6</v>
-      </c>
-      <c r="B701" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
-        <v>7</v>
-      </c>
-      <c r="B702" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
+        <v>408</v>
+      </c>
+      <c r="B703">
+        <v>1.1407711613050422E-5</v>
+      </c>
+      <c r="C703" t="s">
+        <v>79</v>
+      </c>
+      <c r="D703" t="s">
+        <v>62</v>
+      </c>
+      <c r="F703" t="s">
+        <v>78</v>
+      </c>
+      <c r="H703" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>194</v>
+      </c>
+      <c r="B704">
+        <v>9.8572073921971304E-3</v>
+      </c>
+      <c r="C704" t="s">
+        <v>80</v>
+      </c>
+      <c r="D704" t="s">
+        <v>62</v>
+      </c>
+      <c r="F704" t="s">
+        <v>78</v>
+      </c>
+      <c r="H704" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>76</v>
+      </c>
+      <c r="B705">
+        <v>3.9926990645676497E-5</v>
+      </c>
+      <c r="C705" t="s">
+        <v>135</v>
+      </c>
+      <c r="D705" t="s">
+        <v>62</v>
+      </c>
+      <c r="F705" t="s">
+        <v>78</v>
+      </c>
+      <c r="H705" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A708" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A709" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B709" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>3</v>
+      </c>
+      <c r="B710" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>5</v>
+      </c>
+      <c r="B711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>6</v>
+      </c>
+      <c r="B712" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>7</v>
+      </c>
+      <c r="B713" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
         <v>8</v>
       </c>
-      <c r="B703" t="s">
+      <c r="B714" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A704" s="1" t="s">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B704" s="1"/>
-      <c r="C704" s="1"/>
-      <c r="D704" s="1"/>
-      <c r="E704" s="1"/>
-      <c r="F704" s="1"/>
-      <c r="G704" s="1"/>
-    </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A705" s="1" t="s">
+      <c r="B715" s="1"/>
+      <c r="C715" s="1"/>
+      <c r="D715" s="1"/>
+      <c r="E715" s="1"/>
+      <c r="F715" s="1"/>
+      <c r="G715" s="1"/>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B705" s="1" t="s">
+      <c r="B716" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C705" s="1" t="s">
+      <c r="C716" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D705" s="1" t="s">
+      <c r="D716" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E705" s="1" t="s">
+      <c r="E716" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F705" s="1" t="s">
+      <c r="F716" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G705" s="1" t="s">
+      <c r="G716" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H705" s="1" t="s">
+      <c r="H716" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A706" t="str">
-        <f>B697</f>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A717" t="str">
+        <f>B708</f>
         <v>process exhaust ventilators, acidic, for perovskite production</v>
       </c>
-      <c r="B706">
+      <c r="B717">
         <v>-1</v>
       </c>
-      <c r="C706" t="str">
-        <f>B702</f>
+      <c r="C717" t="str">
+        <f>B713</f>
         <v>cubic meter</v>
       </c>
-      <c r="E706" t="s">
+      <c r="E717" t="s">
         <v>92</v>
       </c>
-      <c r="F706" t="s">
+      <c r="F717" t="s">
         <v>14</v>
       </c>
-      <c r="G706" t="str">
-        <f>B701</f>
+      <c r="G717" t="str">
+        <f>B712</f>
         <v>exhaust, acidic</v>
       </c>
-      <c r="H706" t="s">
+      <c r="H717" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
         <v>401</v>
       </c>
-      <c r="B707">
+      <c r="B718">
         <v>7.6051410753669521E-7</v>
       </c>
-      <c r="C707" t="s">
+      <c r="C718" t="s">
         <v>7</v>
       </c>
-      <c r="E707" t="s">
+      <c r="E718" t="s">
         <v>4</v>
       </c>
-      <c r="F707" t="s">
-        <v>77</v>
-      </c>
-      <c r="G707" t="s">
+      <c r="F718" t="s">
+        <v>77</v>
+      </c>
+      <c r="G718" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
         <v>402</v>
       </c>
-      <c r="B708">
+      <c r="B719">
         <v>7.6051410753669521E-7</v>
       </c>
-      <c r="C708" t="s">
+      <c r="C719" t="s">
         <v>7</v>
       </c>
-      <c r="E708" t="s">
+      <c r="E719" t="s">
         <v>57</v>
       </c>
-      <c r="F708" t="s">
-        <v>77</v>
-      </c>
-      <c r="G708" t="s">
+      <c r="F719" t="s">
+        <v>77</v>
+      </c>
+      <c r="G719" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
         <v>51</v>
       </c>
-      <c r="B709">
+      <c r="B720">
         <f>0.0061881332397246/3.6</f>
         <v>1.7189258999234999E-3</v>
       </c>
-      <c r="C709" t="s">
+      <c r="C720" t="s">
         <v>81</v>
       </c>
-      <c r="E709" t="s">
+      <c r="E720" t="s">
         <v>119</v>
       </c>
-      <c r="F709" t="s">
-        <v>77</v>
-      </c>
-      <c r="G709" t="s">
+      <c r="F720" t="s">
+        <v>77</v>
+      </c>
+      <c r="G720" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
         <v>408</v>
       </c>
-      <c r="B710">
+      <c r="B721">
         <v>1.1407711613050422E-5</v>
       </c>
-      <c r="C710" t="s">
-        <v>79</v>
-      </c>
-      <c r="D710" t="s">
+      <c r="C721" t="s">
+        <v>79</v>
+      </c>
+      <c r="D721" t="s">
         <v>62</v>
       </c>
-      <c r="F710" t="s">
+      <c r="F721" t="s">
         <v>78</v>
       </c>
-      <c r="H710" t="s">
+      <c r="H721" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
         <v>194</v>
       </c>
-      <c r="B711">
+      <c r="B722">
         <v>9.8572073921971304E-3</v>
       </c>
-      <c r="C711" t="s">
+      <c r="C722" t="s">
         <v>80</v>
       </c>
-      <c r="D711" t="s">
+      <c r="D722" t="s">
         <v>62</v>
       </c>
-      <c r="F711" t="s">
+      <c r="F722" t="s">
         <v>78</v>
       </c>
-      <c r="H711" t="s">
+      <c r="H722" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
         <v>76</v>
       </c>
-      <c r="B712">
+      <c r="B723">
         <v>3.9926990645676497E-5</v>
       </c>
-      <c r="C712" t="s">
+      <c r="C723" t="s">
         <v>135</v>
       </c>
-      <c r="D712" t="s">
+      <c r="D723" t="s">
         <v>62</v>
       </c>
-      <c r="F712" t="s">
+      <c r="F723" t="s">
         <v>78</v>
       </c>
-      <c r="H712" t="s">
+      <c r="H723" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
         <v>25</v>
       </c>
-      <c r="B713">
+      <c r="B724">
         <f>0.000382716049382716/0.2*2.13</f>
         <v>4.0759259259259247E-3</v>
       </c>
-      <c r="C713" t="s">
-        <v>79</v>
-      </c>
-      <c r="E713" t="s">
+      <c r="C724" t="s">
+        <v>79</v>
+      </c>
+      <c r="E724" t="s">
         <v>4</v>
       </c>
-      <c r="F713" t="s">
-        <v>77</v>
-      </c>
-      <c r="G713" t="s">
+      <c r="F724" t="s">
+        <v>77</v>
+      </c>
+      <c r="G724" t="s">
         <v>111</v>
       </c>
-      <c r="H713" t="s">
+      <c r="H724" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
         <v>51</v>
       </c>
-      <c r="B714">
+      <c r="B725">
         <f>0.00911111111111111/3.6</f>
         <v>2.5308641975308639E-3</v>
       </c>
-      <c r="C714" t="s">
+      <c r="C725" t="s">
         <v>81</v>
       </c>
-      <c r="E714" t="s">
+      <c r="E725" t="s">
         <v>119</v>
       </c>
-      <c r="F714" t="s">
-        <v>77</v>
-      </c>
-      <c r="G714" t="s">
+      <c r="F725" t="s">
+        <v>77</v>
+      </c>
+      <c r="G725" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
         <v>100</v>
       </c>
-      <c r="B715">
+      <c r="B726">
         <v>0.15308641975308601</v>
       </c>
-      <c r="C715" t="s">
-        <v>79</v>
-      </c>
-      <c r="E715" t="s">
+      <c r="C726" t="s">
+        <v>79</v>
+      </c>
+      <c r="E726" t="s">
         <v>53</v>
       </c>
-      <c r="F715" t="s">
-        <v>77</v>
-      </c>
-      <c r="G715" t="s">
+      <c r="F726" t="s">
+        <v>77</v>
+      </c>
+      <c r="G726" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A718" s="2" t="s">
+    <row r="729" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A729" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B718" s="1" t="s">
+      <c r="B729" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A719" s="5" t="s">
+    <row r="730" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A730" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B719" s="5" t="s">
+      <c r="B730" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
         <v>3</v>
       </c>
-      <c r="B720" t="s">
+      <c r="B731" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
         <v>5</v>
       </c>
-      <c r="B721">
+      <c r="B732">
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
         <v>6</v>
       </c>
-      <c r="B722" t="s">
+      <c r="B733" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
         <v>7</v>
       </c>
-      <c r="B723" t="s">
+      <c r="B734" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
         <v>8</v>
       </c>
-      <c r="B724" t="s">
+      <c r="B735" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A725" s="1" t="s">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B725" s="1"/>
-      <c r="C725" s="1"/>
-      <c r="D725" s="1"/>
-      <c r="E725" s="1"/>
-      <c r="F725" s="1"/>
-      <c r="G725" s="1"/>
-    </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A726" s="1" t="s">
+      <c r="B736" s="1"/>
+      <c r="C736" s="1"/>
+      <c r="D736" s="1"/>
+      <c r="E736" s="1"/>
+      <c r="F736" s="1"/>
+      <c r="G736" s="1"/>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B726" s="1" t="s">
+      <c r="B737" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C726" s="1" t="s">
+      <c r="C737" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D726" s="1" t="s">
+      <c r="D737" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E726" s="1" t="s">
+      <c r="E737" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F726" s="1" t="s">
+      <c r="F737" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G726" s="1" t="s">
+      <c r="G737" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H726" s="1" t="s">
+      <c r="H737" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A727" t="str">
-        <f>B718</f>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A738" t="str">
+        <f>B729</f>
         <v>process exhaust ventilators, caustic, for perovskite production</v>
       </c>
-      <c r="B727">
+      <c r="B738">
         <v>-1</v>
       </c>
-      <c r="C727" t="str">
-        <f>B723</f>
+      <c r="C738" t="str">
+        <f>B734</f>
         <v>cubic meter</v>
       </c>
-      <c r="E727" t="s">
+      <c r="E738" t="s">
         <v>92</v>
       </c>
-      <c r="F727" t="s">
+      <c r="F738" t="s">
         <v>14</v>
       </c>
-      <c r="G727" t="str">
-        <f>B722</f>
+      <c r="G738" t="str">
+        <f>B733</f>
         <v>exhaust, caustic</v>
       </c>
-      <c r="H727" t="s">
+      <c r="H738" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
         <v>401</v>
       </c>
-      <c r="B728">
+      <c r="B739">
         <v>7.6051410753669521E-7</v>
       </c>
-      <c r="C728" t="s">
+      <c r="C739" t="s">
         <v>7</v>
       </c>
-      <c r="E728" t="s">
+      <c r="E739" t="s">
         <v>4</v>
       </c>
-      <c r="F728" t="s">
-        <v>77</v>
-      </c>
-      <c r="G728" t="s">
+      <c r="F739" t="s">
+        <v>77</v>
+      </c>
+      <c r="G739" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
         <v>402</v>
       </c>
-      <c r="B729">
+      <c r="B740">
         <v>7.6051410753669521E-7</v>
       </c>
-      <c r="C729" t="s">
+      <c r="C740" t="s">
         <v>7</v>
       </c>
-      <c r="E729" t="s">
+      <c r="E740" t="s">
         <v>57</v>
       </c>
-      <c r="F729" t="s">
-        <v>77</v>
-      </c>
-      <c r="G729" t="s">
+      <c r="F740" t="s">
+        <v>77</v>
+      </c>
+      <c r="G740" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
         <v>51</v>
       </c>
-      <c r="B730">
+      <c r="B741">
         <f>0.0061881332397246/3.6</f>
         <v>1.7189258999234999E-3</v>
       </c>
-      <c r="C730" t="s">
+      <c r="C741" t="s">
         <v>81</v>
       </c>
-      <c r="E730" t="s">
+      <c r="E741" t="s">
         <v>119</v>
       </c>
-      <c r="F730" t="s">
-        <v>77</v>
-      </c>
-      <c r="G730" t="s">
+      <c r="F741" t="s">
+        <v>77</v>
+      </c>
+      <c r="G741" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
         <v>408</v>
       </c>
-      <c r="B731">
+      <c r="B742">
         <v>1.1407711613050422E-5</v>
       </c>
-      <c r="C731" t="s">
-        <v>79</v>
-      </c>
-      <c r="D731" t="s">
+      <c r="C742" t="s">
+        <v>79</v>
+      </c>
+      <c r="D742" t="s">
         <v>62</v>
       </c>
-      <c r="F731" t="s">
+      <c r="F742" t="s">
         <v>78</v>
       </c>
-      <c r="H731" t="s">
+      <c r="H742" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A732" t="s">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
         <v>194</v>
       </c>
-      <c r="B732">
+      <c r="B743">
         <v>9.8572073921971304E-3</v>
       </c>
-      <c r="C732" t="s">
+      <c r="C743" t="s">
         <v>80</v>
       </c>
-      <c r="D732" t="s">
+      <c r="D743" t="s">
         <v>62</v>
       </c>
-      <c r="F732" t="s">
+      <c r="F743" t="s">
         <v>78</v>
       </c>
-      <c r="H732" t="s">
+      <c r="H743" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
         <v>76</v>
       </c>
-      <c r="B733">
+      <c r="B744">
         <v>3.9926990645676497E-5</v>
       </c>
-      <c r="C733" t="s">
+      <c r="C744" t="s">
         <v>135</v>
       </c>
-      <c r="D733" t="s">
+      <c r="D744" t="s">
         <v>62</v>
       </c>
-      <c r="F733" t="s">
+      <c r="F744" t="s">
         <v>78</v>
       </c>
-      <c r="H733" t="s">
+      <c r="H744" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
         <v>235</v>
       </c>
-      <c r="B734">
+      <c r="B745">
         <f>0.000382716049382716/0.2*1.83</f>
         <v>3.5018518518518515E-3</v>
       </c>
-      <c r="C734" t="s">
-        <v>79</v>
-      </c>
-      <c r="E734" t="s">
+      <c r="C745" t="s">
+        <v>79</v>
+      </c>
+      <c r="E745" t="s">
         <v>53</v>
       </c>
-      <c r="F734" t="s">
-        <v>77</v>
-      </c>
-      <c r="G734" t="s">
+      <c r="F745" t="s">
+        <v>77</v>
+      </c>
+      <c r="G745" t="s">
         <v>414</v>
       </c>
-      <c r="H734" t="s">
+      <c r="H745" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
         <v>51</v>
       </c>
-      <c r="B735">
+      <c r="B746">
         <f>0.0113684210526316/3.6</f>
         <v>3.1578947368421113E-3</v>
       </c>
-      <c r="C735" t="s">
+      <c r="C746" t="s">
         <v>81</v>
       </c>
-      <c r="E735" t="s">
+      <c r="E746" t="s">
         <v>119</v>
       </c>
-      <c r="F735" t="s">
-        <v>77</v>
-      </c>
-      <c r="G735" t="s">
+      <c r="F746" t="s">
+        <v>77</v>
+      </c>
+      <c r="G746" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
         <v>100</v>
       </c>
-      <c r="B736">
+      <c r="B747">
         <v>0.11184210526315801</v>
       </c>
-      <c r="C736" t="s">
-        <v>79</v>
-      </c>
-      <c r="E736" t="s">
+      <c r="C747" t="s">
+        <v>79</v>
+      </c>
+      <c r="E747" t="s">
         <v>53</v>
       </c>
-      <c r="F736" t="s">
-        <v>77</v>
-      </c>
-      <c r="G736" t="s">
+      <c r="F747" t="s">
+        <v>77</v>
+      </c>
+      <c r="G747" t="s">
         <v>101</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F1D4EC-F9C2-6043-84F3-16B420736138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D30B325-6A51-B542-8F8B-9BBA1FEA3A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV-perovskite" sheetId="1" r:id="rId1"/>
@@ -1752,7 +1752,7 @@
   <dimension ref="A1:H747"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A631" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A667" sqref="A667"/>
+      <selection activeCell="B672" sqref="B672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D30B325-6A51-B542-8F8B-9BBA1FEA3A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F1D4EC-F9C2-6043-84F3-16B420736138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV-perovskite" sheetId="1" r:id="rId1"/>
@@ -1752,7 +1752,7 @@
   <dimension ref="A1:H747"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A631" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B672" sqref="B672"/>
+      <selection activeCell="A667" sqref="A667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F1D4EC-F9C2-6043-84F3-16B420736138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A6DFD-11CE-924A-B007-63DA97BCF8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV-perovskite" sheetId="1" r:id="rId1"/>
@@ -1031,9 +1031,6 @@
     <t>market for ethylene vinyl acetate copolymer</t>
   </si>
   <si>
-    <t>treatment of electronics scrap, metals recovery in copper smelter</t>
-  </si>
-  <si>
     <t>market for electronics scrap</t>
   </si>
   <si>
@@ -1401,6 +1398,9 @@
   </si>
   <si>
     <t>photovoltaic panel production, 0.5kWp, perovskite</t>
+  </si>
+  <si>
+    <t>market for metal part of electronics scrap, in copper, anode</t>
   </si>
 </sst>
 </file>
@@ -1751,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A631" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A667" sqref="A667"/>
+    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B535" sqref="B535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B14" s="4">
         <f>1830.1110288/35467268</f>
@@ -1931,7 +1931,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2260,7 +2260,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B30" s="3">
         <f>59478608.436/35467268</f>
@@ -2276,7 +2276,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2933,7 +2933,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B77">
         <f>428058757.128493/35422933.915</f>
@@ -2949,7 +2949,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3491,7 +3491,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B109">
         <f>-3000/35367093.098703</f>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B110">
         <f>-5000/35367093.098703</f>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B113">
         <f>-43830000/35367093.098703</f>
@@ -3594,7 +3594,7 @@
         <v>77</v>
       </c>
       <c r="G113" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H113" t="s">
         <v>211</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B114">
         <f>-65745000/35367093.098703</f>
@@ -3618,7 +3618,7 @@
         <v>77</v>
       </c>
       <c r="G114" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H114" t="s">
         <v>211</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B115">
         <f>-66621600/35367093.098703</f>
@@ -3642,7 +3642,7 @@
         <v>77</v>
       </c>
       <c r="G115" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H115" t="s">
         <v>211</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B135">
         <f>46.5001236/35317005.6480545</f>
@@ -3945,10 +3945,10 @@
         <v>77</v>
       </c>
       <c r="G135" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H135" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4541,7 +4541,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B164">
         <f>30.6056124/35317005.6480545</f>
@@ -4557,7 +4557,7 @@
         <v>77</v>
       </c>
       <c r="G164" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -4847,7 +4847,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B178">
         <f>312.42024*0.08988/35317005.6480545</f>
@@ -4863,7 +4863,7 @@
         <v>77</v>
       </c>
       <c r="G178" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>204</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B180">
         <f>5259600*0.07078/35317005.6480545</f>
@@ -4911,7 +4911,7 @@
         <v>77</v>
       </c>
       <c r="G180" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H180" t="s">
         <v>203</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B188">
         <f>-(20161800+157788)/35317005.6480545</f>
@@ -5091,7 +5091,7 @@
         <v>77</v>
       </c>
       <c r="G188" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H188" t="s">
         <v>211</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B189">
         <f>-(157788)/35317005.6480545</f>
@@ -5115,7 +5115,7 @@
         <v>77</v>
       </c>
       <c r="G189" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5483,7 +5483,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B213">
         <f>-1472688/35266918.197406</f>
@@ -5499,7 +5499,7 @@
         <v>77</v>
       </c>
       <c r="G213" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H213" t="s">
         <v>211</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B237">
         <f>-1472688/35266918.197406</f>
@@ -5886,7 +5886,7 @@
         <v>77</v>
       </c>
       <c r="G237" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H237" t="s">
         <v>211</v>
@@ -6069,7 +6069,7 @@
         <v>77</v>
       </c>
       <c r="G252" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
         <v>77</v>
       </c>
       <c r="G254" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -6132,7 +6132,7 @@
         <v>77</v>
       </c>
       <c r="G255" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -6153,7 +6153,7 @@
         <v>77</v>
       </c>
       <c r="G256" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -6174,7 +6174,7 @@
         <v>77</v>
       </c>
       <c r="G257" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -6195,7 +6195,7 @@
         <v>77</v>
       </c>
       <c r="G258" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -6221,7 +6221,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B260">
         <f>575.256965526288/35166743.2961089</f>
@@ -6237,7 +6237,7 @@
         <v>77</v>
       </c>
       <c r="G260" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -6258,7 +6258,7 @@
         <v>77</v>
       </c>
       <c r="G261" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
         <v>77</v>
       </c>
       <c r="G262" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -6300,7 +6300,7 @@
         <v>77</v>
       </c>
       <c r="G263" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -6326,7 +6326,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B265">
         <f>2.87174093374893/35166743.2961089</f>
@@ -6342,7 +6342,7 @@
         <v>77</v>
       </c>
       <c r="G265" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -6363,7 +6363,7 @@
         <v>77</v>
       </c>
       <c r="G266" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -6405,7 +6405,7 @@
         <v>77</v>
       </c>
       <c r="G268" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -6426,7 +6426,7 @@
         <v>77</v>
       </c>
       <c r="G269" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -6447,7 +6447,7 @@
         <v>77</v>
       </c>
       <c r="G270" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -6468,7 +6468,7 @@
         <v>77</v>
       </c>
       <c r="G271" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -6489,7 +6489,7 @@
         <v>77</v>
       </c>
       <c r="G272" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -6510,7 +6510,7 @@
         <v>77</v>
       </c>
       <c r="G273" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -6552,7 +6552,7 @@
         <v>77</v>
       </c>
       <c r="G275" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -6594,7 +6594,7 @@
         <v>77</v>
       </c>
       <c r="G277" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -6636,7 +6636,7 @@
         <v>77</v>
       </c>
       <c r="G279" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -6657,7 +6657,7 @@
         <v>77</v>
       </c>
       <c r="G280" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -6678,7 +6678,7 @@
         <v>77</v>
       </c>
       <c r="G281" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -6699,7 +6699,7 @@
         <v>77</v>
       </c>
       <c r="G282" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -6756,7 +6756,7 @@
         <v>79</v>
       </c>
       <c r="E285" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F285" t="s">
         <v>77</v>
@@ -6783,7 +6783,7 @@
         <v>77</v>
       </c>
       <c r="G286" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -6867,7 +6867,7 @@
         <v>77</v>
       </c>
       <c r="G290" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
@@ -6888,7 +6888,7 @@
         <v>77</v>
       </c>
       <c r="G291" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -6909,7 +6909,7 @@
         <v>77</v>
       </c>
       <c r="G292" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -6951,12 +6951,12 @@
         <v>77</v>
       </c>
       <c r="G294" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B295">
         <f>2381.0003944374/35166743.2961089</f>
@@ -6972,7 +6972,7 @@
         <v>77</v>
       </c>
       <c r="G295" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -6998,7 +6998,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B297">
         <f>-127.229028710395/35166743.2961089</f>
@@ -7014,7 +7014,7 @@
         <v>77</v>
       </c>
       <c r="G297" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -7040,7 +7040,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B299">
         <f>413.494343308785/35166743.2961089</f>
@@ -7056,7 +7056,7 @@
         <v>77</v>
       </c>
       <c r="G299" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -7140,7 +7140,7 @@
         <v>77</v>
       </c>
       <c r="G303" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -7161,7 +7161,7 @@
         <v>77</v>
       </c>
       <c r="G304" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -7203,7 +7203,7 @@
         <v>77</v>
       </c>
       <c r="G306" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -7224,7 +7224,7 @@
         <v>77</v>
       </c>
       <c r="G307" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -7245,7 +7245,7 @@
         <v>77</v>
       </c>
       <c r="G308" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -7271,7 +7271,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B310">
         <f>-127.960230024823/35166743.2961089</f>
@@ -7287,7 +7287,7 @@
         <v>77</v>
       </c>
       <c r="G310" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
@@ -7313,7 +7313,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B312">
         <f>415.870747580675/35166743.2961089</f>
@@ -7329,7 +7329,7 @@
         <v>77</v>
       </c>
       <c r="G312" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -7508,7 +7508,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B321">
         <f>-14025600/35166743.2961089</f>
@@ -7524,7 +7524,7 @@
         <v>77</v>
       </c>
       <c r="G321" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H321" t="s">
         <v>211</v>
@@ -7715,7 +7715,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B337">
         <f>4.17324674571931/35116655.8454604</f>
@@ -7731,10 +7731,10 @@
         <v>77</v>
       </c>
       <c r="G337" t="s">
+        <v>448</v>
+      </c>
+      <c r="H337" t="s">
         <v>449</v>
-      </c>
-      <c r="H337" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -8004,7 +8004,7 @@
         <v>79</v>
       </c>
       <c r="E350" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F350" t="s">
         <v>77</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B363">
         <f>-(16594290.8653846+438300)/35116655.8454604</f>
@@ -8286,7 +8286,7 @@
         <v>77</v>
       </c>
       <c r="G363" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H363" t="s">
         <v>211</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B385">
         <f>-87660/35066568.3948119</f>
@@ -8631,7 +8631,7 @@
         <v>77</v>
       </c>
       <c r="G385" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H385" t="s">
         <v>211</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B408">
         <f>-438300/35016480.9441634</f>
@@ -8997,7 +8997,7 @@
         <v>77</v>
       </c>
       <c r="G408" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H408" t="s">
         <v>211</v>
@@ -9395,7 +9395,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B433">
         <f>-2629800/34966393.4935149</f>
@@ -9411,7 +9411,7 @@
         <v>77</v>
       </c>
       <c r="G433" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H433" t="s">
         <v>211</v>
@@ -9875,7 +9875,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B462">
         <f>-200/34916306.0428664</f>
@@ -9891,7 +9891,7 @@
         <v>77</v>
       </c>
       <c r="G462" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
@@ -9912,12 +9912,12 @@
         <v>77</v>
       </c>
       <c r="G463" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B464">
         <f>-28489500/34916306.0428664</f>
@@ -9933,7 +9933,7 @@
         <v>77</v>
       </c>
       <c r="G464" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H464" t="s">
         <v>211</v>
@@ -10166,7 +10166,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B482">
         <f>-(43830000+5697900)/34866218.5922179</f>
@@ -10182,7 +10182,7 @@
         <v>77</v>
       </c>
       <c r="G482" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H482" t="s">
         <v>211</v>
@@ -10217,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="487" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -10225,7 +10225,7 @@
         <v>2</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.2">
@@ -10249,7 +10249,7 @@
         <v>6</v>
       </c>
       <c r="B490" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
@@ -10556,7 +10556,7 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B512" s="3">
         <f>34816131.1415694/483538.053104108</f>
@@ -10572,7 +10572,7 @@
         <v>77</v>
       </c>
       <c r="G512" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.2">
@@ -10601,7 +10601,7 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B514">
         <f>75098.8243368525/483538.053104108</f>
@@ -10617,7 +10617,7 @@
         <v>77</v>
       </c>
       <c r="G514" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H514" t="s">
         <v>315</v>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B515">
         <f>75098.8243368525/483538.053104108</f>
@@ -10641,7 +10641,7 @@
         <v>77</v>
       </c>
       <c r="G515" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H515" t="s">
         <v>315</v>
@@ -10649,7 +10649,7 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B516">
         <f>4833/483538.053104108</f>
@@ -10665,7 +10665,7 @@
         <v>77</v>
       </c>
       <c r="G516" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H516" t="s">
         <v>317</v>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B517">
         <f>4833/483538.053104108</f>
@@ -10689,7 +10689,7 @@
         <v>77</v>
       </c>
       <c r="G517" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H517" t="s">
         <v>318</v>
@@ -10718,7 +10718,7 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B519">
         <f>37800/483538.053104108</f>
@@ -10734,7 +10734,7 @@
         <v>77</v>
       </c>
       <c r="G519" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H519" t="s">
         <v>321</v>
@@ -10790,7 +10790,7 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B522">
         <f>336/483538.053104108</f>
@@ -10806,7 +10806,7 @@
         <v>77</v>
       </c>
       <c r="G522" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H522" t="s">
         <v>324</v>
@@ -10851,7 +10851,7 @@
         <v>77</v>
       </c>
       <c r="G524" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.2">
@@ -10872,7 +10872,7 @@
         <v>77</v>
       </c>
       <c r="G525" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
@@ -10893,7 +10893,7 @@
         <v>77</v>
       </c>
       <c r="G526" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
@@ -10914,7 +10914,7 @@
         <v>77</v>
       </c>
       <c r="G527" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.2">
@@ -10940,7 +10940,7 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B529">
         <f>75100/483538.053104108</f>
@@ -10956,7 +10956,7 @@
         <v>77</v>
       </c>
       <c r="G529" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H529" t="s">
         <v>321</v>
@@ -11084,7 +11084,7 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>330</v>
+        <v>453</v>
       </c>
       <c r="B535">
         <f>5000/483538.053104108</f>
@@ -11094,18 +11094,18 @@
         <v>79</v>
       </c>
       <c r="E535" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F535" t="s">
         <v>77</v>
       </c>
       <c r="G535" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B536">
         <f>-5000/483538.053104108</f>
@@ -11121,7 +11121,7 @@
         <v>77</v>
       </c>
       <c r="G536" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.2">
@@ -11195,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="543" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11203,7 +11203,7 @@
         <v>2</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.2">
@@ -11227,7 +11227,7 @@
         <v>6</v>
       </c>
       <c r="B546" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.2">
@@ -11330,7 +11330,7 @@
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B553">
         <f>24176.902655205/483538.053104108</f>
@@ -11346,12 +11346,12 @@
         <v>77</v>
       </c>
       <c r="G553" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B554">
         <f>589916.424787002/483538.053104108</f>
@@ -11367,7 +11367,7 @@
         <v>77</v>
       </c>
       <c r="G554" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="556" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11375,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="557" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.2">
@@ -11407,7 +11407,7 @@
         <v>6</v>
       </c>
       <c r="B560" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.2">
@@ -11490,7 +11490,7 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B566" s="4">
         <f>1/(11500)</f>
@@ -11506,7 +11506,7 @@
         <v>77</v>
       </c>
       <c r="G566" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="568" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="569" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11522,7 +11522,7 @@
         <v>2</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.2">
@@ -11546,7 +11546,7 @@
         <v>6</v>
       </c>
       <c r="B572" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.2">
@@ -11627,7 +11627,7 @@
         <v>abated exhaust</v>
       </c>
       <c r="H577" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.2">
@@ -11719,7 +11719,7 @@
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B582">
         <v>0.23200000000000001</v>
@@ -11734,10 +11734,10 @@
         <v>77</v>
       </c>
       <c r="G582" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H582" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.2">
@@ -11765,7 +11765,7 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B584">
         <v>0</v>
@@ -11780,12 +11780,12 @@
         <v>78</v>
       </c>
       <c r="H584" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B585">
         <v>0</v>
@@ -11800,12 +11800,12 @@
         <v>78</v>
       </c>
       <c r="H585" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B586">
         <v>0</v>
@@ -11820,12 +11820,12 @@
         <v>78</v>
       </c>
       <c r="H586" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B587">
         <v>0</v>
@@ -11840,7 +11840,7 @@
         <v>78</v>
       </c>
       <c r="H587" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="590" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11964,7 +11964,7 @@
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B600">
         <f>2.10977682373547E-07/0.7</f>
@@ -11980,10 +11980,10 @@
         <v>77</v>
       </c>
       <c r="G600" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H600" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.2">
@@ -12033,7 +12033,7 @@
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B603">
         <f>3.97134460938441E-06*1000</f>
@@ -12078,7 +12078,7 @@
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B605">
         <f>-2.48209038086526E-06</f>
@@ -12094,12 +12094,12 @@
         <v>77</v>
       </c>
       <c r="G605" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B606">
         <f>-0.148925422851915</f>
@@ -12115,7 +12115,7 @@
         <v>77</v>
       </c>
       <c r="G606" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H606" t="s">
         <v>211</v>
@@ -12266,7 +12266,7 @@
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B620">
         <f>3.63854545454545*1000/2307.27272727273</f>
@@ -12314,7 +12314,7 @@
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B622">
         <f>3.27272727272727E-07/2307.27272727273</f>
@@ -12330,7 +12330,7 @@
         <v>77</v>
       </c>
       <c r="G622" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.2">
@@ -12354,7 +12354,7 @@
         <v>253</v>
       </c>
       <c r="H623" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="626" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -12498,7 +12498,7 @@
         <v>105</v>
       </c>
       <c r="H636" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.2">
@@ -12542,12 +12542,12 @@
         <v>111</v>
       </c>
       <c r="H638" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B639">
         <v>0.45705279747832939</v>
@@ -12562,12 +12562,12 @@
         <v>77</v>
       </c>
       <c r="G639" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B640">
         <v>0.33884948778565799</v>
@@ -12582,12 +12582,12 @@
         <v>77</v>
       </c>
       <c r="G640" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B641">
         <v>0.42111899133175729</v>
@@ -12602,7 +12602,7 @@
         <v>77</v>
       </c>
       <c r="G641" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.2">
@@ -12655,7 +12655,7 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B644">
         <v>315.20882584712399</v>
@@ -12696,12 +12696,12 @@
         <v>253</v>
       </c>
       <c r="H645" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B646">
         <f>-0.179790569157611*1000</f>
@@ -12717,12 +12717,12 @@
         <v>77</v>
       </c>
       <c r="G646" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B647">
         <f>-78.8022064617809</f>
@@ -12738,7 +12738,7 @@
         <v>77</v>
       </c>
       <c r="G647" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H647" t="s">
         <v>211</v>
@@ -12746,7 +12746,7 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B648">
         <v>-47.281323877068601</v>
@@ -12761,7 +12761,7 @@
         <v>77</v>
       </c>
       <c r="G648" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H648" t="s">
         <v>211</v>
@@ -12906,7 +12906,7 @@
         <v>253</v>
       </c>
       <c r="H661" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.2">
@@ -12932,7 +12932,7 @@
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B663">
         <v>1000</v>
@@ -13194,7 +13194,7 @@
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -13209,10 +13209,10 @@
         <v>77</v>
       </c>
       <c r="G687" t="s">
+        <v>375</v>
+      </c>
+      <c r="H687" t="s">
         <v>376</v>
-      </c>
-      <c r="H687" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="690" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13220,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="691" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13252,7 +13252,7 @@
         <v>6</v>
       </c>
       <c r="B694" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.2">
@@ -13336,7 +13336,7 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B700">
         <v>7.6051410753669521E-7</v>
@@ -13351,12 +13351,12 @@
         <v>77</v>
       </c>
       <c r="G700" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B701">
         <v>7.6051410753669521E-7</v>
@@ -13371,7 +13371,7 @@
         <v>77</v>
       </c>
       <c r="G701" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.2">
@@ -13397,7 +13397,7 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B703">
         <v>1.1407711613050422E-5</v>
@@ -13412,7 +13412,7 @@
         <v>78</v>
       </c>
       <c r="H703" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.2">
@@ -13432,7 +13432,7 @@
         <v>78</v>
       </c>
       <c r="H704" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.2">
@@ -13452,7 +13452,7 @@
         <v>78</v>
       </c>
       <c r="H705" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="708" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13460,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="709" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13492,7 +13492,7 @@
         <v>6</v>
       </c>
       <c r="B712" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.2">
@@ -13576,7 +13576,7 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B718">
         <v>7.6051410753669521E-7</v>
@@ -13591,12 +13591,12 @@
         <v>77</v>
       </c>
       <c r="G718" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B719">
         <v>7.6051410753669521E-7</v>
@@ -13611,7 +13611,7 @@
         <v>77</v>
       </c>
       <c r="G719" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.2">
@@ -13637,7 +13637,7 @@
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B721">
         <v>1.1407711613050422E-5</v>
@@ -13652,7 +13652,7 @@
         <v>78</v>
       </c>
       <c r="H721" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.2">
@@ -13672,7 +13672,7 @@
         <v>78</v>
       </c>
       <c r="H722" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.2">
@@ -13692,7 +13692,7 @@
         <v>78</v>
       </c>
       <c r="H723" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.2">
@@ -13716,7 +13716,7 @@
         <v>111</v>
       </c>
       <c r="H724" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.2">
@@ -13765,7 +13765,7 @@
         <v>1</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="730" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13797,7 +13797,7 @@
         <v>6</v>
       </c>
       <c r="B733" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.2">
@@ -13881,7 +13881,7 @@
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B739">
         <v>7.6051410753669521E-7</v>
@@ -13896,12 +13896,12 @@
         <v>77</v>
       </c>
       <c r="G739" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B740">
         <v>7.6051410753669521E-7</v>
@@ -13916,7 +13916,7 @@
         <v>77</v>
       </c>
       <c r="G740" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.2">
@@ -13942,7 +13942,7 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B742">
         <v>1.1407711613050422E-5</v>
@@ -13957,7 +13957,7 @@
         <v>78</v>
       </c>
       <c r="H742" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.2">
@@ -13977,7 +13977,7 @@
         <v>78</v>
       </c>
       <c r="H743" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.2">
@@ -13997,7 +13997,7 @@
         <v>78</v>
       </c>
       <c r="H744" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.2">
@@ -14018,10 +14018,10 @@
         <v>77</v>
       </c>
       <c r="G745" t="s">
+        <v>406</v>
+      </c>
+      <c r="H745" t="s">
         <v>407</v>
-      </c>
-      <c r="H745" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A6DFD-11CE-924A-B007-63DA97BCF8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57078C70-C97C-484D-9C3D-3D995785D4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="459">
   <si>
     <t>Database</t>
   </si>
@@ -977,12 +977,6 @@
     <t>B11</t>
   </si>
   <si>
-    <t>perovskite module assembly</t>
-  </si>
-  <si>
-    <t>assembled perovskite cell</t>
-  </si>
-  <si>
     <t>Original activity in GaBi: Aluminium frame profile, powder coated (EN15804 A1-A3)</t>
   </si>
   <si>
@@ -1361,9 +1355,6 @@
     <t>stockpiling of anode slime from electrorefining of copper, anode</t>
   </si>
   <si>
-    <t>Data from Table 1. Cells per module: 72 | Gross module are: 2 square meter | Performance. Yield over lifetime: 11500 kWh/per module (each module 2 square meter)</t>
-  </si>
-  <si>
     <t>market for t-butyl amine</t>
   </si>
   <si>
@@ -1397,19 +1388,50 @@
     <t>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</t>
   </si>
   <si>
-    <t>photovoltaic panel production, 0.5kWp, perovskite</t>
-  </si>
-  <si>
     <t>market for metal part of electronics scrap, in copper, anode</t>
+  </si>
+  <si>
+    <t>uncertainty type</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>Data from Table 1. Cells per module: 72 | Gross module are: 2 square meter | Performance. Yield over lifetime: 11500 kWh/per module (each module occupies 2 square meter)</t>
+  </si>
+  <si>
+    <t>2 m2/500Wp</t>
+  </si>
+  <si>
+    <t>photovoltaic panel installation, 0.5kWp, perovskite</t>
+  </si>
+  <si>
+    <t>perovskite photovoltaic module assembly</t>
+  </si>
+  <si>
+    <t>perovskite photovoltaic module</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1459,16 +1481,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1749,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H747"/>
+  <dimension ref="A1:L747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B535" sqref="B535"/>
+    <sheetView tabSelected="1" topLeftCell="A527" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D565" sqref="D565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1764,6 +1788,7 @@
     <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="78.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1915,7 +1940,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B14" s="4">
         <f>1830.1110288/35467268</f>
@@ -1931,7 +1956,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2260,7 +2285,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B30" s="3">
         <f>59478608.436/35467268</f>
@@ -2276,7 +2301,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2933,7 +2958,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B77">
         <f>428058757.128493/35422933.915</f>
@@ -2949,7 +2974,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3491,7 +3516,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B109">
         <f>-3000/35367093.098703</f>
@@ -3512,7 +3537,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B110">
         <f>-5000/35367093.098703</f>
@@ -3578,7 +3603,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B113">
         <f>-43830000/35367093.098703</f>
@@ -3594,7 +3619,7 @@
         <v>77</v>
       </c>
       <c r="G113" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H113" t="s">
         <v>211</v>
@@ -3602,7 +3627,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B114">
         <f>-65745000/35367093.098703</f>
@@ -3618,7 +3643,7 @@
         <v>77</v>
       </c>
       <c r="G114" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H114" t="s">
         <v>211</v>
@@ -3626,7 +3651,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B115">
         <f>-66621600/35367093.098703</f>
@@ -3642,7 +3667,7 @@
         <v>77</v>
       </c>
       <c r="G115" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H115" t="s">
         <v>211</v>
@@ -3929,7 +3954,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B135">
         <f>46.5001236/35317005.6480545</f>
@@ -3945,10 +3970,10 @@
         <v>77</v>
       </c>
       <c r="G135" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H135" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4541,7 +4566,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B164">
         <f>30.6056124/35317005.6480545</f>
@@ -4557,7 +4582,7 @@
         <v>77</v>
       </c>
       <c r="G164" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -4847,7 +4872,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B178">
         <f>312.42024*0.08988/35317005.6480545</f>
@@ -4863,7 +4888,7 @@
         <v>77</v>
       </c>
       <c r="G178" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>204</v>
@@ -4895,7 +4920,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B180">
         <f>5259600*0.07078/35317005.6480545</f>
@@ -4911,7 +4936,7 @@
         <v>77</v>
       </c>
       <c r="G180" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H180" t="s">
         <v>203</v>
@@ -5075,7 +5100,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B188">
         <f>-(20161800+157788)/35317005.6480545</f>
@@ -5091,7 +5116,7 @@
         <v>77</v>
       </c>
       <c r="G188" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H188" t="s">
         <v>211</v>
@@ -5099,7 +5124,7 @@
     </row>
     <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B189">
         <f>-(157788)/35317005.6480545</f>
@@ -5115,7 +5140,7 @@
         <v>77</v>
       </c>
       <c r="G189" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5483,7 +5508,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B213">
         <f>-1472688/35266918.197406</f>
@@ -5499,7 +5524,7 @@
         <v>77</v>
       </c>
       <c r="G213" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H213" t="s">
         <v>211</v>
@@ -5870,7 +5895,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B237">
         <f>-1472688/35266918.197406</f>
@@ -5886,7 +5911,7 @@
         <v>77</v>
       </c>
       <c r="G237" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H237" t="s">
         <v>211</v>
@@ -6069,7 +6094,7 @@
         <v>77</v>
       </c>
       <c r="G252" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -6111,7 +6136,7 @@
         <v>77</v>
       </c>
       <c r="G254" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -6132,7 +6157,7 @@
         <v>77</v>
       </c>
       <c r="G255" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -6153,7 +6178,7 @@
         <v>77</v>
       </c>
       <c r="G256" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -6174,7 +6199,7 @@
         <v>77</v>
       </c>
       <c r="G257" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -6195,7 +6220,7 @@
         <v>77</v>
       </c>
       <c r="G258" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -6221,7 +6246,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B260">
         <f>575.256965526288/35166743.2961089</f>
@@ -6237,7 +6262,7 @@
         <v>77</v>
       </c>
       <c r="G260" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -6258,7 +6283,7 @@
         <v>77</v>
       </c>
       <c r="G261" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -6279,7 +6304,7 @@
         <v>77</v>
       </c>
       <c r="G262" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -6300,7 +6325,7 @@
         <v>77</v>
       </c>
       <c r="G263" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -6326,7 +6351,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B265">
         <f>2.87174093374893/35166743.2961089</f>
@@ -6342,7 +6367,7 @@
         <v>77</v>
       </c>
       <c r="G265" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -6363,7 +6388,7 @@
         <v>77</v>
       </c>
       <c r="G266" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -6405,7 +6430,7 @@
         <v>77</v>
       </c>
       <c r="G268" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -6426,7 +6451,7 @@
         <v>77</v>
       </c>
       <c r="G269" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -6447,7 +6472,7 @@
         <v>77</v>
       </c>
       <c r="G270" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -6468,7 +6493,7 @@
         <v>77</v>
       </c>
       <c r="G271" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -6489,7 +6514,7 @@
         <v>77</v>
       </c>
       <c r="G272" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -6510,7 +6535,7 @@
         <v>77</v>
       </c>
       <c r="G273" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -6552,7 +6577,7 @@
         <v>77</v>
       </c>
       <c r="G275" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -6594,7 +6619,7 @@
         <v>77</v>
       </c>
       <c r="G277" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -6636,7 +6661,7 @@
         <v>77</v>
       </c>
       <c r="G279" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -6657,7 +6682,7 @@
         <v>77</v>
       </c>
       <c r="G280" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -6678,7 +6703,7 @@
         <v>77</v>
       </c>
       <c r="G281" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -6699,7 +6724,7 @@
         <v>77</v>
       </c>
       <c r="G282" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -6756,7 +6781,7 @@
         <v>79</v>
       </c>
       <c r="E285" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F285" t="s">
         <v>77</v>
@@ -6783,7 +6808,7 @@
         <v>77</v>
       </c>
       <c r="G286" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -6867,7 +6892,7 @@
         <v>77</v>
       </c>
       <c r="G290" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
@@ -6888,7 +6913,7 @@
         <v>77</v>
       </c>
       <c r="G291" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -6909,7 +6934,7 @@
         <v>77</v>
       </c>
       <c r="G292" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -6951,12 +6976,12 @@
         <v>77</v>
       </c>
       <c r="G294" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B295">
         <f>2381.0003944374/35166743.2961089</f>
@@ -6972,7 +6997,7 @@
         <v>77</v>
       </c>
       <c r="G295" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -6998,7 +7023,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B297">
         <f>-127.229028710395/35166743.2961089</f>
@@ -7014,7 +7039,7 @@
         <v>77</v>
       </c>
       <c r="G297" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -7040,7 +7065,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B299">
         <f>413.494343308785/35166743.2961089</f>
@@ -7056,7 +7081,7 @@
         <v>77</v>
       </c>
       <c r="G299" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -7140,7 +7165,7 @@
         <v>77</v>
       </c>
       <c r="G303" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -7161,7 +7186,7 @@
         <v>77</v>
       </c>
       <c r="G304" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -7203,7 +7228,7 @@
         <v>77</v>
       </c>
       <c r="G306" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -7224,7 +7249,7 @@
         <v>77</v>
       </c>
       <c r="G307" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -7245,7 +7270,7 @@
         <v>77</v>
       </c>
       <c r="G308" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -7271,7 +7296,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B310">
         <f>-127.960230024823/35166743.2961089</f>
@@ -7287,7 +7312,7 @@
         <v>77</v>
       </c>
       <c r="G310" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
@@ -7313,7 +7338,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B312">
         <f>415.870747580675/35166743.2961089</f>
@@ -7329,7 +7354,7 @@
         <v>77</v>
       </c>
       <c r="G312" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -7508,7 +7533,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B321">
         <f>-14025600/35166743.2961089</f>
@@ -7524,7 +7549,7 @@
         <v>77</v>
       </c>
       <c r="G321" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H321" t="s">
         <v>211</v>
@@ -7715,7 +7740,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B337">
         <f>4.17324674571931/35116655.8454604</f>
@@ -7731,10 +7756,10 @@
         <v>77</v>
       </c>
       <c r="G337" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H337" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -8004,7 +8029,7 @@
         <v>79</v>
       </c>
       <c r="E350" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F350" t="s">
         <v>77</v>
@@ -8270,7 +8295,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B363">
         <f>-(16594290.8653846+438300)/35116655.8454604</f>
@@ -8286,7 +8311,7 @@
         <v>77</v>
       </c>
       <c r="G363" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H363" t="s">
         <v>211</v>
@@ -8615,7 +8640,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B385">
         <f>-87660/35066568.3948119</f>
@@ -8631,7 +8656,7 @@
         <v>77</v>
       </c>
       <c r="G385" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H385" t="s">
         <v>211</v>
@@ -8981,7 +9006,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B408">
         <f>-438300/35016480.9441634</f>
@@ -8997,7 +9022,7 @@
         <v>77</v>
       </c>
       <c r="G408" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H408" t="s">
         <v>211</v>
@@ -9395,7 +9420,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B433">
         <f>-2629800/34966393.4935149</f>
@@ -9411,7 +9436,7 @@
         <v>77</v>
       </c>
       <c r="G433" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H433" t="s">
         <v>211</v>
@@ -9875,7 +9900,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B462">
         <f>-200/34916306.0428664</f>
@@ -9891,7 +9916,7 @@
         <v>77</v>
       </c>
       <c r="G462" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
@@ -9912,12 +9937,12 @@
         <v>77</v>
       </c>
       <c r="G463" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B464">
         <f>-28489500/34916306.0428664</f>
@@ -9933,7 +9958,7 @@
         <v>77</v>
       </c>
       <c r="G464" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H464" t="s">
         <v>211</v>
@@ -10166,7 +10191,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B482">
         <f>-(43830000+5697900)/34866218.5922179</f>
@@ -10182,7 +10207,7 @@
         <v>77</v>
       </c>
       <c r="G482" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H482" t="s">
         <v>211</v>
@@ -10217,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="487" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -10225,7 +10250,7 @@
         <v>2</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.2">
@@ -10249,7 +10274,7 @@
         <v>6</v>
       </c>
       <c r="B490" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
@@ -10442,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>312</v>
+        <v>457</v>
       </c>
     </row>
     <row r="503" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -10450,7 +10475,7 @@
         <v>2</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.2">
@@ -10474,7 +10499,7 @@
         <v>6</v>
       </c>
       <c r="B506" t="s">
-        <v>313</v>
+        <v>458</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.2">
@@ -10482,7 +10507,7 @@
         <v>7</v>
       </c>
       <c r="B507" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.2">
@@ -10533,14 +10558,14 @@
     <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="str">
         <f>B502</f>
-        <v>perovskite module assembly</v>
+        <v>perovskite photovoltaic module assembly</v>
       </c>
       <c r="B511" s="3">
         <f>483538.053104108/483538.053104108</f>
         <v>1</v>
       </c>
       <c r="C511" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E511" t="str">
         <f>B504</f>
@@ -10549,18 +10574,16 @@
       <c r="F511" t="s">
         <v>14</v>
       </c>
-      <c r="G511" t="str">
-        <f>B506</f>
-        <v>assembled perovskite cell</v>
+      <c r="G511" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B512" s="3">
-        <f>34816131.1415694/483538.053104108</f>
-        <v>72.002877370384169</v>
+        <v>36.001438685192085</v>
       </c>
       <c r="C512" t="s">
         <v>7</v>
@@ -10572,7 +10595,7 @@
         <v>77</v>
       </c>
       <c r="G512" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.2">
@@ -10580,8 +10603,7 @@
         <v>307</v>
       </c>
       <c r="B513">
-        <f>1644029.38055394/50.7/483538.053104108</f>
-        <v>6.7061143984219793E-2</v>
+        <v>3.3530571992109896E-2</v>
       </c>
       <c r="C513" t="s">
         <v>47</v>
@@ -10596,16 +10618,15 @@
         <v>306</v>
       </c>
       <c r="H513" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B514">
-        <f>75098.8243368525/483538.053104108</f>
-        <v>0.15531109465894169</v>
+        <v>7.7655547329470845E-2</v>
       </c>
       <c r="C514" t="s">
         <v>79</v>
@@ -10617,19 +10638,18 @@
         <v>77</v>
       </c>
       <c r="G514" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H514" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B515">
-        <f>75098.8243368525/483538.053104108</f>
-        <v>0.15531109465894169</v>
+        <v>7.7655547329470845E-2</v>
       </c>
       <c r="C515" t="s">
         <v>79</v>
@@ -10641,19 +10661,18 @@
         <v>77</v>
       </c>
       <c r="G515" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H515" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B516">
-        <f>4833/483538.053104108</f>
-        <v>9.9950768486041612E-3</v>
+        <v>4.9975384243020806E-3</v>
       </c>
       <c r="C516" t="s">
         <v>79</v>
@@ -10665,19 +10684,18 @@
         <v>77</v>
       </c>
       <c r="G516" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H516" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B517">
-        <f>4833/483538.053104108</f>
-        <v>9.9950768486041612E-3</v>
+        <v>4.9975384243020806E-3</v>
       </c>
       <c r="C517" t="s">
         <v>79</v>
@@ -10689,19 +10707,18 @@
         <v>77</v>
       </c>
       <c r="G517" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H517" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B518">
-        <f>11000000/483538.053104108</f>
-        <v>22.748985171662689</v>
+        <v>11.374492585831344</v>
       </c>
       <c r="C518" t="s">
         <v>79</v>
@@ -10713,16 +10730,15 @@
         <v>77</v>
       </c>
       <c r="G518" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B519">
-        <f>37800/483538.053104108</f>
-        <v>7.8173785408077248E-2</v>
+        <v>3.9086892704038624E-2</v>
       </c>
       <c r="C519" t="s">
         <v>79</v>
@@ -10734,10 +10750,10 @@
         <v>77</v>
       </c>
       <c r="G519" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H519" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.2">
@@ -10745,8 +10761,7 @@
         <v>51</v>
       </c>
       <c r="B520">
-        <f>87731.687736/3.6/483538.053104108</f>
-        <v>5.0399163216949636E-2</v>
+        <v>2.5199581608474818E-2</v>
       </c>
       <c r="C520" t="s">
         <v>81</v>
@@ -10761,7 +10776,7 @@
         <v>52</v>
       </c>
       <c r="H520" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.2">
@@ -10769,8 +10784,7 @@
         <v>55</v>
       </c>
       <c r="B521">
-        <f>850.311/483538.053104108</f>
-        <v>1.7585193027546977E-3</v>
+        <v>8.7925965137734883E-4</v>
       </c>
       <c r="C521" t="s">
         <v>80</v>
@@ -10785,16 +10799,15 @@
         <v>56</v>
       </c>
       <c r="H521" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B522">
-        <f>336/483538.053104108</f>
-        <v>6.9487809251624218E-4</v>
+        <v>3.4743904625812109E-4</v>
       </c>
       <c r="C522" t="s">
         <v>79</v>
@@ -10806,19 +10819,18 @@
         <v>77</v>
       </c>
       <c r="G522" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H522" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B523">
-        <f>250000/483538.053104108</f>
-        <v>0.51702239026506114</v>
+        <v>0.25851119513253057</v>
       </c>
       <c r="C523" t="s">
         <v>79</v>
@@ -10830,16 +10842,15 @@
         <v>77</v>
       </c>
       <c r="G523" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B524">
-        <f>177500/483538.053104108</f>
-        <v>0.36708589708819339</v>
+        <v>0.1835429485440967</v>
       </c>
       <c r="C524" t="s">
         <v>79</v>
@@ -10851,16 +10862,15 @@
         <v>77</v>
       </c>
       <c r="G524" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B525">
-        <f>27500/483538.053104108</f>
-        <v>5.6872462929156729E-2</v>
+        <v>2.8436231464578365E-2</v>
       </c>
       <c r="C525" t="s">
         <v>79</v>
@@ -10872,16 +10882,15 @@
         <v>77</v>
       </c>
       <c r="G525" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B526">
-        <f>45000/483538.053104108</f>
-        <v>9.306403024771101E-2</v>
+        <v>4.6532015123855505E-2</v>
       </c>
       <c r="C526" t="s">
         <v>79</v>
@@ -10893,16 +10902,15 @@
         <v>77</v>
       </c>
       <c r="G526" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B527">
-        <f>1500/483538.053104108</f>
-        <v>3.102134341590367E-3</v>
+        <v>1.5510671707951835E-3</v>
       </c>
       <c r="C527" t="s">
         <v>79</v>
@@ -10914,7 +10922,7 @@
         <v>77</v>
       </c>
       <c r="G527" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.2">
@@ -10922,8 +10930,7 @@
         <v>84</v>
       </c>
       <c r="B528">
-        <f>13000/483538.053104108</f>
-        <v>2.6885164293783178E-2</v>
+        <v>1.3442582146891589E-2</v>
       </c>
       <c r="C528" t="s">
         <v>79</v>
@@ -10940,11 +10947,10 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B529">
-        <f>75100/483538.053104108</f>
-        <v>0.15531352603562437</v>
+        <v>7.7656763017812186E-2</v>
       </c>
       <c r="C529" t="s">
         <v>79</v>
@@ -10956,10 +10962,10 @@
         <v>77</v>
       </c>
       <c r="G529" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H529" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.2">
@@ -10967,8 +10973,7 @@
         <v>51</v>
       </c>
       <c r="B530">
-        <f>387422.780617755/3.6/483538.053104108</f>
-        <v>0.22256250230903124</v>
+        <v>0.11128125115451562</v>
       </c>
       <c r="C530" t="s">
         <v>81</v>
@@ -10983,7 +10988,7 @@
         <v>52</v>
       </c>
       <c r="H530" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.2">
@@ -10991,8 +10996,7 @@
         <v>55</v>
       </c>
       <c r="B531">
-        <f>3755/483538.053104108</f>
-        <v>7.7656763017812181E-3</v>
+        <v>3.882838150890609E-3</v>
       </c>
       <c r="C531" t="s">
         <v>80</v>
@@ -11007,7 +11011,7 @@
         <v>56</v>
       </c>
       <c r="H531" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.2">
@@ -11015,8 +11019,7 @@
         <v>51</v>
       </c>
       <c r="B532">
-        <f>73639659.6/3.6/483538.053104108</f>
-        <v>42.303725360774941</v>
+        <v>21.15186268038747</v>
       </c>
       <c r="C532" t="s">
         <v>81</v>
@@ -11031,7 +11034,7 @@
         <v>52</v>
       </c>
       <c r="H532" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.2">
@@ -11039,8 +11042,7 @@
         <v>206</v>
       </c>
       <c r="B533">
-        <f>8795.30683506687/483538.053104108</f>
-        <v>1.818948225192361E-2</v>
+        <v>9.0947411259618052E-3</v>
       </c>
       <c r="C533" t="s">
         <v>133</v>
@@ -11063,8 +11065,7 @@
         <v>114</v>
       </c>
       <c r="B534">
-        <f>15088.024189726/483538.053104108</f>
-        <v>3.1203385323796795E-2</v>
+        <v>1.5601692661898398E-2</v>
       </c>
       <c r="C534" t="s">
         <v>133</v>
@@ -11084,11 +11085,10 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B535">
-        <f>5000/483538.053104108</f>
-        <v>1.0340447805301222E-2</v>
+        <v>5.1702239026506112E-3</v>
       </c>
       <c r="C535" t="s">
         <v>79</v>
@@ -11100,16 +11100,15 @@
         <v>77</v>
       </c>
       <c r="G535" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B536">
-        <f>-5000/483538.053104108</f>
-        <v>-1.0340447805301222E-2</v>
+        <v>-5.1702239026506112E-3</v>
       </c>
       <c r="C536" t="s">
         <v>79</v>
@@ -11121,7 +11120,7 @@
         <v>77</v>
       </c>
       <c r="G536" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.2">
@@ -11129,8 +11128,7 @@
         <v>95</v>
       </c>
       <c r="B537">
-        <f>-950/483538.053104108</f>
-        <v>-1.9646850830072325E-3</v>
+        <v>-9.8234254150361623E-4</v>
       </c>
       <c r="C537" t="s">
         <v>79</v>
@@ -11150,8 +11148,7 @@
         <v>130</v>
       </c>
       <c r="B538">
-        <f>-5/483538.053104108</f>
-        <v>-1.0340447805301223E-5</v>
+        <v>-5.1702239026506117E-6</v>
       </c>
       <c r="C538" t="s">
         <v>79</v>
@@ -11171,8 +11168,7 @@
         <v>206</v>
       </c>
       <c r="B539">
-        <f>-2198.82670876672/483538.053104108</f>
-        <v>-4.5473705629809087E-3</v>
+        <v>-2.2736852814904543E-3</v>
       </c>
       <c r="C539" t="s">
         <v>133</v>
@@ -11195,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="543" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11203,7 +11199,7 @@
         <v>2</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.2">
@@ -11227,7 +11223,7 @@
         <v>6</v>
       </c>
       <c r="B546" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.2">
@@ -11286,7 +11282,7 @@
     <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" t="str">
         <f>B542</f>
-        <v>photovoltaic panel production, 0.5kWp, perovskite</v>
+        <v>photovoltaic panel installation, 0.5kWp, perovskite</v>
       </c>
       <c r="B551" s="3">
         <f>483538.053104108/483538.053104108</f>
@@ -11309,14 +11305,13 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>312</v>
+        <v>457</v>
       </c>
       <c r="B552" s="3">
-        <f>483538.053104108/483538.053104108</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C552" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E552" t="s">
         <v>92</v>
@@ -11325,12 +11320,15 @@
         <v>77</v>
       </c>
       <c r="G552" t="s">
-        <v>313</v>
+        <v>458</v>
+      </c>
+      <c r="H552" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B553">
         <f>24176.902655205/483538.053104108</f>
@@ -11346,12 +11344,12 @@
         <v>77</v>
       </c>
       <c r="G553" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B554">
         <f>589916.424787002/483538.053104108</f>
@@ -11367,7 +11365,7 @@
         <v>77</v>
       </c>
       <c r="G554" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="556" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11375,15 +11373,15 @@
         <v>1</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="557" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B557" s="5" t="s">
-        <v>440</v>
+      <c r="B557" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.2">
@@ -11407,10 +11405,10 @@
         <v>6</v>
       </c>
       <c r="B560" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -11418,7 +11416,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>8</v>
       </c>
@@ -11426,7 +11424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>9</v>
       </c>
@@ -11437,7 +11435,7 @@
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>10</v>
       </c>
@@ -11462,8 +11460,20 @@
       <c r="H564" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I564" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J564" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K564" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="L564" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" t="str">
         <f>B556</f>
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
@@ -11488,12 +11498,12 @@
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B566" s="4">
-        <f>1/(11500)</f>
+        <f>1/(25*460)</f>
         <v>8.6956521739130441E-5</v>
       </c>
       <c r="C566" t="s">
@@ -11506,26 +11516,41 @@
         <v>77</v>
       </c>
       <c r="G566" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="568" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="I566" s="7">
+        <v>5</v>
+      </c>
+      <c r="J566" s="4">
+        <f>B566</f>
+        <v>8.6956521739130441E-5</v>
+      </c>
+      <c r="K566">
+        <f>1/(30*460)</f>
+        <v>7.2463768115942027E-5</v>
+      </c>
+      <c r="L566">
+        <f>1/(20*460)</f>
+        <v>1.0869565217391305E-4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="569" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>3</v>
       </c>
@@ -11533,7 +11558,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>5</v>
       </c>
@@ -11541,15 +11566,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>6</v>
       </c>
       <c r="B572" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -11557,7 +11582,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>8</v>
       </c>
@@ -11565,7 +11590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>9</v>
       </c>
@@ -11576,7 +11601,7 @@
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>10</v>
       </c>
@@ -11627,7 +11652,7 @@
         <v>abated exhaust</v>
       </c>
       <c r="H577" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.2">
@@ -11691,7 +11716,7 @@
         <v>52</v>
       </c>
       <c r="H580" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.2">
@@ -11719,7 +11744,7 @@
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B582">
         <v>0.23200000000000001</v>
@@ -11734,10 +11759,10 @@
         <v>77</v>
       </c>
       <c r="G582" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H582" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.2">
@@ -11765,7 +11790,7 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B584">
         <v>0</v>
@@ -11780,12 +11805,12 @@
         <v>78</v>
       </c>
       <c r="H584" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B585">
         <v>0</v>
@@ -11800,12 +11825,12 @@
         <v>78</v>
       </c>
       <c r="H585" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B586">
         <v>0</v>
@@ -11820,12 +11845,12 @@
         <v>78</v>
       </c>
       <c r="H586" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B587">
         <v>0</v>
@@ -11840,7 +11865,7 @@
         <v>78</v>
       </c>
       <c r="H587" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="590" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11964,7 +11989,7 @@
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B600">
         <f>2.10977682373547E-07/0.7</f>
@@ -11980,10 +12005,10 @@
         <v>77</v>
       </c>
       <c r="G600" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H600" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.2">
@@ -12028,12 +12053,12 @@
         <v>52</v>
       </c>
       <c r="H602" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B603">
         <f>3.97134460938441E-06*1000</f>
@@ -12078,7 +12103,7 @@
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B605">
         <f>-2.48209038086526E-06</f>
@@ -12094,12 +12119,12 @@
         <v>77</v>
       </c>
       <c r="G605" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B606">
         <f>-0.148925422851915</f>
@@ -12115,7 +12140,7 @@
         <v>77</v>
       </c>
       <c r="G606" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H606" t="s">
         <v>211</v>
@@ -12261,12 +12286,12 @@
         <v>52</v>
       </c>
       <c r="H619" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B620">
         <f>3.63854545454545*1000/2307.27272727273</f>
@@ -12314,7 +12339,7 @@
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B622">
         <f>3.27272727272727E-07/2307.27272727273</f>
@@ -12330,7 +12355,7 @@
         <v>77</v>
       </c>
       <c r="G622" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.2">
@@ -12354,7 +12379,7 @@
         <v>253</v>
       </c>
       <c r="H623" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="626" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -12498,7 +12523,7 @@
         <v>105</v>
       </c>
       <c r="H636" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.2">
@@ -12542,12 +12567,12 @@
         <v>111</v>
       </c>
       <c r="H638" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B639">
         <v>0.45705279747832939</v>
@@ -12562,12 +12587,12 @@
         <v>77</v>
       </c>
       <c r="G639" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B640">
         <v>0.33884948778565799</v>
@@ -12582,12 +12607,12 @@
         <v>77</v>
       </c>
       <c r="G640" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B641">
         <v>0.42111899133175729</v>
@@ -12602,7 +12627,7 @@
         <v>77</v>
       </c>
       <c r="G641" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.2">
@@ -12626,7 +12651,7 @@
         <v>52</v>
       </c>
       <c r="H642" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.2">
@@ -12655,7 +12680,7 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B644">
         <v>315.20882584712399</v>
@@ -12696,12 +12721,12 @@
         <v>253</v>
       </c>
       <c r="H645" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B646">
         <f>-0.179790569157611*1000</f>
@@ -12717,12 +12742,12 @@
         <v>77</v>
       </c>
       <c r="G646" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B647">
         <f>-78.8022064617809</f>
@@ -12738,7 +12763,7 @@
         <v>77</v>
       </c>
       <c r="G647" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H647" t="s">
         <v>211</v>
@@ -12746,7 +12771,7 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B648">
         <v>-47.281323877068601</v>
@@ -12761,7 +12786,7 @@
         <v>77</v>
       </c>
       <c r="G648" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H648" t="s">
         <v>211</v>
@@ -12906,7 +12931,7 @@
         <v>253</v>
       </c>
       <c r="H661" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.2">
@@ -12932,7 +12957,7 @@
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B663">
         <v>1000</v>
@@ -13194,7 +13219,7 @@
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -13209,10 +13234,10 @@
         <v>77</v>
       </c>
       <c r="G687" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H687" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="690" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13220,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="691" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13252,7 +13277,7 @@
         <v>6</v>
       </c>
       <c r="B694" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.2">
@@ -13336,7 +13361,7 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B700">
         <v>7.6051410753669521E-7</v>
@@ -13351,12 +13376,12 @@
         <v>77</v>
       </c>
       <c r="G700" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B701">
         <v>7.6051410753669521E-7</v>
@@ -13371,7 +13396,7 @@
         <v>77</v>
       </c>
       <c r="G701" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.2">
@@ -13397,7 +13422,7 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B703">
         <v>1.1407711613050422E-5</v>
@@ -13412,7 +13437,7 @@
         <v>78</v>
       </c>
       <c r="H703" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.2">
@@ -13432,7 +13457,7 @@
         <v>78</v>
       </c>
       <c r="H704" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.2">
@@ -13452,7 +13477,7 @@
         <v>78</v>
       </c>
       <c r="H705" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="708" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13460,7 +13485,7 @@
         <v>1</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="709" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13492,7 +13517,7 @@
         <v>6</v>
       </c>
       <c r="B712" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.2">
@@ -13576,7 +13601,7 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B718">
         <v>7.6051410753669521E-7</v>
@@ -13591,12 +13616,12 @@
         <v>77</v>
       </c>
       <c r="G718" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B719">
         <v>7.6051410753669521E-7</v>
@@ -13611,7 +13636,7 @@
         <v>77</v>
       </c>
       <c r="G719" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.2">
@@ -13637,7 +13662,7 @@
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B721">
         <v>1.1407711613050422E-5</v>
@@ -13652,7 +13677,7 @@
         <v>78</v>
       </c>
       <c r="H721" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.2">
@@ -13672,7 +13697,7 @@
         <v>78</v>
       </c>
       <c r="H722" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.2">
@@ -13692,7 +13717,7 @@
         <v>78</v>
       </c>
       <c r="H723" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.2">
@@ -13716,7 +13741,7 @@
         <v>111</v>
       </c>
       <c r="H724" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.2">
@@ -13765,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="730" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13797,7 +13822,7 @@
         <v>6</v>
       </c>
       <c r="B733" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.2">
@@ -13881,7 +13906,7 @@
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B739">
         <v>7.6051410753669521E-7</v>
@@ -13896,12 +13921,12 @@
         <v>77</v>
       </c>
       <c r="G739" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B740">
         <v>7.6051410753669521E-7</v>
@@ -13916,7 +13941,7 @@
         <v>77</v>
       </c>
       <c r="G740" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.2">
@@ -13942,7 +13967,7 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B742">
         <v>1.1407711613050422E-5</v>
@@ -13957,7 +13982,7 @@
         <v>78</v>
       </c>
       <c r="H742" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.2">
@@ -13977,7 +14002,7 @@
         <v>78</v>
       </c>
       <c r="H743" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.2">
@@ -13997,7 +14022,7 @@
         <v>78</v>
       </c>
       <c r="H744" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.2">
@@ -14018,10 +14043,10 @@
         <v>77</v>
       </c>
       <c r="G745" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H745" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57078C70-C97C-484D-9C3D-3D995785D4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05468028-B5E8-EA4C-B4D7-4B8ED2EA91B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1773,9 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A527" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D565" sqref="D565"/>
     </sheetView>
   </sheetViews>
@@ -1799,7 +1800,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1807,7 +1809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>135</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1867,7 +1869,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>B3</f>
         <v>perovskite wafer production</v>
@@ -1917,7 +1919,7 @@
         <v>perovskite wafer</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>407</v>
       </c>
@@ -1959,7 +1961,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +1982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2091,7 +2093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2175,7 +2177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2196,7 +2198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2220,7 +2222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>408</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2343,7 +2345,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2379,7 +2381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -2451,7 +2453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -2487,7 +2489,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -2577,7 +2579,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -2595,7 +2597,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>135</v>
       </c>
@@ -2611,7 +2615,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2643,7 +2647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2651,7 +2655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -2663,7 +2667,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>B49</f>
         <v>perovskite wafer packaging</v>
@@ -2713,7 +2717,7 @@
         <v>perovskite wafer, packaged</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -2776,7 +2780,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -2796,7 +2800,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>135</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2820,7 +2826,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
@@ -2864,7 +2870,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>B65</f>
         <v>perovskite wafer transport</v>
@@ -2914,7 +2920,7 @@
         <v>perovskite wafer, transported</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>432</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3019,7 +3025,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
@@ -3027,7 +3035,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>135</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3043,7 +3051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -3051,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3067,7 +3075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3075,7 +3083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -3087,7 +3095,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -3113,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>B82</f>
         <v>perovskite wafer cleaning</v>
@@ -3137,7 +3145,7 @@
         <v>perovskite wafer, cleaned</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3157,7 +3165,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3178,7 +3186,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3199,7 +3207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -3223,7 +3231,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3286,7 +3294,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3307,7 +3315,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -3328,7 +3336,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>25</v>
       </c>
@@ -3352,7 +3360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -3376,7 +3384,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -3400,7 +3408,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -3424,7 +3432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -3448,7 +3456,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -3472,7 +3480,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -3493,7 +3501,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -3514,7 +3522,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>440</v>
       </c>
@@ -3535,7 +3543,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>443</v>
       </c>
@@ -3556,7 +3564,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3601,7 +3609,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>389</v>
       </c>
@@ -3625,7 +3633,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>399</v>
       </c>
@@ -3649,7 +3657,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>402</v>
       </c>
@@ -3673,7 +3681,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -3697,7 +3705,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>1</v>
       </c>
@@ -3705,7 +3715,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>2</v>
       </c>
@@ -3713,7 +3723,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3721,7 +3731,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3729,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -3737,7 +3747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3745,7 +3755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
@@ -3765,7 +3775,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -3791,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f>B119</f>
         <v>PECVD of thin film layer, for perovskite</v>
@@ -3814,7 +3824,7 @@
         <v>cell, perovskite, to sputter</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -3838,7 +3848,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>97</v>
       </c>
@@ -3859,7 +3869,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -3883,7 +3893,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>117</v>
       </c>
@@ -3907,7 +3917,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -3931,7 +3941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -3952,7 +3962,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>444</v>
       </c>
@@ -3976,7 +3986,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -3997,7 +4007,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>117</v>
       </c>
@@ -4018,7 +4028,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -4039,7 +4049,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -4060,7 +4070,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -4081,7 +4091,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>94</v>
       </c>
@@ -4102,7 +4112,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>93</v>
       </c>
@@ -4123,7 +4133,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -4144,7 +4154,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>63</v>
       </c>
@@ -4165,7 +4175,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>64</v>
       </c>
@@ -4186,7 +4196,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -4207,7 +4217,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>66</v>
       </c>
@@ -4228,7 +4238,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>65</v>
       </c>
@@ -4249,7 +4259,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -4270,7 +4280,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>69</v>
       </c>
@@ -4291,7 +4301,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>185</v>
       </c>
@@ -4312,7 +4322,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>186</v>
       </c>
@@ -4333,7 +4343,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>70</v>
       </c>
@@ -4354,7 +4364,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>71</v>
       </c>
@@ -4375,7 +4385,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -4396,7 +4406,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>73</v>
       </c>
@@ -4417,7 +4427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>74</v>
       </c>
@@ -4438,7 +4448,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -4459,7 +4469,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>188</v>
       </c>
@@ -4480,7 +4490,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -4501,7 +4511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>75</v>
       </c>
@@ -4522,7 +4532,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>190</v>
       </c>
@@ -4543,7 +4553,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>191</v>
       </c>
@@ -4564,7 +4574,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>433</v>
       </c>
@@ -4585,7 +4595,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -4606,7 +4616,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -4630,7 +4640,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -4651,7 +4661,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>147</v>
       </c>
@@ -4672,7 +4682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>94</v>
       </c>
@@ -4693,7 +4703,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>93</v>
       </c>
@@ -4735,7 +4745,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>58</v>
       </c>
@@ -4759,7 +4769,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>58</v>
       </c>
@@ -4783,7 +4793,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -4804,7 +4814,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>193</v>
       </c>
@@ -4825,7 +4835,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -4846,7 +4856,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>196</v>
       </c>
@@ -4870,7 +4880,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>444</v>
       </c>
@@ -4894,7 +4904,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>197</v>
       </c>
@@ -4918,7 +4928,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>444</v>
       </c>
@@ -4942,7 +4952,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -4963,7 +4973,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>206</v>
       </c>
@@ -4987,7 +4997,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>51</v>
       </c>
@@ -5008,7 +5018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>114</v>
       </c>
@@ -5032,7 +5042,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>95</v>
       </c>
@@ -5053,7 +5063,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>130</v>
       </c>
@@ -5074,7 +5084,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>389</v>
       </c>
@@ -5122,7 +5132,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>375</v>
       </c>
@@ -5143,7 +5153,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>1</v>
       </c>
@@ -5151,7 +5163,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>2</v>
       </c>
@@ -5159,7 +5171,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5175,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -5183,7 +5195,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -5191,7 +5203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -5199,7 +5211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>9</v>
       </c>
@@ -5210,7 +5222,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>10</v>
       </c>
@@ -5236,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
         <f>B192</f>
         <v>sputter process 1, perovskite cell</v>
@@ -5260,7 +5272,7 @@
         <v>perovskite cell, sputtered 1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>141</v>
       </c>
@@ -5281,7 +5293,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>217</v>
       </c>
@@ -5302,7 +5314,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>115</v>
       </c>
@@ -5326,7 +5338,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>145</v>
       </c>
@@ -5350,7 +5362,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>117</v>
       </c>
@@ -5374,7 +5386,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -5395,7 +5407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -5419,7 +5431,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>114</v>
       </c>
@@ -5440,7 +5452,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>95</v>
       </c>
@@ -5461,7 +5473,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>130</v>
       </c>
@@ -5482,7 +5494,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>206</v>
       </c>
@@ -5506,7 +5518,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>389</v>
       </c>
@@ -5530,7 +5542,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="216" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>1</v>
       </c>
@@ -5538,7 +5552,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>2</v>
       </c>
@@ -5546,7 +5560,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -5554,7 +5568,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -5562,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -5570,7 +5584,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -5578,7 +5592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -5586,7 +5600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>9</v>
       </c>
@@ -5597,7 +5611,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>10</v>
       </c>
@@ -5623,7 +5637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
         <f>B216</f>
         <v>sputter process 2, perovskite cell</v>
@@ -5647,7 +5661,7 @@
         <v>perovskite cell, sputtered 2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>215</v>
       </c>
@@ -5668,7 +5682,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>217</v>
       </c>
@@ -5689,7 +5703,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>115</v>
       </c>
@@ -5713,7 +5727,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>145</v>
       </c>
@@ -5737,7 +5751,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>117</v>
       </c>
@@ -5761,7 +5775,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>51</v>
       </c>
@@ -5782,7 +5796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>206</v>
       </c>
@@ -5806,7 +5820,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>114</v>
       </c>
@@ -5827,7 +5841,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>95</v>
       </c>
@@ -5848,7 +5862,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>130</v>
       </c>
@@ -5869,7 +5883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>206</v>
       </c>
@@ -5893,7 +5907,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>389</v>
       </c>
@@ -5917,7 +5931,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>1</v>
       </c>
@@ -5925,7 +5941,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>2</v>
       </c>
@@ -5933,7 +5949,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -5941,7 +5957,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -5949,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -5957,7 +5973,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -5965,7 +5981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -5973,7 +5989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>9</v>
       </c>
@@ -5984,7 +6000,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>10</v>
       </c>
@@ -6010,7 +6026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="str">
         <f>B240</f>
         <v>spiro-OMeTAD deposition of perovskite cell</v>
@@ -6034,7 +6050,7 @@
         <v>spiro-OMeTAD deposited perovskite cell</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>219</v>
       </c>
@@ -6055,7 +6071,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -6076,7 +6092,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>226</v>
       </c>
@@ -6097,7 +6113,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>115</v>
       </c>
@@ -6118,7 +6134,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>227</v>
       </c>
@@ -6139,7 +6155,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>228</v>
       </c>
@@ -6160,7 +6176,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>229</v>
       </c>
@@ -6181,7 +6197,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>230</v>
       </c>
@@ -6202,7 +6218,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>231</v>
       </c>
@@ -6223,7 +6239,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -6244,7 +6260,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>433</v>
       </c>
@@ -6265,7 +6281,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>228</v>
       </c>
@@ -6286,7 +6302,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>232</v>
       </c>
@@ -6307,7 +6323,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>233</v>
       </c>
@@ -6328,7 +6344,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>104</v>
       </c>
@@ -6349,7 +6365,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>364</v>
       </c>
@@ -6370,7 +6386,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>234</v>
       </c>
@@ -6391,7 +6407,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>100</v>
       </c>
@@ -6412,7 +6428,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>235</v>
       </c>
@@ -6433,7 +6449,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>228</v>
       </c>
@@ -6454,7 +6470,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>236</v>
       </c>
@@ -6475,7 +6491,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>235</v>
       </c>
@@ -6496,7 +6512,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>236</v>
       </c>
@@ -6517,7 +6533,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>237</v>
       </c>
@@ -6538,7 +6554,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>108</v>
       </c>
@@ -6559,7 +6575,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>238</v>
       </c>
@@ -6580,7 +6596,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -6601,7 +6617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>239</v>
       </c>
@@ -6622,7 +6638,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>100</v>
       </c>
@@ -6643,7 +6659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>240</v>
       </c>
@@ -6664,7 +6680,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>238</v>
       </c>
@@ -6685,7 +6701,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>241</v>
       </c>
@@ -6706,7 +6722,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>242</v>
       </c>
@@ -6727,7 +6743,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>117</v>
       </c>
@@ -6748,7 +6764,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>104</v>
       </c>
@@ -6769,7 +6785,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>243</v>
       </c>
@@ -6790,7 +6806,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>244</v>
       </c>
@@ -6811,7 +6827,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -6832,7 +6848,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>25</v>
       </c>
@@ -6853,7 +6869,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>245</v>
       </c>
@@ -6874,7 +6890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>246</v>
       </c>
@@ -6895,7 +6911,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>247</v>
       </c>
@@ -6916,7 +6932,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>248</v>
       </c>
@@ -6937,7 +6953,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>245</v>
       </c>
@@ -6958,7 +6974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>249</v>
       </c>
@@ -6979,7 +6995,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>441</v>
       </c>
@@ -7000,7 +7016,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>250</v>
       </c>
@@ -7021,7 +7037,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>438</v>
       </c>
@@ -7042,7 +7058,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>197</v>
       </c>
@@ -7063,7 +7079,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>433</v>
       </c>
@@ -7084,7 +7100,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>256</v>
       </c>
@@ -7105,7 +7121,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>252</v>
       </c>
@@ -7126,7 +7142,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>254</v>
       </c>
@@ -7147,7 +7163,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>238</v>
       </c>
@@ -7168,7 +7184,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>241</v>
       </c>
@@ -7189,7 +7205,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>117</v>
       </c>
@@ -7210,7 +7226,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>246</v>
       </c>
@@ -7231,7 +7247,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>247</v>
       </c>
@@ -7252,7 +7268,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>249</v>
       </c>
@@ -7273,7 +7289,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>250</v>
       </c>
@@ -7294,7 +7310,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>438</v>
       </c>
@@ -7315,7 +7331,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>197</v>
       </c>
@@ -7336,7 +7352,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>433</v>
       </c>
@@ -7357,7 +7373,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>256</v>
       </c>
@@ -7375,7 +7391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>254</v>
       </c>
@@ -7396,7 +7412,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>117</v>
       </c>
@@ -7420,7 +7436,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>206</v>
       </c>
@@ -7444,7 +7460,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>51</v>
       </c>
@@ -7465,7 +7481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>114</v>
       </c>
@@ -7489,7 +7505,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>95</v>
       </c>
@@ -7510,7 +7526,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>130</v>
       </c>
@@ -7531,7 +7547,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>389</v>
       </c>
@@ -7555,7 +7571,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>206</v>
       </c>
@@ -7579,7 +7595,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="325" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>1</v>
       </c>
@@ -7587,7 +7605,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>2</v>
       </c>
@@ -7595,7 +7613,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>3</v>
       </c>
@@ -7603,7 +7621,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -7611,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -7619,7 +7637,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -7627,7 +7645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -7635,7 +7653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>9</v>
       </c>
@@ -7646,7 +7664,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>10</v>
       </c>
@@ -7672,7 +7690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="str">
         <f>B325</f>
         <v>perovskite cell deposition</v>
@@ -7696,7 +7714,7 @@
         <v>deposited perovskite cell</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>223</v>
       </c>
@@ -7717,7 +7735,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>51</v>
       </c>
@@ -7738,7 +7756,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>444</v>
       </c>
@@ -7762,7 +7780,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>266</v>
       </c>
@@ -7783,7 +7801,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>260</v>
       </c>
@@ -7804,7 +7822,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>117</v>
       </c>
@@ -7828,7 +7846,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>261</v>
       </c>
@@ -7849,7 +7867,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>269</v>
       </c>
@@ -7870,7 +7888,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>252</v>
       </c>
@@ -7891,7 +7909,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>242</v>
       </c>
@@ -7912,7 +7930,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>262</v>
       </c>
@@ -7933,7 +7951,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>252</v>
       </c>
@@ -7954,7 +7972,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>266</v>
       </c>
@@ -7975,7 +7993,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>266</v>
       </c>
@@ -7996,7 +8014,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>263</v>
       </c>
@@ -8017,7 +8035,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>264</v>
       </c>
@@ -8038,7 +8056,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>261</v>
       </c>
@@ -8059,7 +8077,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>252</v>
       </c>
@@ -8080,7 +8098,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>266</v>
       </c>
@@ -8101,7 +8119,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>260</v>
       </c>
@@ -8122,7 +8140,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>106</v>
       </c>
@@ -8143,7 +8161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>261</v>
       </c>
@@ -8164,7 +8182,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>252</v>
       </c>
@@ -8185,7 +8203,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>261</v>
       </c>
@@ -8206,7 +8224,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>266</v>
       </c>
@@ -8227,7 +8245,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>114</v>
       </c>
@@ -8251,7 +8269,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>95</v>
       </c>
@@ -8272,7 +8290,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>130</v>
       </c>
@@ -8293,7 +8311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>389</v>
       </c>
@@ -8317,7 +8335,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>206</v>
       </c>
@@ -8341,7 +8359,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>206</v>
       </c>
@@ -8365,7 +8383,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="368" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>1</v>
       </c>
@@ -8373,7 +8393,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>2</v>
       </c>
@@ -8381,7 +8401,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>3</v>
       </c>
@@ -8389,7 +8409,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -8397,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>6</v>
       </c>
@@ -8405,7 +8425,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -8413,7 +8433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>8</v>
       </c>
@@ -8421,7 +8441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>9</v>
       </c>
@@ -8432,7 +8452,7 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>10</v>
       </c>
@@ -8458,7 +8478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="str">
         <f>B368</f>
         <v>perovskite cell curing 1</v>
@@ -8482,7 +8502,7 @@
         <v>cured perovskite cell 1</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>258</v>
       </c>
@@ -8503,7 +8523,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>51</v>
       </c>
@@ -8524,7 +8544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>206</v>
       </c>
@@ -8548,7 +8568,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>114</v>
       </c>
@@ -8572,7 +8592,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>95</v>
       </c>
@@ -8593,7 +8613,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>130</v>
       </c>
@@ -8614,7 +8634,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>206</v>
       </c>
@@ -8638,7 +8658,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>389</v>
       </c>
@@ -8662,7 +8682,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>1</v>
       </c>
@@ -8670,7 +8692,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>2</v>
       </c>
@@ -8678,7 +8700,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>3</v>
       </c>
@@ -8686,7 +8708,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -8694,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>6</v>
       </c>
@@ -8702,7 +8724,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -8710,7 +8732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -8718,7 +8740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>9</v>
       </c>
@@ -8729,7 +8751,7 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>10</v>
       </c>
@@ -8755,7 +8777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="str">
         <f>B388</f>
         <v>perovskite cell zinc oxide deposition</v>
@@ -8779,7 +8801,7 @@
         <v>zinc oxide deposited perovskite cell</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>286</v>
       </c>
@@ -8800,7 +8822,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>278</v>
       </c>
@@ -8821,7 +8843,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>115</v>
       </c>
@@ -8845,7 +8867,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>145</v>
       </c>
@@ -8869,7 +8891,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>117</v>
       </c>
@@ -8893,7 +8915,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>51</v>
       </c>
@@ -8914,7 +8936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>206</v>
       </c>
@@ -8938,7 +8960,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>114</v>
       </c>
@@ -8962,7 +8984,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>95</v>
       </c>
@@ -8983,7 +9005,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>130</v>
       </c>
@@ -9004,7 +9026,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>389</v>
       </c>
@@ -9028,7 +9050,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>206</v>
       </c>
@@ -9052,7 +9074,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="412" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>1</v>
       </c>
@@ -9060,7 +9084,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>2</v>
       </c>
@@ -9068,7 +9092,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>3</v>
       </c>
@@ -9076,7 +9100,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -9084,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>6</v>
       </c>
@@ -9092,7 +9116,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -9100,7 +9124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -9108,7 +9132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>9</v>
       </c>
@@ -9119,7 +9143,7 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>10</v>
       </c>
@@ -9145,7 +9169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="str">
         <f>B412</f>
         <v>sputter process 3, perovskite cell</v>
@@ -9169,7 +9193,7 @@
         <v>perovskite cell, sputtered 3</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>276</v>
       </c>
@@ -9190,7 +9214,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>217</v>
       </c>
@@ -9211,7 +9235,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>115</v>
       </c>
@@ -9235,7 +9259,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>145</v>
       </c>
@@ -9259,7 +9283,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>117</v>
       </c>
@@ -9283,7 +9307,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>51</v>
       </c>
@@ -9304,7 +9328,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>206</v>
       </c>
@@ -9328,7 +9352,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>114</v>
       </c>
@@ -9352,7 +9376,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>95</v>
       </c>
@@ -9373,7 +9397,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>130</v>
       </c>
@@ -9394,7 +9418,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>206</v>
       </c>
@@ -9418,7 +9442,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>389</v>
       </c>
@@ -9442,7 +9466,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="436" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>1</v>
       </c>
@@ -9450,7 +9476,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>2</v>
       </c>
@@ -9458,7 +9484,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>3</v>
       </c>
@@ -9466,7 +9492,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>5</v>
       </c>
@@ -9474,7 +9500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>6</v>
       </c>
@@ -9482,7 +9508,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -9490,7 +9516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -9498,7 +9524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>9</v>
       </c>
@@ -9509,7 +9535,7 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>10</v>
       </c>
@@ -9535,7 +9561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="str">
         <f>B436</f>
         <v>perovskite cell contact formation</v>
@@ -9559,7 +9585,7 @@
         <v>metallized perovskite cell</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>283</v>
       </c>
@@ -9580,7 +9606,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>250</v>
       </c>
@@ -9601,7 +9627,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>291</v>
       </c>
@@ -9622,7 +9648,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>51</v>
       </c>
@@ -9643,7 +9669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>147</v>
       </c>
@@ -9664,7 +9690,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>292</v>
       </c>
@@ -9685,7 +9711,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>293</v>
       </c>
@@ -9706,7 +9732,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>94</v>
       </c>
@@ -9727,7 +9753,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>294</v>
       </c>
@@ -9748,7 +9774,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>295</v>
       </c>
@@ -9769,7 +9795,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>307</v>
       </c>
@@ -9790,7 +9816,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>296</v>
       </c>
@@ -9811,7 +9837,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>297</v>
       </c>
@@ -9832,7 +9858,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>114</v>
       </c>
@@ -9856,7 +9882,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>95</v>
       </c>
@@ -9877,7 +9903,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>130</v>
       </c>
@@ -9898,7 +9924,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>436</v>
       </c>
@@ -9919,7 +9945,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>298</v>
       </c>
@@ -9940,7 +9966,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>389</v>
       </c>
@@ -9964,7 +9990,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="467" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>1</v>
       </c>
@@ -9972,7 +10000,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
         <v>2</v>
       </c>
@@ -9980,7 +10008,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>3</v>
       </c>
@@ -9988,7 +10016,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>5</v>
       </c>
@@ -9996,7 +10024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>6</v>
       </c>
@@ -10004,7 +10032,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -10012,7 +10040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>8</v>
       </c>
@@ -10020,7 +10048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>9</v>
       </c>
@@ -10031,7 +10059,7 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>10</v>
       </c>
@@ -10057,7 +10085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="str">
         <f>B467</f>
         <v>perovskite cell curing 2</v>
@@ -10081,7 +10109,7 @@
         <v>cured perovskite cell 2</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>289</v>
       </c>
@@ -10102,7 +10130,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>51</v>
       </c>
@@ -10123,7 +10151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>114</v>
       </c>
@@ -10147,7 +10175,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>95</v>
       </c>
@@ -10168,7 +10196,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>130</v>
       </c>
@@ -10189,7 +10217,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>389</v>
       </c>
@@ -10213,7 +10241,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>144</v>
       </c>
@@ -10237,7 +10265,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>1</v>
       </c>
@@ -10245,7 +10275,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
         <v>2</v>
       </c>
@@ -10253,7 +10283,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>3</v>
       </c>
@@ -10261,7 +10291,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>5</v>
       </c>
@@ -10269,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>6</v>
       </c>
@@ -10277,7 +10307,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -10285,7 +10315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>8</v>
       </c>
@@ -10293,7 +10323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>9</v>
       </c>
@@ -10304,7 +10334,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>10</v>
       </c>
@@ -10330,7 +10360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="str">
         <f>B486</f>
         <v>photovoltaic cell production, perovskite</v>
@@ -10354,7 +10384,7 @@
         <v>photovoltaic cell, perovskite</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>308</v>
       </c>
@@ -10375,7 +10405,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>51</v>
       </c>
@@ -10396,7 +10426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>114</v>
       </c>
@@ -10420,7 +10450,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>95</v>
       </c>
@@ -10441,7 +10471,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>130</v>
       </c>
@@ -10462,7 +10492,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="502" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>1</v>
       </c>
@@ -10470,7 +10501,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
         <v>2</v>
       </c>
@@ -10478,7 +10509,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>3</v>
       </c>
@@ -10486,7 +10517,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>5</v>
       </c>
@@ -10494,7 +10525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>6</v>
       </c>
@@ -10502,7 +10533,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -10510,7 +10541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>8</v>
       </c>
@@ -10518,7 +10549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>9</v>
       </c>
@@ -10529,7 +10560,7 @@
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>10</v>
       </c>
@@ -10555,7 +10586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="str">
         <f>B502</f>
         <v>perovskite photovoltaic module assembly</v>
@@ -10578,7 +10609,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>345</v>
       </c>
@@ -10598,7 +10629,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>307</v>
       </c>
@@ -10621,7 +10652,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>329</v>
       </c>
@@ -10644,7 +10675,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>330</v>
       </c>
@@ -10667,7 +10698,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>332</v>
       </c>
@@ -10690,7 +10721,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>334</v>
       </c>
@@ -10713,7 +10744,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>317</v>
       </c>
@@ -10733,7 +10764,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>330</v>
       </c>
@@ -10756,7 +10787,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>51</v>
       </c>
@@ -10779,7 +10810,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>55</v>
       </c>
@@ -10802,7 +10833,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>336</v>
       </c>
@@ -10825,7 +10856,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>323</v>
       </c>
@@ -10845,7 +10876,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>324</v>
       </c>
@@ -10865,7 +10896,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>325</v>
       </c>
@@ -10885,7 +10916,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>326</v>
       </c>
@@ -10905,7 +10936,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>327</v>
       </c>
@@ -10925,7 +10956,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>84</v>
       </c>
@@ -10945,7 +10976,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>330</v>
       </c>
@@ -10968,7 +10999,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>51</v>
       </c>
@@ -10991,7 +11022,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>55</v>
       </c>
@@ -11014,7 +11045,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>51</v>
       </c>
@@ -11037,7 +11068,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>206</v>
       </c>
@@ -11060,7 +11091,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>114</v>
       </c>
@@ -11083,7 +11114,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>449</v>
       </c>
@@ -11103,7 +11134,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>328</v>
       </c>
@@ -11123,7 +11154,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>95</v>
       </c>
@@ -11143,7 +11174,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>130</v>
       </c>
@@ -11163,7 +11194,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>206</v>
       </c>
@@ -11186,7 +11217,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="542" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>1</v>
       </c>
@@ -11194,7 +11227,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
         <v>2</v>
       </c>
@@ -11202,7 +11235,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>3</v>
       </c>
@@ -11210,7 +11243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>5</v>
       </c>
@@ -11218,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>6</v>
       </c>
@@ -11226,7 +11259,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -11234,7 +11267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>8</v>
       </c>
@@ -11242,7 +11275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>9</v>
       </c>
@@ -11253,7 +11286,7 @@
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>10</v>
       </c>
@@ -11279,7 +11312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="str">
         <f>B542</f>
         <v>photovoltaic panel installation, 0.5kWp, perovskite</v>
@@ -11303,7 +11336,7 @@
         <v>photovoltaic panel, perovskite</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>457</v>
       </c>
@@ -11326,7 +11359,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>349</v>
       </c>
@@ -11347,7 +11380,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>350</v>
       </c>
@@ -11368,7 +11401,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="556" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
         <v>1</v>
       </c>
@@ -11376,7 +11410,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
         <v>2</v>
       </c>
@@ -11384,7 +11418,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>3</v>
       </c>
@@ -11392,7 +11426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>5</v>
       </c>
@@ -11400,7 +11434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>6</v>
       </c>
@@ -11408,7 +11442,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -11416,7 +11450,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>8</v>
       </c>
@@ -11424,7 +11458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>9</v>
       </c>
@@ -11435,7 +11469,7 @@
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>10</v>
       </c>
@@ -11473,7 +11507,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="str">
         <f>B556</f>
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
@@ -11498,7 +11532,7 @@
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>456</v>
       </c>
@@ -11534,7 +11568,8 @@
         <v>1.0869565217391305E-4</v>
       </c>
     </row>
-    <row r="568" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="568" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>1</v>
       </c>
@@ -11542,7 +11577,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="569" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5" t="s">
         <v>2</v>
       </c>
@@ -11550,7 +11585,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>3</v>
       </c>
@@ -11558,7 +11593,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>5</v>
       </c>
@@ -11566,7 +11601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>6</v>
       </c>
@@ -11574,7 +11609,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -11582,7 +11617,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>8</v>
       </c>
@@ -11590,7 +11625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>9</v>
       </c>
@@ -11601,7 +11636,7 @@
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>10</v>
       </c>
@@ -11627,7 +11662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="str">
         <f>B568</f>
         <v>exhaust abatement, for perovskite</v>
@@ -11655,7 +11690,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>106</v>
       </c>
@@ -11675,7 +11710,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>100</v>
       </c>
@@ -11695,7 +11730,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>51</v>
       </c>
@@ -11719,7 +11754,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>113</v>
       </c>
@@ -11742,7 +11777,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>379</v>
       </c>
@@ -11765,7 +11800,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>114</v>
       </c>
@@ -11788,7 +11823,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>385</v>
       </c>
@@ -11808,7 +11843,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>386</v>
       </c>
@@ -11828,7 +11863,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>387</v>
       </c>
@@ -11848,7 +11883,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>388</v>
       </c>
@@ -11868,7 +11903,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="590" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
         <v>1</v>
       </c>
@@ -11876,7 +11913,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5" t="s">
         <v>2</v>
       </c>
@@ -11884,7 +11921,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>3</v>
       </c>
@@ -11892,7 +11929,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>5</v>
       </c>
@@ -11900,7 +11937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>6</v>
       </c>
@@ -11908,7 +11945,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -11916,7 +11953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>8</v>
       </c>
@@ -11924,7 +11961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>9</v>
       </c>
@@ -11935,7 +11972,7 @@
       <c r="F597" s="1"/>
       <c r="G597" s="1"/>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>10</v>
       </c>
@@ -11961,7 +11998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="str">
         <f>B590</f>
         <v>tray cleaning, for perovskite</v>
@@ -11987,7 +12024,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>354</v>
       </c>
@@ -12011,7 +12048,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>100</v>
       </c>
@@ -12032,7 +12069,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>51</v>
       </c>
@@ -12056,7 +12093,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>356</v>
       </c>
@@ -12080,7 +12117,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>93</v>
       </c>
@@ -12101,7 +12138,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>358</v>
       </c>
@@ -12122,7 +12159,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>399</v>
       </c>
@@ -12146,7 +12183,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="609" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
         <v>1</v>
       </c>
@@ -12154,7 +12193,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5" t="s">
         <v>2</v>
       </c>
@@ -12162,7 +12201,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>3</v>
       </c>
@@ -12170,7 +12209,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>5</v>
       </c>
@@ -12178,7 +12217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>6</v>
       </c>
@@ -12186,7 +12225,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -12194,7 +12233,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>8</v>
       </c>
@@ -12202,7 +12241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>9</v>
       </c>
@@ -12213,7 +12252,7 @@
       <c r="F616" s="1"/>
       <c r="G616" s="1"/>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>10</v>
       </c>
@@ -12239,7 +12278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="str">
         <f>B609</f>
         <v>ultrapure water system activity, for perovskite</v>
@@ -12265,7 +12304,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>51</v>
       </c>
@@ -12289,7 +12328,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>356</v>
       </c>
@@ -12313,7 +12352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>114</v>
       </c>
@@ -12337,7 +12376,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>359</v>
       </c>
@@ -12358,7 +12397,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>252</v>
       </c>
@@ -12382,7 +12421,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="626" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
         <v>1</v>
       </c>
@@ -12390,7 +12431,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5" t="s">
         <v>2</v>
       </c>
@@ -12398,7 +12439,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>3</v>
       </c>
@@ -12406,7 +12447,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>5</v>
       </c>
@@ -12414,7 +12455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>6</v>
       </c>
@@ -12422,7 +12463,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -12430,7 +12471,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>8</v>
       </c>
@@ -12438,7 +12479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>9</v>
       </c>
@@ -12449,7 +12490,7 @@
       <c r="F633" s="1"/>
       <c r="G633" s="1"/>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>10</v>
       </c>
@@ -12475,7 +12516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="str">
         <f>B626</f>
         <v>inhouse waste water treatment, for perovskite production</v>
@@ -12502,7 +12543,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>104</v>
       </c>
@@ -12526,7 +12567,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>100</v>
       </c>
@@ -12546,7 +12587,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>25</v>
       </c>
@@ -12570,7 +12611,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>364</v>
       </c>
@@ -12590,7 +12631,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>365</v>
       </c>
@@ -12610,7 +12651,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>366</v>
       </c>
@@ -12630,7 +12671,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>51</v>
       </c>
@@ -12654,7 +12695,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>114</v>
       </c>
@@ -12678,7 +12719,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>356</v>
       </c>
@@ -12701,7 +12742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>252</v>
       </c>
@@ -12724,7 +12765,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>370</v>
       </c>
@@ -12745,7 +12786,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>399</v>
       </c>
@@ -12769,7 +12810,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>402</v>
       </c>
@@ -12792,7 +12833,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="651" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="2" t="s">
         <v>1</v>
       </c>
@@ -12800,7 +12843,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="5" t="s">
         <v>2</v>
       </c>
@@ -12808,7 +12851,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>3</v>
       </c>
@@ -12816,7 +12859,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>5</v>
       </c>
@@ -12824,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>6</v>
       </c>
@@ -12832,7 +12875,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>7</v>
       </c>
@@ -12840,7 +12883,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>8</v>
       </c>
@@ -12848,7 +12891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>9</v>
       </c>
@@ -12859,7 +12902,7 @@
       <c r="F658" s="1"/>
       <c r="G658" s="1"/>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>10</v>
       </c>
@@ -12885,7 +12928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="str">
         <f>B651</f>
         <v>process cooling, water, for perovskite</v>
@@ -12911,7 +12954,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>252</v>
       </c>
@@ -12934,7 +12977,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>51</v>
       </c>
@@ -12955,7 +12998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>356</v>
       </c>
@@ -12978,7 +13021,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="665" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="2" t="s">
         <v>1</v>
       </c>
@@ -12986,7 +13030,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="5" t="s">
         <v>2</v>
       </c>
@@ -12994,7 +13038,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>3</v>
       </c>
@@ -13002,7 +13046,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>5</v>
       </c>
@@ -13010,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>6</v>
       </c>
@@ -13018,7 +13062,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -13026,7 +13070,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>8</v>
       </c>
@@ -13034,7 +13078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>9</v>
       </c>
@@ -13045,7 +13089,7 @@
       <c r="F672" s="1"/>
       <c r="G672" s="1"/>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>10</v>
       </c>
@@ -13071,7 +13115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="str">
         <f>B665</f>
         <v>process cooling, water, for perovskite</v>
@@ -13098,7 +13142,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="677" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="2" t="s">
         <v>1</v>
       </c>
@@ -13106,7 +13152,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="5" t="s">
         <v>2</v>
       </c>
@@ -13114,7 +13160,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>3</v>
       </c>
@@ -13122,7 +13168,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>5</v>
       </c>
@@ -13130,7 +13176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>6</v>
       </c>
@@ -13138,7 +13184,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>7</v>
       </c>
@@ -13146,7 +13192,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>8</v>
       </c>
@@ -13154,7 +13200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>9</v>
       </c>
@@ -13165,7 +13211,7 @@
       <c r="F684" s="1"/>
       <c r="G684" s="1"/>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
         <v>10</v>
       </c>
@@ -13191,7 +13237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="str">
         <f>B677</f>
         <v>air compressor activity, for perovskite</v>
@@ -13217,7 +13263,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>372</v>
       </c>
@@ -13240,7 +13286,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="690" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="2" t="s">
         <v>1</v>
       </c>
@@ -13248,7 +13296,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5" t="s">
         <v>2</v>
       </c>
@@ -13256,7 +13304,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>3</v>
       </c>
@@ -13264,7 +13312,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>5</v>
       </c>
@@ -13272,7 +13320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>6</v>
       </c>
@@ -13280,7 +13328,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -13288,7 +13336,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>8</v>
       </c>
@@ -13296,7 +13344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>9</v>
       </c>
@@ -13307,7 +13355,7 @@
       <c r="F697" s="1"/>
       <c r="G697" s="1"/>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>10</v>
       </c>
@@ -13333,7 +13381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="str">
         <f>B690</f>
         <v>process exhaust ventilators, general, for perovskite production</v>
@@ -13359,7 +13407,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>391</v>
       </c>
@@ -13379,7 +13427,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>392</v>
       </c>
@@ -13399,7 +13447,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>51</v>
       </c>
@@ -13420,7 +13468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>398</v>
       </c>
@@ -13440,7 +13488,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>190</v>
       </c>
@@ -13460,7 +13508,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>76</v>
       </c>
@@ -13480,7 +13528,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="708" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="2" t="s">
         <v>1</v>
       </c>
@@ -13488,7 +13538,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="5" t="s">
         <v>2</v>
       </c>
@@ -13496,7 +13546,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>3</v>
       </c>
@@ -13504,7 +13554,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>5</v>
       </c>
@@ -13512,7 +13562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>6</v>
       </c>
@@ -13520,7 +13570,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -13528,7 +13578,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>8</v>
       </c>
@@ -13536,7 +13586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
         <v>9</v>
       </c>
@@ -13547,7 +13597,7 @@
       <c r="F715" s="1"/>
       <c r="G715" s="1"/>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>10</v>
       </c>
@@ -13573,7 +13623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="str">
         <f>B708</f>
         <v>process exhaust ventilators, acidic, for perovskite production</v>
@@ -13599,7 +13649,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>391</v>
       </c>
@@ -13619,7 +13669,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>392</v>
       </c>
@@ -13639,7 +13689,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>51</v>
       </c>
@@ -13660,7 +13710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>398</v>
       </c>
@@ -13680,7 +13730,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>190</v>
       </c>
@@ -13700,7 +13750,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>76</v>
       </c>
@@ -13720,7 +13770,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>25</v>
       </c>
@@ -13744,7 +13794,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>51</v>
       </c>
@@ -13765,7 +13815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>100</v>
       </c>
@@ -13785,7 +13835,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="729" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="2" t="s">
         <v>1</v>
       </c>
@@ -13793,7 +13845,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="5" t="s">
         <v>2</v>
       </c>
@@ -13801,7 +13853,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>3</v>
       </c>
@@ -13809,7 +13861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>5</v>
       </c>
@@ -13817,7 +13869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>6</v>
       </c>
@@ -13825,7 +13877,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -13833,7 +13885,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>8</v>
       </c>
@@ -13841,7 +13893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
         <v>9</v>
       </c>
@@ -13852,7 +13904,7 @@
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
         <v>10</v>
       </c>
@@ -13878,7 +13930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" t="str">
         <f>B729</f>
         <v>process exhaust ventilators, caustic, for perovskite production</v>
@@ -13904,7 +13956,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>391</v>
       </c>
@@ -13924,7 +13976,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>392</v>
       </c>
@@ -13944,7 +13996,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>51</v>
       </c>
@@ -13965,7 +14017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>398</v>
       </c>
@@ -13985,7 +14037,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>190</v>
       </c>
@@ -14005,7 +14057,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>76</v>
       </c>
@@ -14025,7 +14077,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>231</v>
       </c>
@@ -14049,7 +14101,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>51</v>
       </c>
@@ -14070,7 +14122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>100</v>
       </c>
@@ -14091,7 +14143,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H747" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H747" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="treatment of wastewater from wafer fabrication, wastewater treatment"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05468028-B5E8-EA4C-B4D7-4B8ED2EA91B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAE77C-38CC-B748-90A0-DBA3BF4E3CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1777,7 +1777,7 @@
   <dimension ref="A1:L747"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D565" sqref="D565"/>
+      <selection activeCell="E748" sqref="E748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4028,7 +4028,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>79</v>
       </c>
       <c r="E138" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="F138" t="s">
         <v>77</v>
@@ -4724,7 +4724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>194</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>79</v>
       </c>
       <c r="E263" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F263" t="s">
         <v>77</v>
@@ -14146,7 +14146,7 @@
   <autoFilter ref="A1:H747" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="treatment of wastewater from wafer fabrication, wastewater treatment"/>
+        <filter val="market for silicon tetrachloride"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAE77C-38CC-B748-90A0-DBA3BF4E3CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C690D11-DE9C-5D4F-8BCF-4C186FDF7B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV-perovskite" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="458">
   <si>
     <t>Database</t>
   </si>
@@ -849,9 +849,6 @@
   </si>
   <si>
     <t>market for water, deionised</t>
-  </si>
-  <si>
-    <t>Methanol</t>
   </si>
   <si>
     <t>methylamine</t>
@@ -1773,11 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L747"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E748" sqref="E748"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G345" sqref="G345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1800,8 +1796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>135</v>
       </c>
@@ -1817,7 +1812,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1825,7 +1820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1833,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1841,7 +1836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1849,7 +1844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1869,7 +1864,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1895,7 +1890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>B3</f>
         <v>perovskite wafer production</v>
@@ -1919,7 +1914,7 @@
         <v>perovskite wafer</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1940,9 +1935,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B14" s="4">
         <f>1830.1110288/35467268</f>
@@ -1958,10 +1953,10 @@
         <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1982,7 +1977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2003,7 +1998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2024,7 +2019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2048,7 +2043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2069,7 +2064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2093,7 +2088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2114,7 +2109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2135,7 +2130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2156,7 +2151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2177,7 +2172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2198,7 +2193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2222,7 +2217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2243,7 +2238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2264,7 +2259,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2285,9 +2280,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B30" s="3">
         <f>59478608.436/35467268</f>
@@ -2303,10 +2298,10 @@
         <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2327,7 +2322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2345,7 +2340,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2363,7 +2358,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2381,7 +2376,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2399,7 +2394,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2417,7 +2412,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -2435,7 +2430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -2453,7 +2448,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2471,7 +2466,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -2489,7 +2484,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2507,7 +2502,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -2525,7 +2520,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2543,7 +2538,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -2561,7 +2556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -2579,7 +2574,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -2597,9 +2592,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
@@ -2607,7 +2600,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>135</v>
       </c>
@@ -2615,7 +2608,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2623,7 +2616,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2631,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2639,7 +2632,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2647,7 +2640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2655,7 +2648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -2667,7 +2660,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -2693,7 +2686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>B49</f>
         <v>perovskite wafer packaging</v>
@@ -2717,7 +2710,7 @@
         <v>perovskite wafer, packaged</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -2738,7 +2731,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -2759,7 +2752,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -2780,7 +2773,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -2800,9 +2793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
@@ -2810,7 +2801,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>135</v>
       </c>
@@ -2818,7 +2809,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2826,7 +2817,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2834,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2842,7 +2833,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2850,7 +2841,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2858,7 +2849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
@@ -2870,7 +2861,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -2896,7 +2887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>B65</f>
         <v>perovskite wafer transport</v>
@@ -2920,7 +2911,7 @@
         <v>perovskite wafer, transported</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -2941,7 +2932,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -2962,9 +2953,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B77">
         <f>428058757.128493/35422933.915</f>
@@ -2980,10 +2971,10 @@
         <v>77</v>
       </c>
       <c r="G77" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -3004,7 +2995,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3025,9 +3016,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
@@ -3035,7 +3024,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>135</v>
       </c>
@@ -3043,7 +3032,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3051,7 +3040,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -3059,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -3067,7 +3056,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3075,7 +3064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3083,7 +3072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -3095,7 +3084,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -3121,7 +3110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>B82</f>
         <v>perovskite wafer cleaning</v>
@@ -3145,7 +3134,7 @@
         <v>perovskite wafer, cleaned</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3165,7 +3154,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3186,7 +3175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3207,7 +3196,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -3231,7 +3220,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -3252,7 +3241,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -3273,7 +3262,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3294,7 +3283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3315,7 +3304,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -3336,7 +3325,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>25</v>
       </c>
@@ -3360,7 +3349,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -3381,10 +3370,10 @@
         <v>116</v>
       </c>
       <c r="H102" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -3405,10 +3394,10 @@
         <v>118</v>
       </c>
       <c r="H103" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -3432,7 +3421,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -3456,7 +3445,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -3480,7 +3469,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -3501,7 +3490,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -3522,9 +3511,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B109">
         <f>-3000/35367093.098703</f>
@@ -3543,9 +3532,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B110">
         <f>-5000/35367093.098703</f>
@@ -3564,7 +3553,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -3585,7 +3574,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3609,9 +3598,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B113">
         <f>-43830000/35367093.098703</f>
@@ -3627,15 +3616,15 @@
         <v>77</v>
       </c>
       <c r="G113" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H113" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B114">
         <f>-65745000/35367093.098703</f>
@@ -3651,15 +3640,15 @@
         <v>77</v>
       </c>
       <c r="G114" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H114" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B115">
         <f>-66621600/35367093.098703</f>
@@ -3675,13 +3664,13 @@
         <v>77</v>
       </c>
       <c r="G115" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H115" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -3705,9 +3694,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>1</v>
       </c>
@@ -3715,7 +3702,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>2</v>
       </c>
@@ -3723,7 +3710,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3731,7 +3718,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3739,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -3747,7 +3734,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3755,7 +3742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3763,7 +3750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
@@ -3775,7 +3762,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -3801,7 +3788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f>B119</f>
         <v>PECVD of thin film layer, for perovskite</v>
@@ -3824,7 +3811,7 @@
         <v>cell, perovskite, to sputter</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -3845,10 +3832,10 @@
         <v>143</v>
       </c>
       <c r="H129" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>97</v>
       </c>
@@ -3869,7 +3856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -3890,10 +3877,10 @@
         <v>146</v>
       </c>
       <c r="H131" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>117</v>
       </c>
@@ -3914,10 +3901,10 @@
         <v>118</v>
       </c>
       <c r="H132" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -3941,7 +3928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -3962,9 +3949,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B135">
         <f>46.5001236/35317005.6480545</f>
@@ -3980,13 +3967,13 @@
         <v>77</v>
       </c>
       <c r="G135" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H135" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -4007,7 +3994,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>117</v>
       </c>
@@ -4049,7 +4036,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -4070,7 +4057,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -4091,7 +4078,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>94</v>
       </c>
@@ -4112,7 +4099,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>93</v>
       </c>
@@ -4133,7 +4120,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -4154,7 +4141,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>63</v>
       </c>
@@ -4175,7 +4162,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>64</v>
       </c>
@@ -4196,7 +4183,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -4217,7 +4204,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>66</v>
       </c>
@@ -4238,7 +4225,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>65</v>
       </c>
@@ -4259,7 +4246,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -4280,7 +4267,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>69</v>
       </c>
@@ -4301,7 +4288,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>185</v>
       </c>
@@ -4322,7 +4309,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>186</v>
       </c>
@@ -4343,7 +4330,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>70</v>
       </c>
@@ -4364,7 +4351,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>71</v>
       </c>
@@ -4385,7 +4372,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -4406,7 +4393,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>73</v>
       </c>
@@ -4427,7 +4414,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>74</v>
       </c>
@@ -4448,7 +4435,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -4469,7 +4456,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>188</v>
       </c>
@@ -4490,7 +4477,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -4511,7 +4498,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>75</v>
       </c>
@@ -4532,7 +4519,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>190</v>
       </c>
@@ -4553,7 +4540,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>191</v>
       </c>
@@ -4574,9 +4561,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B164">
         <f>30.6056124/35317005.6480545</f>
@@ -4592,10 +4579,10 @@
         <v>77</v>
       </c>
       <c r="G164" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -4616,7 +4603,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -4640,7 +4627,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -4661,7 +4648,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>147</v>
       </c>
@@ -4682,7 +4669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>94</v>
       </c>
@@ -4703,7 +4690,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>93</v>
       </c>
@@ -4724,7 +4711,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>194</v>
       </c>
@@ -4745,7 +4732,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>58</v>
       </c>
@@ -4769,7 +4756,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>58</v>
       </c>
@@ -4793,7 +4780,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -4814,7 +4801,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>193</v>
       </c>
@@ -4835,7 +4822,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -4856,7 +4843,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>196</v>
       </c>
@@ -4880,9 +4867,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B178">
         <f>312.42024*0.08988/35317005.6480545</f>
@@ -4898,13 +4885,13 @@
         <v>77</v>
       </c>
       <c r="G178" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>197</v>
       </c>
@@ -4928,9 +4915,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B180">
         <f>5259600*0.07078/35317005.6480545</f>
@@ -4946,13 +4933,13 @@
         <v>77</v>
       </c>
       <c r="G180" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H180" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -4973,7 +4960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>206</v>
       </c>
@@ -4997,7 +4984,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>51</v>
       </c>
@@ -5018,7 +5005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>114</v>
       </c>
@@ -5042,7 +5029,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>95</v>
       </c>
@@ -5063,7 +5050,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>130</v>
       </c>
@@ -5084,7 +5071,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -5108,9 +5095,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B188">
         <f>-(20161800+157788)/35317005.6480545</f>
@@ -5126,15 +5113,15 @@
         <v>77</v>
       </c>
       <c r="G188" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H188" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B189">
         <f>-(157788)/35317005.6480545</f>
@@ -5150,12 +5137,10 @@
         <v>77</v>
       </c>
       <c r="G189" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>1</v>
       </c>
@@ -5163,7 +5148,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>2</v>
       </c>
@@ -5171,7 +5156,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -5179,7 +5164,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5187,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -5195,7 +5180,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -5203,7 +5188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -5211,7 +5196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>9</v>
       </c>
@@ -5222,7 +5207,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>10</v>
       </c>
@@ -5248,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
         <f>B192</f>
         <v>sputter process 1, perovskite cell</v>
@@ -5272,7 +5257,7 @@
         <v>perovskite cell, sputtered 1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>141</v>
       </c>
@@ -5293,7 +5278,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>217</v>
       </c>
@@ -5314,7 +5299,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>115</v>
       </c>
@@ -5335,10 +5320,10 @@
         <v>116</v>
       </c>
       <c r="H204" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>145</v>
       </c>
@@ -5359,10 +5344,10 @@
         <v>146</v>
       </c>
       <c r="H205" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>117</v>
       </c>
@@ -5383,10 +5368,10 @@
         <v>118</v>
       </c>
       <c r="H206" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -5407,7 +5392,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -5431,7 +5416,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>114</v>
       </c>
@@ -5452,7 +5437,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>95</v>
       </c>
@@ -5473,7 +5458,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>130</v>
       </c>
@@ -5494,7 +5479,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>206</v>
       </c>
@@ -5518,9 +5503,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B213">
         <f>-1472688/35266918.197406</f>
@@ -5536,15 +5521,13 @@
         <v>77</v>
       </c>
       <c r="G213" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H213" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="216" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>1</v>
       </c>
@@ -5552,7 +5535,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>2</v>
       </c>
@@ -5560,7 +5543,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -5568,7 +5551,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -5576,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -5584,7 +5567,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -5592,7 +5575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -5600,7 +5583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>9</v>
       </c>
@@ -5611,7 +5594,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>10</v>
       </c>
@@ -5637,7 +5620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
         <f>B216</f>
         <v>sputter process 2, perovskite cell</v>
@@ -5661,7 +5644,7 @@
         <v>perovskite cell, sputtered 2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>215</v>
       </c>
@@ -5682,7 +5665,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>217</v>
       </c>
@@ -5703,7 +5686,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>115</v>
       </c>
@@ -5724,10 +5707,10 @@
         <v>116</v>
       </c>
       <c r="H228" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>145</v>
       </c>
@@ -5748,10 +5731,10 @@
         <v>146</v>
       </c>
       <c r="H229" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>117</v>
       </c>
@@ -5772,10 +5755,10 @@
         <v>118</v>
       </c>
       <c r="H230" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>51</v>
       </c>
@@ -5796,7 +5779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>206</v>
       </c>
@@ -5820,7 +5803,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>114</v>
       </c>
@@ -5841,7 +5824,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>95</v>
       </c>
@@ -5862,7 +5845,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>130</v>
       </c>
@@ -5883,7 +5866,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>206</v>
       </c>
@@ -5907,9 +5890,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B237">
         <f>-1472688/35266918.197406</f>
@@ -5925,15 +5908,13 @@
         <v>77</v>
       </c>
       <c r="G237" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H237" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>1</v>
       </c>
@@ -5941,7 +5922,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>2</v>
       </c>
@@ -5949,7 +5930,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -5957,7 +5938,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -5965,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -5973,7 +5954,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -5981,7 +5962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -5989,7 +5970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>9</v>
       </c>
@@ -6000,7 +5981,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>10</v>
       </c>
@@ -6026,7 +6007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="str">
         <f>B240</f>
         <v>spiro-OMeTAD deposition of perovskite cell</v>
@@ -6050,7 +6031,7 @@
         <v>spiro-OMeTAD deposited perovskite cell</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>219</v>
       </c>
@@ -6071,7 +6052,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -6092,7 +6073,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>226</v>
       </c>
@@ -6110,10 +6091,10 @@
         <v>77</v>
       </c>
       <c r="G252" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>115</v>
       </c>
@@ -6134,7 +6115,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>227</v>
       </c>
@@ -6152,10 +6133,10 @@
         <v>77</v>
       </c>
       <c r="G254" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>228</v>
       </c>
@@ -6173,10 +6154,10 @@
         <v>77</v>
       </c>
       <c r="G255" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>229</v>
       </c>
@@ -6194,10 +6175,10 @@
         <v>77</v>
       </c>
       <c r="G256" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>230</v>
       </c>
@@ -6215,10 +6196,10 @@
         <v>77</v>
       </c>
       <c r="G257" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>231</v>
       </c>
@@ -6236,10 +6217,10 @@
         <v>77</v>
       </c>
       <c r="G258" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -6260,9 +6241,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B260">
         <f>575.256965526288/35166743.2961089</f>
@@ -6278,10 +6259,10 @@
         <v>77</v>
       </c>
       <c r="G260" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>228</v>
       </c>
@@ -6299,10 +6280,10 @@
         <v>77</v>
       </c>
       <c r="G261" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>232</v>
       </c>
@@ -6320,10 +6301,10 @@
         <v>77</v>
       </c>
       <c r="G262" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>233</v>
       </c>
@@ -6341,10 +6322,10 @@
         <v>77</v>
       </c>
       <c r="G263" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>104</v>
       </c>
@@ -6365,9 +6346,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B265">
         <f>2.87174093374893/35166743.2961089</f>
@@ -6383,10 +6364,10 @@
         <v>77</v>
       </c>
       <c r="G265" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>234</v>
       </c>
@@ -6404,10 +6385,10 @@
         <v>77</v>
       </c>
       <c r="G266" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>100</v>
       </c>
@@ -6428,7 +6409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>235</v>
       </c>
@@ -6446,10 +6427,10 @@
         <v>77</v>
       </c>
       <c r="G268" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>228</v>
       </c>
@@ -6467,10 +6448,10 @@
         <v>77</v>
       </c>
       <c r="G269" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>236</v>
       </c>
@@ -6488,10 +6469,10 @@
         <v>77</v>
       </c>
       <c r="G270" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>235</v>
       </c>
@@ -6509,10 +6490,10 @@
         <v>77</v>
       </c>
       <c r="G271" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>236</v>
       </c>
@@ -6530,10 +6511,10 @@
         <v>77</v>
       </c>
       <c r="G272" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>237</v>
       </c>
@@ -6551,10 +6532,10 @@
         <v>77</v>
       </c>
       <c r="G273" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>108</v>
       </c>
@@ -6575,7 +6556,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>238</v>
       </c>
@@ -6593,10 +6574,10 @@
         <v>77</v>
       </c>
       <c r="G275" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -6617,7 +6598,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>239</v>
       </c>
@@ -6635,10 +6616,10 @@
         <v>77</v>
       </c>
       <c r="G277" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>100</v>
       </c>
@@ -6659,7 +6640,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>240</v>
       </c>
@@ -6677,10 +6658,10 @@
         <v>77</v>
       </c>
       <c r="G279" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>238</v>
       </c>
@@ -6698,10 +6679,10 @@
         <v>77</v>
       </c>
       <c r="G280" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>241</v>
       </c>
@@ -6719,10 +6700,10 @@
         <v>77</v>
       </c>
       <c r="G281" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>242</v>
       </c>
@@ -6740,10 +6721,10 @@
         <v>77</v>
       </c>
       <c r="G282" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>117</v>
       </c>
@@ -6764,7 +6745,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>104</v>
       </c>
@@ -6785,7 +6766,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>243</v>
       </c>
@@ -6797,16 +6778,16 @@
         <v>79</v>
       </c>
       <c r="E285" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F285" t="s">
         <v>77</v>
       </c>
       <c r="G285" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>244</v>
       </c>
@@ -6824,10 +6805,10 @@
         <v>77</v>
       </c>
       <c r="G286" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -6848,7 +6829,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>25</v>
       </c>
@@ -6869,7 +6850,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>245</v>
       </c>
@@ -6890,7 +6871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>246</v>
       </c>
@@ -6908,10 +6889,10 @@
         <v>77</v>
       </c>
       <c r="G290" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>247</v>
       </c>
@@ -6929,10 +6910,10 @@
         <v>77</v>
       </c>
       <c r="G291" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>248</v>
       </c>
@@ -6950,10 +6931,10 @@
         <v>77</v>
       </c>
       <c r="G292" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>245</v>
       </c>
@@ -6974,7 +6955,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>249</v>
       </c>
@@ -6992,12 +6973,12 @@
         <v>77</v>
       </c>
       <c r="G294" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B295">
         <f>2381.0003944374/35166743.2961089</f>
@@ -7013,10 +6994,10 @@
         <v>77</v>
       </c>
       <c r="G295" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>250</v>
       </c>
@@ -7034,12 +7015,12 @@
         <v>77</v>
       </c>
       <c r="G296" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B297">
         <f>-127.229028710395/35166743.2961089</f>
@@ -7055,10 +7036,10 @@
         <v>77</v>
       </c>
       <c r="G297" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>197</v>
       </c>
@@ -7079,9 +7060,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B299">
         <f>413.494343308785/35166743.2961089</f>
@@ -7097,10 +7078,10 @@
         <v>77</v>
       </c>
       <c r="G299" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>256</v>
       </c>
@@ -7121,7 +7102,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>252</v>
       </c>
@@ -7142,7 +7123,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>254</v>
       </c>
@@ -7163,7 +7144,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>238</v>
       </c>
@@ -7181,10 +7162,10 @@
         <v>77</v>
       </c>
       <c r="G303" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>241</v>
       </c>
@@ -7202,10 +7183,10 @@
         <v>77</v>
       </c>
       <c r="G304" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>117</v>
       </c>
@@ -7226,7 +7207,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>246</v>
       </c>
@@ -7244,10 +7225,10 @@
         <v>77</v>
       </c>
       <c r="G306" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>247</v>
       </c>
@@ -7265,10 +7246,10 @@
         <v>77</v>
       </c>
       <c r="G307" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>249</v>
       </c>
@@ -7286,10 +7267,10 @@
         <v>77</v>
       </c>
       <c r="G308" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>250</v>
       </c>
@@ -7307,12 +7288,12 @@
         <v>77</v>
       </c>
       <c r="G309" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B310">
         <f>-127.960230024823/35166743.2961089</f>
@@ -7328,10 +7309,10 @@
         <v>77</v>
       </c>
       <c r="G310" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>197</v>
       </c>
@@ -7352,9 +7333,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B312">
         <f>415.870747580675/35166743.2961089</f>
@@ -7370,10 +7351,10 @@
         <v>77</v>
       </c>
       <c r="G312" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>256</v>
       </c>
@@ -7391,7 +7372,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>254</v>
       </c>
@@ -7412,7 +7393,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>117</v>
       </c>
@@ -7436,7 +7417,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>206</v>
       </c>
@@ -7460,7 +7441,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>51</v>
       </c>
@@ -7481,7 +7462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>114</v>
       </c>
@@ -7505,7 +7486,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>95</v>
       </c>
@@ -7526,7 +7507,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>130</v>
       </c>
@@ -7547,9 +7528,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B321">
         <f>-14025600/35166743.2961089</f>
@@ -7565,13 +7546,13 @@
         <v>77</v>
       </c>
       <c r="G321" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H321" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>206</v>
       </c>
@@ -7595,9 +7576,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="325" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>1</v>
       </c>
@@ -7605,7 +7584,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>2</v>
       </c>
@@ -7613,7 +7592,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>3</v>
       </c>
@@ -7621,7 +7600,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -7629,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -7637,7 +7616,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -7645,7 +7624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -7653,7 +7632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>9</v>
       </c>
@@ -7664,7 +7643,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>10</v>
       </c>
@@ -7690,7 +7669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="str">
         <f>B325</f>
         <v>perovskite cell deposition</v>
@@ -7714,7 +7693,7 @@
         <v>deposited perovskite cell</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>223</v>
       </c>
@@ -7735,7 +7714,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>51</v>
       </c>
@@ -7756,9 +7735,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B337">
         <f>4.17324674571931/35116655.8454604</f>
@@ -7774,13 +7753,13 @@
         <v>77</v>
       </c>
       <c r="G337" t="s">
+        <v>444</v>
+      </c>
+      <c r="H337" t="s">
         <v>445</v>
       </c>
-      <c r="H337" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>266</v>
       </c>
@@ -7801,7 +7780,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>260</v>
       </c>
@@ -7822,7 +7801,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>117</v>
       </c>
@@ -7846,7 +7825,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>261</v>
       </c>
@@ -7867,7 +7846,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>269</v>
       </c>
@@ -7888,7 +7867,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>252</v>
       </c>
@@ -7909,7 +7888,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>242</v>
       </c>
@@ -7927,10 +7906,10 @@
         <v>77</v>
       </c>
       <c r="G344" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>262</v>
       </c>
@@ -7948,10 +7927,10 @@
         <v>77</v>
       </c>
       <c r="G345" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>252</v>
       </c>
@@ -7972,7 +7951,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>266</v>
       </c>
@@ -7993,7 +7972,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>266</v>
       </c>
@@ -8014,7 +7993,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>263</v>
       </c>
@@ -8032,10 +8011,10 @@
         <v>77</v>
       </c>
       <c r="G349" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>264</v>
       </c>
@@ -8047,16 +8026,16 @@
         <v>79</v>
       </c>
       <c r="E350" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F350" t="s">
         <v>77</v>
       </c>
       <c r="G350" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>261</v>
       </c>
@@ -8077,7 +8056,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>252</v>
       </c>
@@ -8098,7 +8077,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>266</v>
       </c>
@@ -8119,7 +8098,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>260</v>
       </c>
@@ -8140,7 +8119,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>106</v>
       </c>
@@ -8161,7 +8140,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>261</v>
       </c>
@@ -8182,7 +8161,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>252</v>
       </c>
@@ -8203,7 +8182,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>261</v>
       </c>
@@ -8224,7 +8203,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>266</v>
       </c>
@@ -8245,7 +8224,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>114</v>
       </c>
@@ -8269,7 +8248,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>95</v>
       </c>
@@ -8290,7 +8269,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>130</v>
       </c>
@@ -8311,9 +8290,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B363">
         <f>-(16594290.8653846+438300)/35116655.8454604</f>
@@ -8329,13 +8308,13 @@
         <v>77</v>
       </c>
       <c r="G363" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H363" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>206</v>
       </c>
@@ -8359,7 +8338,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>206</v>
       </c>
@@ -8383,25 +8362,23 @@
         <v>207</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="368" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>3</v>
       </c>
@@ -8409,7 +8386,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -8417,15 +8394,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>6</v>
       </c>
       <c r="B372" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -8433,7 +8410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>8</v>
       </c>
@@ -8441,7 +8418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>9</v>
       </c>
@@ -8452,7 +8429,7 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>10</v>
       </c>
@@ -8478,7 +8455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="str">
         <f>B368</f>
         <v>perovskite cell curing 1</v>
@@ -8502,7 +8479,7 @@
         <v>cured perovskite cell 1</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>258</v>
       </c>
@@ -8523,7 +8500,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>51</v>
       </c>
@@ -8544,7 +8521,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>206</v>
       </c>
@@ -8568,7 +8545,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>114</v>
       </c>
@@ -8592,7 +8569,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>95</v>
       </c>
@@ -8613,7 +8590,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>130</v>
       </c>
@@ -8634,7 +8611,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>206</v>
       </c>
@@ -8658,9 +8635,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B385">
         <f>-87660/35066568.3948119</f>
@@ -8676,31 +8653,29 @@
         <v>77</v>
       </c>
       <c r="G385" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H385" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>3</v>
       </c>
@@ -8708,7 +8683,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -8716,15 +8691,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>6</v>
       </c>
       <c r="B392" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -8732,7 +8707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -8740,7 +8715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>9</v>
       </c>
@@ -8751,7 +8726,7 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>10</v>
       </c>
@@ -8777,7 +8752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" t="str">
         <f>B388</f>
         <v>perovskite cell zinc oxide deposition</v>
@@ -8801,9 +8776,9 @@
         <v>zinc oxide deposited perovskite cell</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B398">
         <f>35066568.3948119/35016480.9441634</f>
@@ -8819,12 +8794,12 @@
         <v>77</v>
       </c>
       <c r="G398" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B399">
         <f>70/35016480.9441634</f>
@@ -8840,10 +8815,10 @@
         <v>77</v>
       </c>
       <c r="G399" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>115</v>
       </c>
@@ -8864,10 +8839,10 @@
         <v>116</v>
       </c>
       <c r="H400" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>145</v>
       </c>
@@ -8888,10 +8863,10 @@
         <v>146</v>
       </c>
       <c r="H401" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>117</v>
       </c>
@@ -8912,10 +8887,10 @@
         <v>118</v>
       </c>
       <c r="H402" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>51</v>
       </c>
@@ -8936,7 +8911,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>206</v>
       </c>
@@ -8960,7 +8935,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>114</v>
       </c>
@@ -8984,7 +8959,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>95</v>
       </c>
@@ -9005,7 +8980,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>130</v>
       </c>
@@ -9026,9 +9001,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B408">
         <f>-438300/35016480.9441634</f>
@@ -9044,13 +9019,13 @@
         <v>77</v>
       </c>
       <c r="G408" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H408" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>206</v>
       </c>
@@ -9074,25 +9049,23 @@
         <v>207</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="412" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>3</v>
       </c>
@@ -9100,7 +9073,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -9108,15 +9081,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>6</v>
       </c>
       <c r="B416" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -9124,7 +9097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -9132,7 +9105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>9</v>
       </c>
@@ -9143,7 +9116,7 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>10</v>
       </c>
@@ -9169,7 +9142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" t="str">
         <f>B412</f>
         <v>sputter process 3, perovskite cell</v>
@@ -9193,9 +9166,9 @@
         <v>perovskite cell, sputtered 3</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B422" s="3">
         <f>35016480.9441634/34966393.4935149</f>
@@ -9211,10 +9184,10 @@
         <v>77</v>
       </c>
       <c r="G422" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>217</v>
       </c>
@@ -9235,7 +9208,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>115</v>
       </c>
@@ -9256,10 +9229,10 @@
         <v>116</v>
       </c>
       <c r="H424" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>145</v>
       </c>
@@ -9280,10 +9253,10 @@
         <v>146</v>
       </c>
       <c r="H425" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>117</v>
       </c>
@@ -9304,10 +9277,10 @@
         <v>118</v>
       </c>
       <c r="H426" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>51</v>
       </c>
@@ -9328,7 +9301,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>206</v>
       </c>
@@ -9352,7 +9325,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>114</v>
       </c>
@@ -9376,7 +9349,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>95</v>
       </c>
@@ -9397,7 +9370,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>130</v>
       </c>
@@ -9418,7 +9391,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>206</v>
       </c>
@@ -9442,9 +9415,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B433">
         <f>-2629800/34966393.4935149</f>
@@ -9460,31 +9433,29 @@
         <v>77</v>
       </c>
       <c r="G433" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H433" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="436" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>3</v>
       </c>
@@ -9492,7 +9463,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>5</v>
       </c>
@@ -9500,15 +9471,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>6</v>
       </c>
       <c r="B440" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -9516,7 +9487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -9524,7 +9495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>9</v>
       </c>
@@ -9535,7 +9506,7 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>10</v>
       </c>
@@ -9561,7 +9532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" t="str">
         <f>B436</f>
         <v>perovskite cell contact formation</v>
@@ -9585,9 +9556,9 @@
         <v>metallized perovskite cell</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B446">
         <f>34966393.4935149/34916306.0428664</f>
@@ -9603,10 +9574,10 @@
         <v>77</v>
       </c>
       <c r="G446" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>250</v>
       </c>
@@ -9624,12 +9595,12 @@
         <v>77</v>
       </c>
       <c r="G447" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B448">
         <f>3800.95/34916306.0428664</f>
@@ -9645,10 +9616,10 @@
         <v>77</v>
       </c>
       <c r="G448" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>51</v>
       </c>
@@ -9669,7 +9640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>147</v>
       </c>
@@ -9690,9 +9661,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B451">
         <f>0.0000008002/34916306.0428664</f>
@@ -9708,12 +9679,12 @@
         <v>77</v>
       </c>
       <c r="G451" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B452">
         <f>100.025/34916306.0428664</f>
@@ -9729,10 +9700,10 @@
         <v>77</v>
       </c>
       <c r="G452" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>94</v>
       </c>
@@ -9753,9 +9724,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B454">
         <f>87.6219/34916306.0428664</f>
@@ -9771,12 +9742,12 @@
         <v>77</v>
       </c>
       <c r="G454" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B455">
         <f>685.3713/34916306.0428664</f>
@@ -9795,9 +9766,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B456">
         <f>3500/50.7/34916306.0428664</f>
@@ -9813,12 +9784,12 @@
         <v>77</v>
       </c>
       <c r="G456" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B457">
         <f>24500/34916306.0428664</f>
@@ -9834,12 +9805,12 @@
         <v>77</v>
       </c>
       <c r="G457" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B458">
         <f>70000/34916306.0428664</f>
@@ -9855,10 +9826,10 @@
         <v>77</v>
       </c>
       <c r="G458" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>114</v>
       </c>
@@ -9882,7 +9853,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>95</v>
       </c>
@@ -9903,7 +9874,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>130</v>
       </c>
@@ -9924,9 +9895,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B462">
         <f>-200/34916306.0428664</f>
@@ -9942,12 +9913,12 @@
         <v>77</v>
       </c>
       <c r="G462" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B463">
         <f>-1391.66666666667/34916306.0428664</f>
@@ -9963,12 +9934,12 @@
         <v>77</v>
       </c>
       <c r="G463" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B464">
         <f>-28489500/34916306.0428664</f>
@@ -9984,31 +9955,29 @@
         <v>77</v>
       </c>
       <c r="G464" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H464" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="467" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>3</v>
       </c>
@@ -10016,7 +9985,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>5</v>
       </c>
@@ -10024,15 +9993,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>6</v>
       </c>
       <c r="B471" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -10040,7 +10009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>8</v>
       </c>
@@ -10048,7 +10017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>9</v>
       </c>
@@ -10059,7 +10028,7 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>10</v>
       </c>
@@ -10085,7 +10054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="str">
         <f>B467</f>
         <v>perovskite cell curing 2</v>
@@ -10109,9 +10078,9 @@
         <v>cured perovskite cell 2</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B477">
         <f>34916306.0428664/34866218.5922179</f>
@@ -10127,10 +10096,10 @@
         <v>77</v>
       </c>
       <c r="G477" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>51</v>
       </c>
@@ -10151,7 +10120,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>114</v>
       </c>
@@ -10175,7 +10144,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>95</v>
       </c>
@@ -10196,7 +10165,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>130</v>
       </c>
@@ -10217,9 +10186,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B482">
         <f>-(43830000+5697900)/34866218.5922179</f>
@@ -10235,13 +10204,13 @@
         <v>77</v>
       </c>
       <c r="G482" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H482" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>144</v>
       </c>
@@ -10262,28 +10231,26 @@
         <v>143</v>
       </c>
       <c r="H483" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="486" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>3</v>
       </c>
@@ -10291,7 +10258,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>5</v>
       </c>
@@ -10299,15 +10266,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>6</v>
       </c>
       <c r="B490" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -10315,7 +10282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>8</v>
       </c>
@@ -10323,7 +10290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>9</v>
       </c>
@@ -10334,7 +10301,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>10</v>
       </c>
@@ -10360,7 +10327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" t="str">
         <f>B486</f>
         <v>photovoltaic cell production, perovskite</v>
@@ -10384,9 +10351,9 @@
         <v>photovoltaic cell, perovskite</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B496">
         <f>34866218.5922179/34816131.1415694</f>
@@ -10402,10 +10369,10 @@
         <v>77</v>
       </c>
       <c r="G496" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>51</v>
       </c>
@@ -10426,7 +10393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>114</v>
       </c>
@@ -10450,7 +10417,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>95</v>
       </c>
@@ -10471,7 +10438,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>130</v>
       </c>
@@ -10492,24 +10459,23 @@
         <v>131</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="502" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>3</v>
       </c>
@@ -10517,7 +10483,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>5</v>
       </c>
@@ -10525,15 +10491,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>6</v>
       </c>
       <c r="B506" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -10541,7 +10507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>8</v>
       </c>
@@ -10549,7 +10515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>9</v>
       </c>
@@ -10560,7 +10526,7 @@
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>10</v>
       </c>
@@ -10586,7 +10552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="str">
         <f>B502</f>
         <v>perovskite photovoltaic module assembly</v>
@@ -10606,12 +10572,12 @@
         <v>14</v>
       </c>
       <c r="G511" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B512" s="3">
         <v>36.001438685192085</v>
@@ -10626,12 +10592,12 @@
         <v>77</v>
       </c>
       <c r="G512" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B513">
         <v>3.3530571992109896E-2</v>
@@ -10646,15 +10612,15 @@
         <v>77</v>
       </c>
       <c r="G513" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H513" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B514">
         <v>7.7655547329470845E-2</v>
@@ -10669,15 +10635,15 @@
         <v>77</v>
       </c>
       <c r="G514" t="s">
+        <v>328</v>
+      </c>
+      <c r="H514" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
         <v>329</v>
-      </c>
-      <c r="H514" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A515" t="s">
-        <v>330</v>
       </c>
       <c r="B515">
         <v>7.7655547329470845E-2</v>
@@ -10692,15 +10658,15 @@
         <v>77</v>
       </c>
       <c r="G515" t="s">
+        <v>330</v>
+      </c>
+      <c r="H515" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
         <v>331</v>
-      </c>
-      <c r="H515" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
-        <v>332</v>
       </c>
       <c r="B516">
         <v>4.9975384243020806E-3</v>
@@ -10715,15 +10681,15 @@
         <v>77</v>
       </c>
       <c r="G516" t="s">
+        <v>332</v>
+      </c>
+      <c r="H516" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
         <v>333</v>
-      </c>
-      <c r="H516" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A517" t="s">
-        <v>334</v>
       </c>
       <c r="B517">
         <v>4.9975384243020806E-3</v>
@@ -10738,15 +10704,15 @@
         <v>77</v>
       </c>
       <c r="G517" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H517" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A518" t="s">
-        <v>317</v>
       </c>
       <c r="B518">
         <v>11.374492585831344</v>
@@ -10761,12 +10727,12 @@
         <v>77</v>
       </c>
       <c r="G518" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B519">
         <v>3.9086892704038624E-2</v>
@@ -10781,13 +10747,13 @@
         <v>77</v>
       </c>
       <c r="G519" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H519" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>51</v>
       </c>
@@ -10807,10 +10773,10 @@
         <v>52</v>
       </c>
       <c r="H520" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>55</v>
       </c>
@@ -10830,12 +10796,12 @@
         <v>56</v>
       </c>
       <c r="H521" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B522">
         <v>3.4743904625812109E-4</v>
@@ -10850,15 +10816,15 @@
         <v>77</v>
       </c>
       <c r="G522" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H522" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A523" t="s">
-        <v>323</v>
       </c>
       <c r="B523">
         <v>0.25851119513253057</v>
@@ -10873,12 +10839,12 @@
         <v>77</v>
       </c>
       <c r="G523" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A524" t="s">
-        <v>324</v>
       </c>
       <c r="B524">
         <v>0.1835429485440967</v>
@@ -10893,12 +10859,12 @@
         <v>77</v>
       </c>
       <c r="G524" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B525">
         <v>2.8436231464578365E-2</v>
@@ -10913,12 +10879,12 @@
         <v>77</v>
       </c>
       <c r="G525" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B526">
         <v>4.6532015123855505E-2</v>
@@ -10933,12 +10899,12 @@
         <v>77</v>
       </c>
       <c r="G526" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B527">
         <v>1.5510671707951835E-3</v>
@@ -10953,10 +10919,10 @@
         <v>77</v>
       </c>
       <c r="G527" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>84</v>
       </c>
@@ -10976,9 +10942,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B529">
         <v>7.7656763017812186E-2</v>
@@ -10993,13 +10959,13 @@
         <v>77</v>
       </c>
       <c r="G529" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H529" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>51</v>
       </c>
@@ -11019,10 +10985,10 @@
         <v>52</v>
       </c>
       <c r="H530" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>55</v>
       </c>
@@ -11042,10 +11008,10 @@
         <v>56</v>
       </c>
       <c r="H531" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>51</v>
       </c>
@@ -11065,10 +11031,10 @@
         <v>52</v>
       </c>
       <c r="H532" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>206</v>
       </c>
@@ -11091,7 +11057,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>114</v>
       </c>
@@ -11114,9 +11080,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B535">
         <v>5.1702239026506112E-3</v>
@@ -11131,12 +11097,12 @@
         <v>77</v>
       </c>
       <c r="G535" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B536">
         <v>-5.1702239026506112E-3</v>
@@ -11151,10 +11117,10 @@
         <v>77</v>
       </c>
       <c r="G536" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>95</v>
       </c>
@@ -11174,7 +11140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>130</v>
       </c>
@@ -11194,7 +11160,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>206</v>
       </c>
@@ -11217,25 +11183,23 @@
         <v>207</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="542" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>3</v>
       </c>
@@ -11243,7 +11207,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>5</v>
       </c>
@@ -11251,15 +11215,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>6</v>
       </c>
       <c r="B546" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -11267,7 +11231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>8</v>
       </c>
@@ -11275,7 +11239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>9</v>
       </c>
@@ -11286,7 +11250,7 @@
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>10</v>
       </c>
@@ -11312,7 +11276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" t="str">
         <f>B542</f>
         <v>photovoltaic panel installation, 0.5kWp, perovskite</v>
@@ -11336,9 +11300,9 @@
         <v>photovoltaic panel, perovskite</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B552" s="3">
         <v>2</v>
@@ -11353,15 +11317,15 @@
         <v>77</v>
       </c>
       <c r="G552" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H552" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B553">
         <f>24176.902655205/483538.053104108</f>
@@ -11377,12 +11341,12 @@
         <v>77</v>
       </c>
       <c r="G553" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B554">
         <f>589916.424787002/483538.053104108</f>
@@ -11398,27 +11362,26 @@
         <v>77</v>
       </c>
       <c r="G554" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="556" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>3</v>
       </c>
@@ -11426,7 +11389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>5</v>
       </c>
@@ -11434,15 +11397,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>6</v>
       </c>
       <c r="B560" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -11450,7 +11413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>8</v>
       </c>
@@ -11458,7 +11421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>9</v>
       </c>
@@ -11469,7 +11432,7 @@
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>10</v>
       </c>
@@ -11495,19 +11458,19 @@
         <v>2</v>
       </c>
       <c r="I564" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J564" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="J564" s="1" t="s">
+      <c r="K564" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="K564" s="1" t="s">
+      <c r="L564" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="L564" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" t="str">
         <f>B556</f>
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
@@ -11532,9 +11495,9 @@
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
       </c>
     </row>
-    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B566" s="4">
         <f>1/(25*460)</f>
@@ -11550,7 +11513,7 @@
         <v>77</v>
       </c>
       <c r="G566" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I566" s="7">
         <v>5</v>
@@ -11568,24 +11531,23 @@
         <v>1.0869565217391305E-4</v>
       </c>
     </row>
-    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="568" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="569" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>3</v>
       </c>
@@ -11593,7 +11555,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>5</v>
       </c>
@@ -11601,15 +11563,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>6</v>
       </c>
       <c r="B572" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -11617,7 +11579,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>8</v>
       </c>
@@ -11625,7 +11587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>9</v>
       </c>
@@ -11636,7 +11598,7 @@
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
     </row>
-    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>10</v>
       </c>
@@ -11662,7 +11624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" t="str">
         <f>B568</f>
         <v>exhaust abatement, for perovskite</v>
@@ -11687,10 +11649,10 @@
         <v>abated exhaust</v>
       </c>
       <c r="H577" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>106</v>
       </c>
@@ -11710,7 +11672,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>100</v>
       </c>
@@ -11730,7 +11692,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>51</v>
       </c>
@@ -11751,10 +11713,10 @@
         <v>52</v>
       </c>
       <c r="H580" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>113</v>
       </c>
@@ -11777,9 +11739,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B582">
         <v>0.23200000000000001</v>
@@ -11794,13 +11756,13 @@
         <v>77</v>
       </c>
       <c r="G582" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H582" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>114</v>
       </c>
@@ -11823,9 +11785,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B584">
         <v>0</v>
@@ -11840,12 +11802,12 @@
         <v>78</v>
       </c>
       <c r="H584" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B585">
         <v>0</v>
@@ -11860,12 +11822,12 @@
         <v>78</v>
       </c>
       <c r="H585" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B586">
         <v>0</v>
@@ -11880,12 +11842,12 @@
         <v>78</v>
       </c>
       <c r="H586" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B587">
         <v>0</v>
@@ -11900,12 +11862,10 @@
         <v>78</v>
       </c>
       <c r="H587" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="590" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
         <v>1</v>
       </c>
@@ -11913,15 +11873,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A591" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>3</v>
       </c>
@@ -11929,7 +11889,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>5</v>
       </c>
@@ -11937,7 +11897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>6</v>
       </c>
@@ -11945,7 +11905,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -11953,7 +11913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>8</v>
       </c>
@@ -11961,7 +11921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>9</v>
       </c>
@@ -11972,7 +11932,7 @@
       <c r="F597" s="1"/>
       <c r="G597" s="1"/>
     </row>
-    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>10</v>
       </c>
@@ -11998,7 +11958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" t="str">
         <f>B590</f>
         <v>tray cleaning, for perovskite</v>
@@ -12021,12 +11981,12 @@
         <v>tray cleaning</v>
       </c>
       <c r="H599" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B600">
         <f>2.10977682373547E-07/0.7</f>
@@ -12042,13 +12002,13 @@
         <v>77</v>
       </c>
       <c r="G600" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H600" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>100</v>
       </c>
@@ -12069,7 +12029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>51</v>
       </c>
@@ -12090,12 +12050,12 @@
         <v>52</v>
       </c>
       <c r="H602" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B603">
         <f>3.97134460938441E-06*1000</f>
@@ -12117,7 +12077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>93</v>
       </c>
@@ -12138,9 +12098,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B605">
         <f>-2.48209038086526E-06</f>
@@ -12156,12 +12116,12 @@
         <v>77</v>
       </c>
       <c r="G605" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B606">
         <f>-0.148925422851915</f>
@@ -12177,15 +12137,13 @@
         <v>77</v>
       </c>
       <c r="G606" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H606" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="609" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
         <v>1</v>
       </c>
@@ -12193,7 +12151,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="5" t="s">
         <v>2</v>
       </c>
@@ -12201,7 +12159,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>3</v>
       </c>
@@ -12209,7 +12167,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>5</v>
       </c>
@@ -12217,7 +12175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>6</v>
       </c>
@@ -12225,7 +12183,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -12233,7 +12191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>8</v>
       </c>
@@ -12241,7 +12199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>9</v>
       </c>
@@ -12252,7 +12210,7 @@
       <c r="F616" s="1"/>
       <c r="G616" s="1"/>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>10</v>
       </c>
@@ -12278,7 +12236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" t="str">
         <f>B609</f>
         <v>ultrapure water system activity, for perovskite</v>
@@ -12304,7 +12262,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>51</v>
       </c>
@@ -12325,12 +12283,12 @@
         <v>52</v>
       </c>
       <c r="H619" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B620">
         <f>3.63854545454545*1000/2307.27272727273</f>
@@ -12352,7 +12310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>114</v>
       </c>
@@ -12376,9 +12334,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B622">
         <f>3.27272727272727E-07/2307.27272727273</f>
@@ -12394,10 +12352,10 @@
         <v>77</v>
       </c>
       <c r="G622" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>252</v>
       </c>
@@ -12418,12 +12376,10 @@
         <v>253</v>
       </c>
       <c r="H623" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="626" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
         <v>1</v>
       </c>
@@ -12431,7 +12387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A627" s="5" t="s">
         <v>2</v>
       </c>
@@ -12439,7 +12395,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>3</v>
       </c>
@@ -12447,7 +12403,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>5</v>
       </c>
@@ -12455,7 +12411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>6</v>
       </c>
@@ -12463,7 +12419,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -12471,7 +12427,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>8</v>
       </c>
@@ -12479,7 +12435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>9</v>
       </c>
@@ -12490,7 +12446,7 @@
       <c r="F633" s="1"/>
       <c r="G633" s="1"/>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>10</v>
       </c>
@@ -12516,7 +12472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" t="str">
         <f>B626</f>
         <v>inhouse waste water treatment, for perovskite production</v>
@@ -12543,7 +12499,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>104</v>
       </c>
@@ -12564,10 +12520,10 @@
         <v>105</v>
       </c>
       <c r="H636" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>100</v>
       </c>
@@ -12587,7 +12543,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>25</v>
       </c>
@@ -12608,12 +12564,12 @@
         <v>111</v>
       </c>
       <c r="H638" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A639" t="s">
-        <v>364</v>
       </c>
       <c r="B639">
         <v>0.45705279747832939</v>
@@ -12628,12 +12584,12 @@
         <v>77</v>
       </c>
       <c r="G639" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B640">
         <v>0.33884948778565799</v>
@@ -12648,12 +12604,12 @@
         <v>77</v>
       </c>
       <c r="G640" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B641">
         <v>0.42111899133175729</v>
@@ -12668,10 +12624,10 @@
         <v>77</v>
       </c>
       <c r="G641" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>51</v>
       </c>
@@ -12692,10 +12648,10 @@
         <v>52</v>
       </c>
       <c r="H642" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>114</v>
       </c>
@@ -12719,9 +12675,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B644">
         <v>315.20882584712399</v>
@@ -12742,7 +12698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>252</v>
       </c>
@@ -12762,12 +12718,12 @@
         <v>253</v>
       </c>
       <c r="H645" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B646">
         <f>-0.179790569157611*1000</f>
@@ -12783,12 +12739,12 @@
         <v>77</v>
       </c>
       <c r="G646" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B647">
         <f>-78.8022064617809</f>
@@ -12804,15 +12760,15 @@
         <v>77</v>
       </c>
       <c r="G647" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H647" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B648">
         <v>-47.281323877068601</v>
@@ -12827,15 +12783,13 @@
         <v>77</v>
       </c>
       <c r="G648" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H648" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A651" s="2" t="s">
         <v>1</v>
       </c>
@@ -12843,7 +12797,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A652" s="5" t="s">
         <v>2</v>
       </c>
@@ -12851,7 +12805,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>3</v>
       </c>
@@ -12859,7 +12813,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>5</v>
       </c>
@@ -12867,7 +12821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>6</v>
       </c>
@@ -12875,7 +12829,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>7</v>
       </c>
@@ -12883,7 +12837,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>8</v>
       </c>
@@ -12891,7 +12845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>9</v>
       </c>
@@ -12902,7 +12856,7 @@
       <c r="F658" s="1"/>
       <c r="G658" s="1"/>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>10</v>
       </c>
@@ -12928,7 +12882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" t="str">
         <f>B651</f>
         <v>process cooling, water, for perovskite</v>
@@ -12954,7 +12908,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>252</v>
       </c>
@@ -12974,10 +12928,10 @@
         <v>253</v>
       </c>
       <c r="H661" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>51</v>
       </c>
@@ -12998,9 +12952,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B663">
         <v>1000</v>
@@ -13021,8 +12975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="665" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A665" s="2" t="s">
         <v>1</v>
       </c>
@@ -13030,7 +12983,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A666" s="5" t="s">
         <v>2</v>
       </c>
@@ -13038,7 +12991,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>3</v>
       </c>
@@ -13046,7 +12999,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>5</v>
       </c>
@@ -13054,7 +13007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>6</v>
       </c>
@@ -13062,7 +13015,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -13070,7 +13023,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>8</v>
       </c>
@@ -13078,7 +13031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>9</v>
       </c>
@@ -13089,7 +13042,7 @@
       <c r="F672" s="1"/>
       <c r="G672" s="1"/>
     </row>
-    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>10</v>
       </c>
@@ -13115,7 +13068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" t="str">
         <f>B665</f>
         <v>process cooling, water, for perovskite</v>
@@ -13142,9 +13095,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="677" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A677" s="2" t="s">
         <v>1</v>
       </c>
@@ -13152,7 +13103,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A678" s="5" t="s">
         <v>2</v>
       </c>
@@ -13160,7 +13111,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>3</v>
       </c>
@@ -13168,7 +13119,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>5</v>
       </c>
@@ -13176,7 +13127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>6</v>
       </c>
@@ -13184,7 +13135,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>7</v>
       </c>
@@ -13192,7 +13143,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>8</v>
       </c>
@@ -13200,7 +13151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>9</v>
       </c>
@@ -13211,7 +13162,7 @@
       <c r="F684" s="1"/>
       <c r="G684" s="1"/>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
         <v>10</v>
       </c>
@@ -13237,7 +13188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" t="str">
         <f>B677</f>
         <v>air compressor activity, for perovskite</v>
@@ -13263,9 +13214,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -13280,23 +13231,21 @@
         <v>77</v>
       </c>
       <c r="G687" t="s">
+        <v>372</v>
+      </c>
+      <c r="H687" t="s">
         <v>373</v>
       </c>
-      <c r="H687" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="690" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="690" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A690" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="691" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A691" s="5" t="s">
         <v>2</v>
       </c>
@@ -13304,7 +13253,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>3</v>
       </c>
@@ -13312,7 +13261,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>5</v>
       </c>
@@ -13320,15 +13269,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>6</v>
       </c>
       <c r="B694" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -13336,7 +13285,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>8</v>
       </c>
@@ -13344,7 +13293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>9</v>
       </c>
@@ -13355,7 +13304,7 @@
       <c r="F697" s="1"/>
       <c r="G697" s="1"/>
     </row>
-    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>10</v>
       </c>
@@ -13381,7 +13330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" t="str">
         <f>B690</f>
         <v>process exhaust ventilators, general, for perovskite production</v>
@@ -13407,9 +13356,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B700">
         <v>7.6051410753669521E-7</v>
@@ -13424,12 +13373,12 @@
         <v>77</v>
       </c>
       <c r="G700" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B701">
         <v>7.6051410753669521E-7</v>
@@ -13444,10 +13393,10 @@
         <v>77</v>
       </c>
       <c r="G701" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>51</v>
       </c>
@@ -13468,9 +13417,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B703">
         <v>1.1407711613050422E-5</v>
@@ -13485,10 +13434,10 @@
         <v>78</v>
       </c>
       <c r="H703" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>190</v>
       </c>
@@ -13505,10 +13454,10 @@
         <v>78</v>
       </c>
       <c r="H704" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>76</v>
       </c>
@@ -13525,20 +13474,18 @@
         <v>78</v>
       </c>
       <c r="H705" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="708" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A708" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="709" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A709" s="5" t="s">
         <v>2</v>
       </c>
@@ -13546,7 +13493,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>3</v>
       </c>
@@ -13554,7 +13501,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>5</v>
       </c>
@@ -13562,15 +13509,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>6</v>
       </c>
       <c r="B712" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -13578,7 +13525,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>8</v>
       </c>
@@ -13586,7 +13533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
         <v>9</v>
       </c>
@@ -13597,7 +13544,7 @@
       <c r="F715" s="1"/>
       <c r="G715" s="1"/>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>10</v>
       </c>
@@ -13623,7 +13570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A717" t="str">
         <f>B708</f>
         <v>process exhaust ventilators, acidic, for perovskite production</v>
@@ -13649,9 +13596,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B718">
         <v>7.6051410753669521E-7</v>
@@ -13666,12 +13613,12 @@
         <v>77</v>
       </c>
       <c r="G718" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B719">
         <v>7.6051410753669521E-7</v>
@@ -13686,10 +13633,10 @@
         <v>77</v>
       </c>
       <c r="G719" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>51</v>
       </c>
@@ -13710,9 +13657,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B721">
         <v>1.1407711613050422E-5</v>
@@ -13727,10 +13674,10 @@
         <v>78</v>
       </c>
       <c r="H721" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>190</v>
       </c>
@@ -13747,10 +13694,10 @@
         <v>78</v>
       </c>
       <c r="H722" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>76</v>
       </c>
@@ -13767,10 +13714,10 @@
         <v>78</v>
       </c>
       <c r="H723" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>25</v>
       </c>
@@ -13791,10 +13738,10 @@
         <v>111</v>
       </c>
       <c r="H724" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>51</v>
       </c>
@@ -13815,7 +13762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>100</v>
       </c>
@@ -13835,17 +13782,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="729" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A729" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="730" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A730" s="5" t="s">
         <v>2</v>
       </c>
@@ -13853,7 +13798,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>3</v>
       </c>
@@ -13861,7 +13806,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>5</v>
       </c>
@@ -13869,15 +13814,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>6</v>
       </c>
       <c r="B733" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -13885,7 +13830,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>8</v>
       </c>
@@ -13893,7 +13838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
         <v>9</v>
       </c>
@@ -13904,7 +13849,7 @@
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
     </row>
-    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
         <v>10</v>
       </c>
@@ -13930,7 +13875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" t="str">
         <f>B729</f>
         <v>process exhaust ventilators, caustic, for perovskite production</v>
@@ -13956,9 +13901,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B739">
         <v>7.6051410753669521E-7</v>
@@ -13973,12 +13918,12 @@
         <v>77</v>
       </c>
       <c r="G739" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B740">
         <v>7.6051410753669521E-7</v>
@@ -13993,10 +13938,10 @@
         <v>77</v>
       </c>
       <c r="G740" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>51</v>
       </c>
@@ -14017,9 +13962,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B742">
         <v>1.1407711613050422E-5</v>
@@ -14034,10 +13979,10 @@
         <v>78</v>
       </c>
       <c r="H742" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>190</v>
       </c>
@@ -14054,10 +13999,10 @@
         <v>78</v>
       </c>
       <c r="H743" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>76</v>
       </c>
@@ -14074,10 +14019,10 @@
         <v>78</v>
       </c>
       <c r="H744" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>231</v>
       </c>
@@ -14095,13 +14040,13 @@
         <v>77</v>
       </c>
       <c r="G745" t="s">
+        <v>403</v>
+      </c>
+      <c r="H745" t="s">
         <v>404</v>
       </c>
-      <c r="H745" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>51</v>
       </c>
@@ -14122,7 +14067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>100</v>
       </c>
@@ -14143,13 +14088,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H747" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="market for silicon tetrachloride"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H747" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
